--- a/BackTest/2019-10-15 BackTest FAB.xlsx
+++ b/BackTest/2019-10-15 BackTest FAB.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.6199999999999992</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-8.1967213114754</v>
+      </c>
       <c r="L12" t="n">
         <v>6.019</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.6499999999999995</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>10.71428571428565</v>
+      </c>
       <c r="L13" t="n">
         <v>6.017</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.6699999999999999</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>21.56862745098029</v>
+      </c>
       <c r="L14" t="n">
         <v>6.020999999999999</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.6800000000000006</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>11.11111111111107</v>
+      </c>
       <c r="L15" t="n">
         <v>6.032999999999999</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.6900000000000013</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-2.439024390244061</v>
+      </c>
       <c r="L16" t="n">
         <v>6.036999999999999</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.7000000000000011</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-41.93548387096752</v>
+      </c>
       <c r="L17" t="n">
         <v>6.034999999999999</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.7300000000000013</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-3.999999999999886</v>
+      </c>
       <c r="L18" t="n">
         <v>6.025</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.7500000000000018</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>14.2857142857138</v>
+      </c>
       <c r="L19" t="n">
         <v>6.022</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.8400000000000016</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-43.99999999999966</v>
+      </c>
       <c r="L20" t="n">
         <v>6.016</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>0.8500000000000014</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-39.13043478260826</v>
+      </c>
       <c r="L21" t="n">
         <v>6.004</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>0.8500000000000014</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-59.99999999999947</v>
+      </c>
       <c r="L22" t="n">
         <v>5.994999999999999</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>0.8800000000000017</v>
       </c>
       <c r="K23" t="n">
-        <v>-12.64367816091946</v>
+        <v>-33.33333333333277</v>
       </c>
       <c r="L23" t="n">
         <v>5.985999999999999</v>
@@ -1466,7 +1488,7 @@
         <v>0.9400000000000013</v>
       </c>
       <c r="K24" t="n">
-        <v>3.529411764705801</v>
+        <v>-7.69230769230785</v>
       </c>
       <c r="L24" t="n">
         <v>5.984999999999999</v>
@@ -1515,7 +1537,7 @@
         <v>0.9500000000000011</v>
       </c>
       <c r="K25" t="n">
-        <v>13.9240506329113</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>5.983999999999999</v>
@@ -1564,7 +1586,7 @@
         <v>0.9600000000000017</v>
       </c>
       <c r="K26" t="n">
-        <v>6.849315068493114</v>
+        <v>7.69230769230785</v>
       </c>
       <c r="L26" t="n">
         <v>5.984999999999999</v>
@@ -1613,7 +1635,7 @@
         <v>0.9700000000000024</v>
       </c>
       <c r="K27" t="n">
-        <v>-1.449275362318934</v>
+        <v>-8.333333333333487</v>
       </c>
       <c r="L27" t="n">
         <v>5.985999999999999</v>
@@ -1662,7 +1684,7 @@
         <v>0.9800000000000031</v>
       </c>
       <c r="K28" t="n">
-        <v>-18.64406779660996</v>
+        <v>4.34782608695679</v>
       </c>
       <c r="L28" t="n">
         <v>5.984999999999999</v>
@@ -1711,7 +1733,7 @@
         <v>0.9800000000000031</v>
       </c>
       <c r="K29" t="n">
-        <v>-3.999999999999886</v>
+        <v>71.42857142857106</v>
       </c>
       <c r="L29" t="n">
         <v>5.985999999999999</v>
@@ -1760,7 +1782,7 @@
         <v>0.9800000000000031</v>
       </c>
       <c r="K30" t="n">
-        <v>9.090909090909017</v>
+        <v>84.61538461538377</v>
       </c>
       <c r="L30" t="n">
         <v>5.995999999999999</v>
@@ -1809,7 +1831,7 @@
         <v>0.9800000000000031</v>
       </c>
       <c r="K31" t="n">
-        <v>-2.564102564102483</v>
+        <v>84.61538461538377</v>
       </c>
       <c r="L31" t="n">
         <v>6.006999999999998</v>
@@ -1860,7 +1882,7 @@
         <v>0.9800000000000031</v>
       </c>
       <c r="K32" t="n">
-        <v>5.555555555555624</v>
+        <v>79.99999999999893</v>
       </c>
       <c r="L32" t="n">
         <v>6.017999999999998</v>
@@ -1911,7 +1933,7 @@
         <v>0.9900000000000038</v>
       </c>
       <c r="K33" t="n">
-        <v>-5.882352941176532</v>
+        <v>19.99999999999858</v>
       </c>
       <c r="L33" t="n">
         <v>6.024999999999997</v>
@@ -2013,7 +2035,7 @@
         <v>1.010000000000003</v>
       </c>
       <c r="K35" t="n">
-        <v>-9.090909090909092</v>
+        <v>-59.99999999999858</v>
       </c>
       <c r="L35" t="n">
         <v>6.023999999999996</v>
@@ -2064,7 +2086,7 @@
         <v>1.060000000000003</v>
       </c>
       <c r="K36" t="n">
-        <v>-18.91891891891866</v>
+        <v>-77.77777777777646</v>
       </c>
       <c r="L36" t="n">
         <v>6.015999999999996</v>
@@ -2115,7 +2137,7 @@
         <v>1.100000000000003</v>
       </c>
       <c r="K37" t="n">
-        <v>-4.999999999999867</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L37" t="n">
         <v>6.012999999999996</v>
@@ -2166,7 +2188,7 @@
         <v>1.140000000000003</v>
       </c>
       <c r="K38" t="n">
-        <v>-21.95121951219498</v>
+        <v>-50</v>
       </c>
       <c r="L38" t="n">
         <v>6.004999999999997</v>
@@ -2217,7 +2239,7 @@
         <v>1.140000000000003</v>
       </c>
       <c r="K39" t="n">
-        <v>-17.94871794871773</v>
+        <v>-50</v>
       </c>
       <c r="L39" t="n">
         <v>5.996999999999997</v>
@@ -2268,7 +2290,7 @@
         <v>1.200000000000003</v>
       </c>
       <c r="K40" t="n">
-        <v>22.22222222222217</v>
+        <v>-9.09090909090931</v>
       </c>
       <c r="L40" t="n">
         <v>5.994999999999997</v>
@@ -2319,7 +2341,7 @@
         <v>1.270000000000002</v>
       </c>
       <c r="K41" t="n">
-        <v>4.761904761904863</v>
+        <v>-31.03448275862073</v>
       </c>
       <c r="L41" t="n">
         <v>5.985999999999997</v>
@@ -2370,7 +2392,7 @@
         <v>1.330000000000002</v>
       </c>
       <c r="K42" t="n">
-        <v>16.66666666666666</v>
+        <v>-5.882352941176379</v>
       </c>
       <c r="L42" t="n">
         <v>5.982999999999997</v>
@@ -2421,7 +2443,7 @@
         <v>1.370000000000002</v>
       </c>
       <c r="K43" t="n">
-        <v>2.040816326530568</v>
+        <v>-15.7894736842105</v>
       </c>
       <c r="L43" t="n">
         <v>5.976999999999997</v>
@@ -2472,7 +2494,7 @@
         <v>1.420000000000002</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>2.43902439024386</v>
       </c>
       <c r="L44" t="n">
         <v>5.975999999999997</v>
@@ -2523,7 +2545,7 @@
         <v>1.420000000000002</v>
       </c>
       <c r="K45" t="n">
-        <v>-2.127659574468037</v>
+        <v>16.66666666666663</v>
       </c>
       <c r="L45" t="n">
         <v>5.976999999999999</v>
@@ -2574,7 +2596,7 @@
         <v>1.430000000000001</v>
       </c>
       <c r="K46" t="n">
-        <v>-2.12765957446823</v>
+        <v>9.090909090908944</v>
       </c>
       <c r="L46" t="n">
         <v>5.983999999999997</v>
@@ -2625,7 +2647,7 @@
         <v>1.440000000000001</v>
       </c>
       <c r="K47" t="n">
-        <v>-2.127659574468045</v>
+        <v>20</v>
       </c>
       <c r="L47" t="n">
         <v>5.985999999999998</v>
@@ -2676,7 +2698,7 @@
         <v>1.450000000000001</v>
       </c>
       <c r="K48" t="n">
-        <v>-6.382978723404335</v>
+        <v>16.12903225806457</v>
       </c>
       <c r="L48" t="n">
         <v>5.990999999999998</v>
@@ -2727,7 +2749,7 @@
         <v>1.500000000000001</v>
       </c>
       <c r="K49" t="n">
-        <v>-15.38461538461546</v>
+        <v>-20</v>
       </c>
       <c r="L49" t="n">
         <v>5.990999999999998</v>
@@ -2778,7 +2800,7 @@
         <v>1.500000000000001</v>
       </c>
       <c r="K50" t="n">
-        <v>-15.38461538461546</v>
+        <v>4.347826086956454</v>
       </c>
       <c r="L50" t="n">
         <v>5.984999999999999</v>
@@ -2829,7 +2851,7 @@
         <v>1.550000000000001</v>
       </c>
       <c r="K51" t="n">
-        <v>-5.263157894736907</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>5.991</v>
@@ -2880,7 +2902,7 @@
         <v>1.600000000000001</v>
       </c>
       <c r="K52" t="n">
-        <v>3.225806451612848</v>
+        <v>39.13043478260887</v>
       </c>
       <c r="L52" t="n">
         <v>5.996</v>
@@ -2931,7 +2953,7 @@
         <v>1.69</v>
       </c>
       <c r="K53" t="n">
-        <v>17.14285714285724</v>
+        <v>48.14814814814834</v>
       </c>
       <c r="L53" t="n">
         <v>6.013999999999999</v>
@@ -2982,7 +3004,7 @@
         <v>1.69</v>
       </c>
       <c r="K54" t="n">
-        <v>17.14285714285724</v>
+        <v>48.14814814814834</v>
       </c>
       <c r="L54" t="n">
         <v>6.026999999999999</v>
@@ -3033,7 +3055,7 @@
         <v>1.69</v>
       </c>
       <c r="K55" t="n">
-        <v>20.58823529411769</v>
+        <v>46.15384615384639</v>
       </c>
       <c r="L55" t="n">
         <v>6.039999999999998</v>
@@ -3084,7 +3106,7 @@
         <v>1.710000000000001</v>
       </c>
       <c r="K56" t="n">
-        <v>32.30769230769241</v>
+        <v>55.55555555555578</v>
       </c>
       <c r="L56" t="n">
         <v>6.053999999999999</v>
@@ -3135,7 +3157,7 @@
         <v>1.730000000000001</v>
       </c>
       <c r="K57" t="n">
-        <v>23.8095238095238</v>
+        <v>49.99999999999984</v>
       </c>
       <c r="L57" t="n">
         <v>6.066999999999999</v>
@@ -3186,7 +3208,7 @@
         <v>1.750000000000002</v>
       </c>
       <c r="K58" t="n">
-        <v>34.4262295081968</v>
+        <v>83.99999999999969</v>
       </c>
       <c r="L58" t="n">
         <v>6.083</v>
@@ -3237,7 +3259,7 @@
         <v>1.750000000000002</v>
       </c>
       <c r="K59" t="n">
-        <v>34.4262295081968</v>
+        <v>83.99999999999969</v>
       </c>
       <c r="L59" t="n">
         <v>6.103999999999999</v>
@@ -3288,7 +3310,7 @@
         <v>1.750000000000002</v>
       </c>
       <c r="K60" t="n">
-        <v>27.27272727272739</v>
+        <v>79.99999999999964</v>
       </c>
       <c r="L60" t="n">
         <v>6.124999999999998</v>
@@ -3339,7 +3361,7 @@
         <v>1.770000000000001</v>
       </c>
       <c r="K61" t="n">
-        <v>47.99999999999995</v>
+        <v>76.47058823529369</v>
       </c>
       <c r="L61" t="n">
         <v>6.142999999999998</v>
@@ -3390,7 +3412,7 @@
         <v>1.800000000000002</v>
       </c>
       <c r="K62" t="n">
-        <v>44.6808510638298</v>
+        <v>63.63636363636319</v>
       </c>
       <c r="L62" t="n">
         <v>6.158999999999997</v>
@@ -3441,7 +3463,7 @@
         <v>1.850000000000001</v>
       </c>
       <c r="K63" t="n">
-        <v>62.50000000000002</v>
+        <v>74.99999999999959</v>
       </c>
       <c r="L63" t="n">
         <v>6.170999999999998</v>
@@ -3492,7 +3514,7 @@
         <v>1.900000000000001</v>
       </c>
       <c r="K64" t="n">
-        <v>41.66666666666675</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L64" t="n">
         <v>6.177999999999997</v>
@@ -3543,7 +3565,7 @@
         <v>1.910000000000001</v>
       </c>
       <c r="K65" t="n">
-        <v>38.77551020408176</v>
+        <v>20</v>
       </c>
       <c r="L65" t="n">
         <v>6.183999999999997</v>
@@ -3594,7 +3616,7 @@
         <v>1.960000000000001</v>
       </c>
       <c r="K66" t="n">
-        <v>24.52830188679263</v>
+        <v>4.347826086956824</v>
       </c>
       <c r="L66" t="n">
         <v>6.182999999999998</v>
@@ -3645,7 +3667,7 @@
         <v>2.010000000000001</v>
       </c>
       <c r="K67" t="n">
-        <v>33.33333333333344</v>
+        <v>15.38461538461546</v>
       </c>
       <c r="L67" t="n">
         <v>6.188999999999998</v>
@@ -3696,7 +3718,7 @@
         <v>2.02</v>
       </c>
       <c r="K68" t="n">
-        <v>36.84210526315793</v>
+        <v>18.51851851851854</v>
       </c>
       <c r="L68" t="n">
         <v>6.193999999999998</v>
@@ -3747,7 +3769,7 @@
         <v>2.06</v>
       </c>
       <c r="K69" t="n">
-        <v>39.28571428571427</v>
+        <v>3.225806451612848</v>
       </c>
       <c r="L69" t="n">
         <v>6.194999999999999</v>
@@ -3798,7 +3820,7 @@
         <v>2.100000000000001</v>
       </c>
       <c r="K70" t="n">
-        <v>43.33333333333332</v>
+        <v>9.090909090909188</v>
       </c>
       <c r="L70" t="n">
         <v>6.199999999999998</v>
@@ -3849,7 +3871,7 @@
         <v>2.130000000000001</v>
       </c>
       <c r="K71" t="n">
-        <v>41.37931034482762</v>
+        <v>9.090909090909188</v>
       </c>
       <c r="L71" t="n">
         <v>6.205999999999998</v>
@@ -3900,7 +3922,7 @@
         <v>2.130000000000001</v>
       </c>
       <c r="K72" t="n">
-        <v>35.84905660377365</v>
+        <v>-7.142857142857006</v>
       </c>
       <c r="L72" t="n">
         <v>6.208999999999998</v>
@@ -3951,7 +3973,7 @@
         <v>2.170000000000001</v>
       </c>
       <c r="K73" t="n">
-        <v>12.50000000000009</v>
+        <v>-3.70370370370363</v>
       </c>
       <c r="L73" t="n">
         <v>6.202999999999998</v>
@@ -4002,7 +4024,7 @@
         <v>2.200000000000001</v>
       </c>
       <c r="K74" t="n">
-        <v>17.64705882352953</v>
+        <v>10.34482758620698</v>
       </c>
       <c r="L74" t="n">
         <v>6.204999999999997</v>
@@ -4053,7 +4075,7 @@
         <v>2.23</v>
       </c>
       <c r="K75" t="n">
-        <v>22.22222222222224</v>
+        <v>40.74074074074059</v>
       </c>
       <c r="L75" t="n">
         <v>6.210999999999997</v>
@@ -4104,7 +4126,7 @@
         <v>2.28</v>
       </c>
       <c r="K76" t="n">
-        <v>8.771929824561383</v>
+        <v>3.70370370370363</v>
       </c>
       <c r="L76" t="n">
         <v>6.216999999999997</v>
@@ -4155,7 +4177,7 @@
         <v>2.32</v>
       </c>
       <c r="K77" t="n">
-        <v>18.64406779661025</v>
+        <v>13.33333333333335</v>
       </c>
       <c r="L77" t="n">
         <v>6.221999999999996</v>
@@ -4206,7 +4228,7 @@
         <v>2.37</v>
       </c>
       <c r="K78" t="n">
-        <v>6.45161290322583</v>
+        <v>9.677419354838802</v>
       </c>
       <c r="L78" t="n">
         <v>6.220999999999996</v>
@@ -4257,7 +4279,7 @@
         <v>2.4</v>
       </c>
       <c r="K79" t="n">
-        <v>10.76923076923084</v>
+        <v>6.666666666666825</v>
       </c>
       <c r="L79" t="n">
         <v>6.226999999999995</v>
@@ -4308,7 +4330,7 @@
         <v>2.4</v>
       </c>
       <c r="K80" t="n">
-        <v>10.76923076923084</v>
+        <v>-3.70370370370363</v>
       </c>
       <c r="L80" t="n">
         <v>6.228999999999996</v>
@@ -4359,7 +4381,7 @@
         <v>2.470000000000001</v>
       </c>
       <c r="K81" t="n">
-        <v>-2.857142857142799</v>
+        <v>-23.52941176470591</v>
       </c>
       <c r="L81" t="n">
         <v>6.220999999999996</v>
@@ -4410,7 +4432,7 @@
         <v>2.48</v>
       </c>
       <c r="K82" t="n">
-        <v>-5.882352941176486</v>
+        <v>-9.677419354838802</v>
       </c>
       <c r="L82" t="n">
         <v>6.213999999999995</v>
@@ -4461,7 +4483,7 @@
         <v>2.5</v>
       </c>
       <c r="K83" t="n">
-        <v>-16.92307692307687</v>
+        <v>-26.66666666666678</v>
       </c>
       <c r="L83" t="n">
         <v>6.208999999999994</v>
@@ -4512,7 +4534,7 @@
         <v>2.52</v>
       </c>
       <c r="K84" t="n">
-        <v>-12.90322580645164</v>
+        <v>-44.82758620689651</v>
       </c>
       <c r="L84" t="n">
         <v>6.198999999999994</v>
@@ -4563,7 +4585,7 @@
         <v>2.540000000000001</v>
       </c>
       <c r="K85" t="n">
-        <v>-7.93650793650791</v>
+        <v>-23.07692307692287</v>
       </c>
       <c r="L85" t="n">
         <v>6.187999999999994</v>
@@ -4614,7 +4636,7 @@
         <v>2.630000000000001</v>
       </c>
       <c r="K86" t="n">
-        <v>13.4328358208955</v>
+        <v>-3.22580645161283</v>
       </c>
       <c r="L86" t="n">
         <v>6.190999999999995</v>
@@ -4665,7 +4687,7 @@
         <v>2.710000000000001</v>
       </c>
       <c r="K87" t="n">
-        <v>-5.714285714285718</v>
+        <v>-11.76470588235293</v>
       </c>
       <c r="L87" t="n">
         <v>6.181999999999995</v>
@@ -4716,7 +4738,7 @@
         <v>2.77</v>
       </c>
       <c r="K88" t="n">
-        <v>1.333333333333305</v>
+        <v>-2.702702702702884</v>
       </c>
       <c r="L88" t="n">
         <v>6.183999999999995</v>
@@ -4767,7 +4789,7 @@
         <v>2.79</v>
       </c>
       <c r="K89" t="n">
-        <v>4.109589041095927</v>
+        <v>-7.692307692307762</v>
       </c>
       <c r="L89" t="n">
         <v>6.180999999999995</v>
@@ -4818,7 +4840,7 @@
         <v>2.8</v>
       </c>
       <c r="K90" t="n">
-        <v>-2.857142857142799</v>
+        <v>9.090909090909188</v>
       </c>
       <c r="L90" t="n">
         <v>6.176999999999994</v>
@@ -4869,7 +4891,7 @@
         <v>2.819999999999999</v>
       </c>
       <c r="K91" t="n">
-        <v>-4.347826086956567</v>
+        <v>11.76470588235299</v>
       </c>
       <c r="L91" t="n">
         <v>6.181999999999993</v>
@@ -4920,7 +4942,7 @@
         <v>2.829999999999999</v>
       </c>
       <c r="K92" t="n">
-        <v>-2.85714285714293</v>
+        <v>21.21212121212108</v>
       </c>
       <c r="L92" t="n">
         <v>6.186999999999993</v>
@@ -4971,7 +4993,7 @@
         <v>2.839999999999999</v>
       </c>
       <c r="K93" t="n">
-        <v>1.492537313432808</v>
+        <v>25.00000000000014</v>
       </c>
       <c r="L93" t="n">
         <v>6.192999999999993</v>
@@ -5022,7 +5044,7 @@
         <v>2.849999999999999</v>
       </c>
       <c r="K94" t="n">
-        <v>-1.538461538461648</v>
+        <v>22.58064516129028</v>
       </c>
       <c r="L94" t="n">
         <v>6.201999999999993</v>
@@ -5073,7 +5095,7 @@
         <v>2.869999999999998</v>
       </c>
       <c r="K95" t="n">
-        <v>-9.37499999999997</v>
+        <v>-16.66666666666685</v>
       </c>
       <c r="L95" t="n">
         <v>6.206999999999993</v>
@@ -5124,7 +5146,7 @@
         <v>2.869999999999998</v>
       </c>
       <c r="K96" t="n">
-        <v>-1.694915254237258</v>
+        <v>25.00000000000042</v>
       </c>
       <c r="L96" t="n">
         <v>6.202999999999992</v>
@@ -5175,7 +5197,7 @@
         <v>2.869999999999998</v>
       </c>
       <c r="K97" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L97" t="n">
         <v>6.206999999999992</v>
@@ -5277,7 +5299,7 @@
         <v>2.869999999999998</v>
       </c>
       <c r="K99" t="n">
-        <v>-6.382978723404335</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L99" t="n">
         <v>6.204999999999993</v>
@@ -5328,7 +5350,7 @@
         <v>2.889999999999998</v>
       </c>
       <c r="K100" t="n">
-        <v>-2.04081632653076</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L100" t="n">
         <v>6.207999999999993</v>
@@ -5379,7 +5401,7 @@
         <v>2.889999999999998</v>
       </c>
       <c r="K101" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L101" t="n">
         <v>6.208999999999993</v>
@@ -5430,7 +5452,7 @@
         <v>2.899999999999998</v>
       </c>
       <c r="K102" t="n">
-        <v>9.523809523809595</v>
+        <v>0</v>
       </c>
       <c r="L102" t="n">
         <v>6.207999999999993</v>
@@ -5481,7 +5503,7 @@
         <v>2.899999999999998</v>
       </c>
       <c r="K103" t="n">
-        <v>14.99999999999999</v>
+        <v>-20</v>
       </c>
       <c r="L103" t="n">
         <v>6.207999999999992</v>
@@ -5532,7 +5554,7 @@
         <v>2.909999999999997</v>
       </c>
       <c r="K104" t="n">
-        <v>17.94871794871816</v>
+        <v>0</v>
       </c>
       <c r="L104" t="n">
         <v>6.205999999999992</v>
@@ -5583,7 +5605,7 @@
         <v>2.909999999999997</v>
       </c>
       <c r="K105" t="n">
-        <v>13.51351351351359</v>
+        <v>0</v>
       </c>
       <c r="L105" t="n">
         <v>6.205999999999992</v>
@@ -5634,7 +5656,7 @@
         <v>2.929999999999998</v>
       </c>
       <c r="K106" t="n">
-        <v>-20.00000000000036</v>
+        <v>-33.33333333333432</v>
       </c>
       <c r="L106" t="n">
         <v>6.203999999999992</v>
@@ -5685,7 +5707,7 @@
         <v>2.959999999999997</v>
       </c>
       <c r="K107" t="n">
-        <v>-3.999999999999972</v>
+        <v>-55.55555555555599</v>
       </c>
       <c r="L107" t="n">
         <v>6.198999999999993</v>
@@ -5736,7 +5758,7 @@
         <v>2.969999999999997</v>
       </c>
       <c r="K108" t="n">
-        <v>-30.00000000000031</v>
+        <v>-40.00000000000053</v>
       </c>
       <c r="L108" t="n">
         <v>6.194999999999991</v>
@@ -5787,7 +5809,7 @@
         <v>2.979999999999997</v>
       </c>
       <c r="K109" t="n">
-        <v>-15.78947368421092</v>
+        <v>-55.55555555555599</v>
       </c>
       <c r="L109" t="n">
         <v>6.191999999999991</v>
@@ -5838,7 +5860,7 @@
         <v>2.979999999999997</v>
       </c>
       <c r="K110" t="n">
-        <v>-11.11111111111155</v>
+        <v>-55.55555555555599</v>
       </c>
       <c r="L110" t="n">
         <v>6.186999999999992</v>
@@ -5889,7 +5911,7 @@
         <v>2.989999999999997</v>
       </c>
       <c r="K111" t="n">
-        <v>-29.41176470588272</v>
+        <v>-55.55555555555599</v>
       </c>
       <c r="L111" t="n">
         <v>6.180999999999992</v>
@@ -5940,7 +5962,7 @@
         <v>3.029999999999997</v>
       </c>
       <c r="K112" t="n">
-        <v>-9.999999999999911</v>
+        <v>-7.692307692307587</v>
       </c>
       <c r="L112" t="n">
         <v>6.179999999999992</v>
@@ -5991,7 +6013,7 @@
         <v>3.029999999999997</v>
       </c>
       <c r="K113" t="n">
-        <v>-5.263157894736794</v>
+        <v>0</v>
       </c>
       <c r="L113" t="n">
         <v>6.178999999999991</v>
@@ -6042,7 +6064,7 @@
         <v>3.039999999999996</v>
       </c>
       <c r="K114" t="n">
-        <v>-15.78947368421038</v>
+        <v>-7.692307692307587</v>
       </c>
       <c r="L114" t="n">
         <v>6.177999999999992</v>
@@ -6093,7 +6115,7 @@
         <v>3.039999999999996</v>
       </c>
       <c r="K115" t="n">
-        <v>-5.88235294117641</v>
+        <v>9.090909090909825</v>
       </c>
       <c r="L115" t="n">
         <v>6.176999999999991</v>
@@ -6144,7 +6166,7 @@
         <v>3.039999999999996</v>
       </c>
       <c r="K116" t="n">
-        <v>-5.88235294117641</v>
+        <v>50.00000000000055</v>
       </c>
       <c r="L116" t="n">
         <v>6.177999999999991</v>
@@ -6195,7 +6217,7 @@
         <v>3.049999999999997</v>
       </c>
       <c r="K117" t="n">
-        <v>-11.11111111111144</v>
+        <v>24.99999999999945</v>
       </c>
       <c r="L117" t="n">
         <v>6.180999999999991</v>
@@ -6246,7 +6268,7 @@
         <v>3.069999999999997</v>
       </c>
       <c r="K118" t="n">
-        <v>-20.00000000000018</v>
+        <v>-11.11111111111089</v>
       </c>
       <c r="L118" t="n">
         <v>6.180999999999992</v>
@@ -6297,7 +6319,7 @@
         <v>3.089999999999996</v>
       </c>
       <c r="K119" t="n">
-        <v>-9.090909090909385</v>
+        <v>9.090909090908944</v>
       </c>
       <c r="L119" t="n">
         <v>6.181999999999992</v>
@@ -6348,7 +6370,7 @@
         <v>3.099999999999997</v>
       </c>
       <c r="K120" t="n">
-        <v>-14.28571428571404</v>
+        <v>27.27272727272742</v>
       </c>
       <c r="L120" t="n">
         <v>6.183999999999992</v>
@@ -6399,7 +6421,7 @@
         <v>3.099999999999997</v>
       </c>
       <c r="K121" t="n">
-        <v>-14.28571428571404</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L121" t="n">
         <v>6.186999999999992</v>
@@ -6450,7 +6472,7 @@
         <v>3.099999999999997</v>
       </c>
       <c r="K122" t="n">
-        <v>-9.999999999999822</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L122" t="n">
         <v>6.185999999999991</v>
@@ -6501,7 +6523,7 @@
         <v>3.139999999999997</v>
       </c>
       <c r="K123" t="n">
-        <v>-24.99999999999991</v>
+        <v>-39.99999999999982</v>
       </c>
       <c r="L123" t="n">
         <v>6.180999999999992</v>
@@ -6552,7 +6574,7 @@
         <v>3.149999999999997</v>
       </c>
       <c r="K124" t="n">
-        <v>-16.66666666666673</v>
+        <v>-27.27272727272742</v>
       </c>
       <c r="L124" t="n">
         <v>6.177999999999992</v>
@@ -6603,7 +6625,7 @@
         <v>3.149999999999997</v>
       </c>
       <c r="K125" t="n">
-        <v>-16.66666666666673</v>
+        <v>-27.27272727272742</v>
       </c>
       <c r="L125" t="n">
         <v>6.174999999999992</v>
@@ -6654,7 +6676,7 @@
         <v>3.179999999999997</v>
       </c>
       <c r="K126" t="n">
-        <v>4.000000000000284</v>
+        <v>7.692307692308217</v>
       </c>
       <c r="L126" t="n">
         <v>6.174999999999992</v>
@@ -6705,7 +6727,7 @@
         <v>3.199999999999998</v>
       </c>
       <c r="K127" t="n">
-        <v>8.333333333333147</v>
+        <v>7.692307692307482</v>
       </c>
       <c r="L127" t="n">
         <v>6.173999999999991</v>
@@ -6756,7 +6778,7 @@
         <v>3.209999999999997</v>
       </c>
       <c r="K128" t="n">
-        <v>8.333333333333147</v>
+        <v>0</v>
       </c>
       <c r="L128" t="n">
         <v>6.175999999999992</v>
@@ -6807,7 +6829,7 @@
         <v>3.219999999999998</v>
       </c>
       <c r="K129" t="n">
-        <v>8.333333333333487</v>
+        <v>0</v>
       </c>
       <c r="L129" t="n">
         <v>6.176999999999992</v>
@@ -6858,7 +6880,7 @@
         <v>3.229999999999998</v>
       </c>
       <c r="K130" t="n">
-        <v>12.00000000000006</v>
+        <v>7.692307692307482</v>
       </c>
       <c r="L130" t="n">
         <v>6.177999999999992</v>
@@ -6909,7 +6931,7 @@
         <v>3.229999999999998</v>
       </c>
       <c r="K131" t="n">
-        <v>16.6666666666666</v>
+        <v>7.692307692307482</v>
       </c>
       <c r="L131" t="n">
         <v>6.178999999999992</v>
@@ -6960,7 +6982,7 @@
         <v>3.239999999999998</v>
       </c>
       <c r="K132" t="n">
-        <v>-4.761904761904641</v>
+        <v>39.99999999999982</v>
       </c>
       <c r="L132" t="n">
         <v>6.178999999999992</v>
@@ -7011,7 +7033,7 @@
         <v>3.249999999999997</v>
       </c>
       <c r="K133" t="n">
-        <v>0</v>
+        <v>39.99999999999982</v>
       </c>
       <c r="L133" t="n">
         <v>6.183999999999992</v>
@@ -7062,7 +7084,7 @@
         <v>3.249999999999997</v>
       </c>
       <c r="K134" t="n">
-        <v>4.761904761904641</v>
+        <v>39.99999999999982</v>
       </c>
       <c r="L134" t="n">
         <v>6.187999999999993</v>
@@ -7164,7 +7186,7 @@
         <v>3.269999999999998</v>
       </c>
       <c r="K136" t="n">
-        <v>-4.34782608695679</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L136" t="n">
         <v>6.189999999999992</v>
@@ -7215,7 +7237,7 @@
         <v>3.289999999999998</v>
       </c>
       <c r="K137" t="n">
-        <v>8.333333333333487</v>
+        <v>25.00000000000028</v>
       </c>
       <c r="L137" t="n">
         <v>6.192999999999993</v>
@@ -7266,7 +7288,7 @@
         <v>3.289999999999998</v>
       </c>
       <c r="K138" t="n">
-        <v>18.18181818181807</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L138" t="n">
         <v>6.194999999999992</v>
@@ -7317,7 +7339,7 @@
         <v>3.289999999999998</v>
       </c>
       <c r="K139" t="n">
-        <v>10.00000000000013</v>
+        <v>0</v>
       </c>
       <c r="L139" t="n">
         <v>6.195999999999993</v>
@@ -7368,7 +7390,7 @@
         <v>3.289999999999998</v>
       </c>
       <c r="K140" t="n">
-        <v>5.263157894736695</v>
+        <v>0</v>
       </c>
       <c r="L140" t="n">
         <v>6.195999999999993</v>
@@ -7419,7 +7441,7 @@
         <v>3.289999999999998</v>
       </c>
       <c r="K141" t="n">
-        <v>5.263157894736695</v>
+        <v>19.99999999999929</v>
       </c>
       <c r="L141" t="n">
         <v>6.195999999999993</v>
@@ -7470,7 +7492,7 @@
         <v>3.299999999999998</v>
       </c>
       <c r="K142" t="n">
-        <v>0</v>
+        <v>-19.99999999999929</v>
       </c>
       <c r="L142" t="n">
         <v>6.195999999999993</v>
@@ -7521,7 +7543,7 @@
         <v>3.309999999999998</v>
       </c>
       <c r="K143" t="n">
-        <v>29.41176470588211</v>
+        <v>0</v>
       </c>
       <c r="L143" t="n">
         <v>6.195999999999993</v>
@@ -7572,7 +7594,7 @@
         <v>3.329999999999998</v>
       </c>
       <c r="K144" t="n">
-        <v>11.11111111111078</v>
+        <v>-14.28571428571501</v>
       </c>
       <c r="L144" t="n">
         <v>6.193999999999993</v>
@@ -7623,7 +7645,7 @@
         <v>3.339999999999999</v>
       </c>
       <c r="K145" t="n">
-        <v>15.78947368421048</v>
+        <v>14.28571428571501</v>
       </c>
       <c r="L145" t="n">
         <v>6.193999999999993</v>
@@ -7674,7 +7696,7 @@
         <v>3.349999999999999</v>
       </c>
       <c r="K146" t="n">
-        <v>5.882352941176286</v>
+        <v>0</v>
       </c>
       <c r="L146" t="n">
         <v>6.195999999999993</v>
@@ -7725,7 +7747,7 @@
         <v>3.349999999999999</v>
       </c>
       <c r="K147" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L147" t="n">
         <v>6.195999999999993</v>
@@ -7776,7 +7798,7 @@
         <v>3.349999999999999</v>
       </c>
       <c r="K148" t="n">
-        <v>14.28571428571447</v>
+        <v>0</v>
       </c>
       <c r="L148" t="n">
         <v>6.195999999999993</v>
@@ -7827,7 +7849,7 @@
         <v>3.349999999999999</v>
       </c>
       <c r="K149" t="n">
-        <v>7.692307692307482</v>
+        <v>0</v>
       </c>
       <c r="L149" t="n">
         <v>6.195999999999993</v>
@@ -7878,7 +7900,7 @@
         <v>3.359999999999999</v>
       </c>
       <c r="K150" t="n">
-        <v>-7.692307692307482</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L150" t="n">
         <v>6.194999999999991</v>
@@ -7929,7 +7951,7 @@
         <v>3.359999999999999</v>
       </c>
       <c r="K151" t="n">
-        <v>-7.692307692307482</v>
+        <v>0</v>
       </c>
       <c r="L151" t="n">
         <v>6.193999999999991</v>
@@ -7980,7 +8002,7 @@
         <v>3.359999999999999</v>
       </c>
       <c r="K152" t="n">
-        <v>0</v>
+        <v>-19.99999999999929</v>
       </c>
       <c r="L152" t="n">
         <v>6.193999999999991</v>
@@ -8031,7 +8053,7 @@
         <v>3.369999999999998</v>
       </c>
       <c r="K153" t="n">
-        <v>0</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L153" t="n">
         <v>6.193999999999991</v>
@@ -8082,7 +8104,7 @@
         <v>3.369999999999998</v>
       </c>
       <c r="K154" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L154" t="n">
         <v>6.195999999999992</v>
@@ -8133,7 +8155,7 @@
         <v>3.369999999999998</v>
       </c>
       <c r="K155" t="n">
-        <v>9.090909090908797</v>
+        <v>0</v>
       </c>
       <c r="L155" t="n">
         <v>6.196999999999991</v>
@@ -8184,7 +8206,7 @@
         <v>3.369999999999998</v>
       </c>
       <c r="K156" t="n">
-        <v>20.00000000000036</v>
+        <v>0</v>
       </c>
       <c r="L156" t="n">
         <v>6.196999999999991</v>
@@ -8286,7 +8308,7 @@
         <v>3.379999999999998</v>
       </c>
       <c r="K158" t="n">
-        <v>-11.11111111111089</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L158" t="n">
         <v>6.195999999999991</v>
@@ -8337,7 +8359,7 @@
         <v>3.389999999999999</v>
       </c>
       <c r="K159" t="n">
-        <v>-20.00000000000036</v>
+        <v>-33.33333333333531</v>
       </c>
       <c r="L159" t="n">
         <v>6.19399999999999</v>
@@ -8388,7 +8410,7 @@
         <v>3.409999999999999</v>
       </c>
       <c r="K160" t="n">
-        <v>0</v>
+        <v>19.99999999999929</v>
       </c>
       <c r="L160" t="n">
         <v>6.194999999999991</v>
@@ -8439,7 +8461,7 @@
         <v>3.43</v>
       </c>
       <c r="K161" t="n">
-        <v>-14.28571428571447</v>
+        <v>-14.28571428571501</v>
       </c>
       <c r="L161" t="n">
         <v>6.193999999999991</v>
@@ -8490,7 +8512,7 @@
         <v>3.44</v>
       </c>
       <c r="K162" t="n">
-        <v>0</v>
+        <v>-14.28571428571356</v>
       </c>
       <c r="L162" t="n">
         <v>6.193999999999991</v>
@@ -8541,7 +8563,7 @@
         <v>3.44</v>
       </c>
       <c r="K163" t="n">
-        <v>-7.692307692307376</v>
+        <v>-14.28571428571356</v>
       </c>
       <c r="L163" t="n">
         <v>6.192999999999991</v>
@@ -8592,7 +8614,7 @@
         <v>3.44</v>
       </c>
       <c r="K164" t="n">
-        <v>9.09090909090953</v>
+        <v>-14.28571428571356</v>
       </c>
       <c r="L164" t="n">
         <v>6.19199999999999</v>
@@ -8643,7 +8665,7 @@
         <v>3.44</v>
       </c>
       <c r="K165" t="n">
-        <v>0</v>
+        <v>-14.28571428571356</v>
       </c>
       <c r="L165" t="n">
         <v>6.19099999999999</v>
@@ -8694,7 +8716,7 @@
         <v>3.44</v>
       </c>
       <c r="K166" t="n">
-        <v>-11.11111111111067</v>
+        <v>-14.28571428571356</v>
       </c>
       <c r="L166" t="n">
         <v>6.189999999999989</v>
@@ -8745,7 +8767,7 @@
         <v>3.44</v>
       </c>
       <c r="K167" t="n">
-        <v>-11.11111111111067</v>
+        <v>0</v>
       </c>
       <c r="L167" t="n">
         <v>6.188999999999989</v>
@@ -8796,7 +8818,7 @@
         <v>3.44</v>
       </c>
       <c r="K168" t="n">
-        <v>-11.11111111111067</v>
+        <v>20.00000000000071</v>
       </c>
       <c r="L168" t="n">
         <v>6.188999999999989</v>
@@ -8847,7 +8869,7 @@
         <v>3.48</v>
       </c>
       <c r="K169" t="n">
-        <v>-38.46153846153783</v>
+        <v>-71.42857142856998</v>
       </c>
       <c r="L169" t="n">
         <v>6.185999999999989</v>
@@ -8898,7 +8920,7 @@
         <v>3.48</v>
       </c>
       <c r="K170" t="n">
-        <v>-33.33333333333284</v>
+        <v>-59.99999999999787</v>
       </c>
       <c r="L170" t="n">
         <v>6.180999999999989</v>
@@ -8949,7 +8971,7 @@
         <v>3.48</v>
       </c>
       <c r="K171" t="n">
-        <v>-33.33333333333284</v>
+        <v>-100</v>
       </c>
       <c r="L171" t="n">
         <v>6.177999999999989</v>
@@ -9000,7 +9022,7 @@
         <v>3.48</v>
       </c>
       <c r="K172" t="n">
-        <v>-33.33333333333284</v>
+        <v>-100</v>
       </c>
       <c r="L172" t="n">
         <v>6.17399999999999</v>
@@ -9051,7 +9073,7 @@
         <v>3.48</v>
       </c>
       <c r="K173" t="n">
-        <v>-45.45454545454442</v>
+        <v>-100</v>
       </c>
       <c r="L173" t="n">
         <v>6.16999999999999</v>
@@ -9102,7 +9124,7 @@
         <v>3.48</v>
       </c>
       <c r="K174" t="n">
-        <v>-45.45454545454442</v>
+        <v>-100</v>
       </c>
       <c r="L174" t="n">
         <v>6.165999999999991</v>
@@ -9153,7 +9175,7 @@
         <v>3.48</v>
       </c>
       <c r="K175" t="n">
-        <v>-45.45454545454442</v>
+        <v>-100</v>
       </c>
       <c r="L175" t="n">
         <v>6.161999999999992</v>
@@ -9204,7 +9226,7 @@
         <v>3.52</v>
       </c>
       <c r="K176" t="n">
-        <v>-6.666666666666429</v>
+        <v>0</v>
       </c>
       <c r="L176" t="n">
         <v>6.161999999999992</v>
@@ -9255,7 +9277,7 @@
         <v>3.540000000000001</v>
       </c>
       <c r="K177" t="n">
-        <v>-17.64705882352929</v>
+        <v>-20.00000000000036</v>
       </c>
       <c r="L177" t="n">
         <v>6.159999999999992</v>
@@ -9306,7 +9328,7 @@
         <v>3.550000000000001</v>
       </c>
       <c r="K178" t="n">
-        <v>-17.64705882352929</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L178" t="n">
         <v>6.156999999999992</v>
@@ -9357,7 +9379,7 @@
         <v>3.550000000000001</v>
       </c>
       <c r="K179" t="n">
-        <v>-12.49999999999958</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L179" t="n">
         <v>6.157999999999992</v>
@@ -9408,7 +9430,7 @@
         <v>3.570000000000001</v>
       </c>
       <c r="K180" t="n">
-        <v>-37.49999999999986</v>
+        <v>-11.11111111111177</v>
       </c>
       <c r="L180" t="n">
         <v>6.156999999999991</v>
@@ -9459,7 +9481,7 @@
         <v>3.580000000000001</v>
       </c>
       <c r="K181" t="n">
-        <v>-33.33333333333294</v>
+        <v>-20.00000000000036</v>
       </c>
       <c r="L181" t="n">
         <v>6.154999999999992</v>
@@ -9510,7 +9532,7 @@
         <v>3.580000000000001</v>
       </c>
       <c r="K182" t="n">
-        <v>-42.85714285714304</v>
+        <v>-20.00000000000036</v>
       </c>
       <c r="L182" t="n">
         <v>6.152999999999992</v>
@@ -9561,7 +9583,7 @@
         <v>3.580000000000001</v>
       </c>
       <c r="K183" t="n">
-        <v>-42.85714285714304</v>
+        <v>-20.00000000000036</v>
       </c>
       <c r="L183" t="n">
         <v>6.150999999999993</v>
@@ -9612,7 +9634,7 @@
         <v>3.590000000000001</v>
       </c>
       <c r="K184" t="n">
-        <v>-46.66666666666674</v>
+        <v>-27.27272727272742</v>
       </c>
       <c r="L184" t="n">
         <v>6.147999999999993</v>
@@ -9663,7 +9685,7 @@
         <v>3.600000000000001</v>
       </c>
       <c r="K185" t="n">
-        <v>-37.50000000000028</v>
+        <v>-75.00000000000055</v>
       </c>
       <c r="L185" t="n">
         <v>6.145999999999993</v>
@@ -9714,7 +9736,7 @@
         <v>3.61</v>
       </c>
       <c r="K186" t="n">
-        <v>-41.17647058823548</v>
+        <v>-71.4285714285718</v>
       </c>
       <c r="L186" t="n">
         <v>6.138999999999993</v>
@@ -9765,7 +9787,7 @@
         <v>3.62</v>
       </c>
       <c r="K187" t="n">
-        <v>-33.33333333333366</v>
+        <v>-42.85714285714358</v>
       </c>
       <c r="L187" t="n">
         <v>6.134999999999993</v>
@@ -9816,7 +9838,7 @@
         <v>3.640000000000001</v>
       </c>
       <c r="K188" t="n">
-        <v>-20</v>
+        <v>-11.11111111111089</v>
       </c>
       <c r="L188" t="n">
         <v>6.133999999999993</v>
@@ -9867,7 +9889,7 @@
         <v>3.660000000000001</v>
       </c>
       <c r="K189" t="n">
-        <v>-11.11111111111133</v>
+        <v>-11.11111111111089</v>
       </c>
       <c r="L189" t="n">
         <v>6.130999999999993</v>
@@ -9918,7 +9940,7 @@
         <v>3.670000000000001</v>
       </c>
       <c r="K190" t="n">
-        <v>-15.78947368421063</v>
+        <v>-11.11111111111089</v>
       </c>
       <c r="L190" t="n">
         <v>6.128999999999993</v>
@@ -9969,7 +9991,7 @@
         <v>3.680000000000001</v>
       </c>
       <c r="K191" t="n">
-        <v>-10.00000000000022</v>
+        <v>0</v>
       </c>
       <c r="L191" t="n">
         <v>6.128999999999992</v>
@@ -10020,7 +10042,7 @@
         <v>3.680000000000001</v>
       </c>
       <c r="K192" t="n">
-        <v>-10.00000000000022</v>
+        <v>0</v>
       </c>
       <c r="L192" t="n">
         <v>6.128999999999992</v>
@@ -10071,7 +10093,7 @@
         <v>3.69</v>
       </c>
       <c r="K193" t="n">
-        <v>-14.28571428571441</v>
+        <v>0</v>
       </c>
       <c r="L193" t="n">
         <v>6.127999999999992</v>
@@ -10122,7 +10144,7 @@
         <v>3.7</v>
       </c>
       <c r="K194" t="n">
-        <v>-9.09090909090931</v>
+        <v>0</v>
       </c>
       <c r="L194" t="n">
         <v>6.128999999999992</v>
@@ -10173,7 +10195,7 @@
         <v>3.7</v>
       </c>
       <c r="K195" t="n">
-        <v>-9.09090909090931</v>
+        <v>11.11111111111089</v>
       </c>
       <c r="L195" t="n">
         <v>6.128999999999992</v>
@@ -10224,7 +10246,7 @@
         <v>3.73</v>
       </c>
       <c r="K196" t="n">
-        <v>-14.28571428571441</v>
+        <v>27.27272727272742</v>
       </c>
       <c r="L196" t="n">
         <v>6.132999999999994</v>
@@ -10275,7 +10297,7 @@
         <v>3.760000000000001</v>
       </c>
       <c r="K197" t="n">
-        <v>-18.18181818181822</v>
+        <v>-16.66666666666704</v>
       </c>
       <c r="L197" t="n">
         <v>6.132999999999994</v>
@@ -10326,7 +10348,7 @@
         <v>3.790000000000001</v>
       </c>
       <c r="K198" t="n">
-        <v>0</v>
+        <v>23.07692307692329</v>
       </c>
       <c r="L198" t="n">
         <v>6.133999999999994</v>
@@ -10377,7 +10399,7 @@
         <v>3.820000000000001</v>
       </c>
       <c r="K199" t="n">
-        <v>-11.11111111111118</v>
+        <v>6.666666666666508</v>
       </c>
       <c r="L199" t="n">
         <v>6.133999999999994</v>
@@ -10428,7 +10450,7 @@
         <v>3.830000000000001</v>
       </c>
       <c r="K200" t="n">
-        <v>0</v>
+        <v>6.666666666666508</v>
       </c>
       <c r="L200" t="n">
         <v>6.135999999999994</v>
@@ -10479,7 +10501,7 @@
         <v>3.850000000000001</v>
       </c>
       <c r="K201" t="n">
-        <v>11.11111111111118</v>
+        <v>17.64705882352947</v>
       </c>
       <c r="L201" t="n">
         <v>6.138999999999994</v>
@@ -10530,7 +10552,7 @@
         <v>3.870000000000002</v>
       </c>
       <c r="K202" t="n">
-        <v>3.448275862068881</v>
+        <v>11.11111111111078</v>
       </c>
       <c r="L202" t="n">
         <v>6.139999999999993</v>
@@ -10632,7 +10654,7 @@
         <v>3.920000000000002</v>
       </c>
       <c r="K204" t="n">
-        <v>15.15151515151505</v>
+        <v>18.18181818181807</v>
       </c>
       <c r="L204" t="n">
         <v>6.144999999999992</v>
@@ -10683,7 +10705,7 @@
         <v>3.950000000000002</v>
       </c>
       <c r="K205" t="n">
-        <v>2.857142857142784</v>
+        <v>-9.090909090909239</v>
       </c>
       <c r="L205" t="n">
         <v>6.145999999999992</v>
@@ -10734,7 +10756,7 @@
         <v>3.950000000000002</v>
       </c>
       <c r="K206" t="n">
-        <v>5.882352941176317</v>
+        <v>5.263157894736695</v>
       </c>
       <c r="L206" t="n">
         <v>6.143999999999991</v>
@@ -10785,7 +10807,7 @@
         <v>3.950000000000002</v>
       </c>
       <c r="K207" t="n">
-        <v>3.030303030302949</v>
+        <v>-12.50000000000021</v>
       </c>
       <c r="L207" t="n">
         <v>6.144999999999991</v>
@@ -10836,7 +10858,7 @@
         <v>3.960000000000002</v>
       </c>
       <c r="K208" t="n">
-        <v>-6.250000000000121</v>
+        <v>0</v>
       </c>
       <c r="L208" t="n">
         <v>6.141999999999991</v>
@@ -10887,7 +10909,7 @@
         <v>3.960000000000002</v>
       </c>
       <c r="K209" t="n">
-        <v>0</v>
+        <v>-7.692307692307482</v>
       </c>
       <c r="L209" t="n">
         <v>6.141999999999991</v>
@@ -10938,7 +10960,7 @@
         <v>3.960000000000002</v>
       </c>
       <c r="K210" t="n">
-        <v>3.448275862068881</v>
+        <v>-27.27272727272742</v>
       </c>
       <c r="L210" t="n">
         <v>6.140999999999991</v>
@@ -10989,7 +11011,7 @@
         <v>3.960000000000002</v>
       </c>
       <c r="K211" t="n">
-        <v>0</v>
+        <v>-11.11111111111089</v>
       </c>
       <c r="L211" t="n">
         <v>6.137999999999991</v>
@@ -11040,7 +11062,7 @@
         <v>3.970000000000002</v>
       </c>
       <c r="K212" t="n">
-        <v>-3.448275862068881</v>
+        <v>-11.11111111111089</v>
       </c>
       <c r="L212" t="n">
         <v>6.135999999999991</v>
@@ -11091,7 +11113,7 @@
         <v>3.980000000000001</v>
       </c>
       <c r="K213" t="n">
-        <v>-3.448275862068881</v>
+        <v>-100</v>
       </c>
       <c r="L213" t="n">
         <v>6.133999999999991</v>
@@ -11142,7 +11164,7 @@
         <v>3.980000000000001</v>
       </c>
       <c r="K214" t="n">
-        <v>-7.142857142856962</v>
+        <v>-100</v>
       </c>
       <c r="L214" t="n">
         <v>6.127999999999991</v>
@@ -11193,7 +11215,7 @@
         <v>4.000000000000001</v>
       </c>
       <c r="K215" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L215" t="n">
         <v>6.126999999999991</v>
@@ -11244,7 +11266,7 @@
         <v>4.02</v>
       </c>
       <c r="K216" t="n">
-        <v>-17.24137931034477</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L216" t="n">
         <v>6.123999999999991</v>
@@ -11295,7 +11317,7 @@
         <v>4.080000000000001</v>
       </c>
       <c r="K217" t="n">
-        <v>-25</v>
+        <v>-66.66666666666717</v>
       </c>
       <c r="L217" t="n">
         <v>6.11499999999999</v>
@@ -11346,7 +11368,7 @@
         <v>4.090000000000001</v>
       </c>
       <c r="K218" t="n">
-        <v>-33.33333333333353</v>
+        <v>-53.84615384615448</v>
       </c>
       <c r="L218" t="n">
         <v>6.107999999999991</v>
@@ -11397,7 +11419,7 @@
         <v>4.100000000000001</v>
       </c>
       <c r="K219" t="n">
-        <v>-28.57142857142867</v>
+        <v>-57.14285714285769</v>
       </c>
       <c r="L219" t="n">
         <v>6.099999999999991</v>
@@ -11448,7 +11470,7 @@
         <v>4.100000000000001</v>
       </c>
       <c r="K220" t="n">
-        <v>-33.33333333333333</v>
+        <v>-57.14285714285769</v>
       </c>
       <c r="L220" t="n">
         <v>6.091999999999991</v>
@@ -11499,7 +11521,7 @@
         <v>4.100000000000001</v>
       </c>
       <c r="K221" t="n">
-        <v>-44.00000000000028</v>
+        <v>-53.84615384615448</v>
       </c>
       <c r="L221" t="n">
         <v>6.083999999999991</v>
@@ -11550,7 +11572,7 @@
         <v>4.15</v>
       </c>
       <c r="K222" t="n">
-        <v>-14.28571428571438</v>
+        <v>-5.882352941176901</v>
       </c>
       <c r="L222" t="n">
         <v>6.081999999999992</v>
@@ -11601,7 +11623,7 @@
         <v>4.180000000000001</v>
       </c>
       <c r="K223" t="n">
-        <v>0</v>
+        <v>9.999999999999822</v>
       </c>
       <c r="L223" t="n">
         <v>6.083999999999992</v>
@@ -11652,7 +11674,7 @@
         <v>4.180000000000001</v>
       </c>
       <c r="K224" t="n">
-        <v>-15.38461538461546</v>
+        <v>0</v>
       </c>
       <c r="L224" t="n">
         <v>6.085999999999991</v>
@@ -11703,7 +11725,7 @@
         <v>4.210000000000001</v>
       </c>
       <c r="K225" t="n">
-        <v>-15.38461538461546</v>
+        <v>-5.263157894737187</v>
       </c>
       <c r="L225" t="n">
         <v>6.08299999999999</v>
@@ -11754,7 +11776,7 @@
         <v>4.240000000000001</v>
       </c>
       <c r="K226" t="n">
-        <v>-3.448275862068902</v>
+        <v>50</v>
       </c>
       <c r="L226" t="n">
         <v>6.084999999999991</v>
@@ -11805,7 +11827,7 @@
         <v>4.250000000000001</v>
       </c>
       <c r="K227" t="n">
-        <v>-6.666666666666549</v>
+        <v>37.50000000000028</v>
       </c>
       <c r="L227" t="n">
         <v>6.091999999999992</v>
@@ -11856,7 +11878,7 @@
         <v>4.300000000000001</v>
       </c>
       <c r="K228" t="n">
-        <v>-17.64705882352935</v>
+        <v>10.00000000000022</v>
       </c>
       <c r="L228" t="n">
         <v>6.092999999999992</v>
@@ -11907,7 +11929,7 @@
         <v>4.33</v>
       </c>
       <c r="K229" t="n">
-        <v>-8.108108108108212</v>
+        <v>21.73913043478257</v>
       </c>
       <c r="L229" t="n">
         <v>6.097999999999992</v>
@@ -11958,7 +11980,7 @@
         <v>4.359999999999999</v>
       </c>
       <c r="K230" t="n">
-        <v>-14.99999999999999</v>
+        <v>7.692307692307902</v>
       </c>
       <c r="L230" t="n">
         <v>6.099999999999993</v>
@@ -12009,7 +12031,7 @@
         <v>4.41</v>
       </c>
       <c r="K231" t="n">
-        <v>-24.4444444444446</v>
+        <v>-30.76923076923082</v>
       </c>
       <c r="L231" t="n">
         <v>6.096999999999992</v>
@@ -12060,7 +12082,7 @@
         <v>4.49</v>
       </c>
       <c r="K232" t="n">
-        <v>-3.846153846153945</v>
+        <v>-9.677419354838802</v>
       </c>
       <c r="L232" t="n">
         <v>6.096999999999992</v>
@@ -12111,7 +12133,7 @@
         <v>4.5</v>
       </c>
       <c r="K233" t="n">
-        <v>-3.846153846153945</v>
+        <v>-12.50000000000004</v>
       </c>
       <c r="L233" t="n">
         <v>6.092999999999991</v>
@@ -12162,7 +12184,7 @@
         <v>4.55</v>
       </c>
       <c r="K234" t="n">
-        <v>-12.28070175438605</v>
+        <v>-17.64705882352935</v>
       </c>
       <c r="L234" t="n">
         <v>6.083999999999991</v>
@@ -12213,7 +12235,7 @@
         <v>4.56</v>
       </c>
       <c r="K235" t="n">
-        <v>-14.28571428571433</v>
+        <v>-25.00000000000014</v>
       </c>
       <c r="L235" t="n">
         <v>6.078999999999992</v>
@@ -12264,7 +12286,7 @@
         <v>4.569999999999999</v>
       </c>
       <c r="K236" t="n">
-        <v>-9.090909090909239</v>
+        <v>-18.75000000000025</v>
       </c>
       <c r="L236" t="n">
         <v>6.07199999999999</v>
@@ -12315,7 +12337,7 @@
         <v>4.589999999999999</v>
       </c>
       <c r="K237" t="n">
-        <v>-1.960784313725456</v>
+        <v>-10.34482758620704</v>
       </c>
       <c r="L237" t="n">
         <v>6.063999999999991</v>
@@ -12366,7 +12388,7 @@
         <v>4.599999999999999</v>
       </c>
       <c r="K238" t="n">
-        <v>-5.882352941176368</v>
+        <v>-25.92592592592583</v>
       </c>
       <c r="L238" t="n">
         <v>6.05999999999999</v>
@@ -12417,7 +12439,7 @@
         <v>4.599999999999999</v>
       </c>
       <c r="K239" t="n">
-        <v>-3.999999999999929</v>
+        <v>-16.66666666666673</v>
       </c>
       <c r="L239" t="n">
         <v>6.052999999999989</v>
@@ -12468,7 +12490,7 @@
         <v>4.599999999999999</v>
       </c>
       <c r="K240" t="n">
-        <v>-3.999999999999929</v>
+        <v>5.263157894737236</v>
       </c>
       <c r="L240" t="n">
         <v>6.048999999999989</v>
@@ -12519,7 +12541,7 @@
         <v>4.619999999999998</v>
       </c>
       <c r="K241" t="n">
-        <v>0</v>
+        <v>-38.46153846153888</v>
       </c>
       <c r="L241" t="n">
         <v>6.05199999999999</v>
@@ -12570,7 +12592,7 @@
         <v>4.639999999999998</v>
       </c>
       <c r="K242" t="n">
-        <v>-14.28571428571423</v>
+        <v>-42.85714285714322</v>
       </c>
       <c r="L242" t="n">
         <v>6.044999999999989</v>
@@ -12621,7 +12643,7 @@
         <v>4.639999999999998</v>
       </c>
       <c r="K243" t="n">
-        <v>-21.73913043478266</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L243" t="n">
         <v>6.038999999999989</v>
@@ -12672,7 +12694,7 @@
         <v>4.649999999999998</v>
       </c>
       <c r="K244" t="n">
-        <v>-19.14893617021286</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L244" t="n">
         <v>6.038999999999989</v>
@@ -12723,7 +12745,7 @@
         <v>4.649999999999998</v>
       </c>
       <c r="K245" t="n">
-        <v>-13.63636363636365</v>
+        <v>-25</v>
       </c>
       <c r="L245" t="n">
         <v>6.03799999999999</v>
@@ -12774,7 +12796,7 @@
         <v>4.649999999999998</v>
       </c>
       <c r="K246" t="n">
-        <v>-21.95121951219527</v>
+        <v>0</v>
       </c>
       <c r="L246" t="n">
         <v>6.03599999999999</v>
@@ -12825,7 +12847,7 @@
         <v>4.649999999999998</v>
       </c>
       <c r="K247" t="n">
-        <v>-20.00000000000018</v>
+        <v>20</v>
       </c>
       <c r="L247" t="n">
         <v>6.035999999999991</v>
@@ -12876,7 +12898,7 @@
         <v>4.659999999999997</v>
       </c>
       <c r="K248" t="n">
-        <v>-5.555555555555734</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L248" t="n">
         <v>6.037999999999991</v>
@@ -12927,7 +12949,7 @@
         <v>4.659999999999997</v>
       </c>
       <c r="K249" t="n">
-        <v>-15.15151515151522</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L249" t="n">
         <v>6.03999999999999</v>
@@ -12978,7 +13000,7 @@
         <v>4.679999999999998</v>
       </c>
       <c r="K250" t="n">
-        <v>0</v>
+        <v>33.33333333333432</v>
       </c>
       <c r="L250" t="n">
         <v>6.043999999999992</v>
@@ -13029,7 +13051,7 @@
         <v>4.709999999999998</v>
       </c>
       <c r="K251" t="n">
-        <v>6.666666666666863</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L251" t="n">
         <v>6.042999999999992</v>
@@ -13080,7 +13102,7 @@
         <v>4.739999999999998</v>
       </c>
       <c r="K252" t="n">
-        <v>-11.99999999999983</v>
+        <v>39.99999999999982</v>
       </c>
       <c r="L252" t="n">
         <v>6.046999999999992</v>
@@ -13131,7 +13153,7 @@
         <v>4.769999999999999</v>
       </c>
       <c r="K253" t="n">
-        <v>-18.51851851851854</v>
+        <v>0</v>
       </c>
       <c r="L253" t="n">
         <v>6.047999999999992</v>
@@ -13182,7 +13204,7 @@
         <v>4.799999999999999</v>
       </c>
       <c r="K254" t="n">
-        <v>12.00000000000014</v>
+        <v>20</v>
       </c>
       <c r="L254" t="n">
         <v>6.050999999999993</v>
@@ -13233,7 +13255,7 @@
         <v>4.829999999999999</v>
       </c>
       <c r="K255" t="n">
-        <v>-3.70370370370363</v>
+        <v>0</v>
       </c>
       <c r="L255" t="n">
         <v>6.050999999999993</v>
@@ -13284,7 +13306,7 @@
         <v>4.859999999999999</v>
       </c>
       <c r="K256" t="n">
-        <v>3.448275862069198</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L256" t="n">
         <v>6.053999999999993</v>
@@ -13335,7 +13357,7 @@
         <v>4.89</v>
       </c>
       <c r="K257" t="n">
-        <v>0</v>
+        <v>-4.347826086956387</v>
       </c>
       <c r="L257" t="n">
         <v>6.053999999999993</v>
@@ -13386,7 +13408,7 @@
         <v>4.89</v>
       </c>
       <c r="K258" t="n">
-        <v>3.448275862068881</v>
+        <v>-4.347826086956387</v>
       </c>
       <c r="L258" t="n">
         <v>6.052999999999993</v>
@@ -13437,7 +13459,7 @@
         <v>4.899999999999999</v>
       </c>
       <c r="K259" t="n">
-        <v>6.666666666666508</v>
+        <v>-9.090909090909239</v>
       </c>
       <c r="L259" t="n">
         <v>6.052999999999993</v>
@@ -13488,7 +13510,7 @@
         <v>4.93</v>
       </c>
       <c r="K260" t="n">
-        <v>15.15151515151505</v>
+        <v>18.18181818181807</v>
       </c>
       <c r="L260" t="n">
         <v>6.053999999999993</v>
@@ -13539,7 +13561,7 @@
         <v>4.949999999999999</v>
       </c>
       <c r="K261" t="n">
-        <v>15.15151515151505</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L261" t="n">
         <v>6.059999999999993</v>
@@ -13590,7 +13612,7 @@
         <v>4.949999999999999</v>
       </c>
       <c r="K262" t="n">
-        <v>22.58064516129003</v>
+        <v>33.333333333333</v>
       </c>
       <c r="L262" t="n">
         <v>6.062999999999994</v>
@@ -13641,7 +13663,7 @@
         <v>4.949999999999999</v>
       </c>
       <c r="K263" t="n">
-        <v>22.58064516129003</v>
+        <v>19.99999999999953</v>
       </c>
       <c r="L263" t="n">
         <v>6.068999999999994</v>
@@ -13692,7 +13714,7 @@
         <v>4.969999999999999</v>
       </c>
       <c r="K264" t="n">
-        <v>12.49999999999996</v>
+        <v>28.57142857142867</v>
       </c>
       <c r="L264" t="n">
         <v>6.069999999999994</v>
@@ -13743,7 +13765,7 @@
         <v>4.989999999999998</v>
       </c>
       <c r="K265" t="n">
-        <v>17.64705882352926</v>
+        <v>23.07692307692276</v>
       </c>
       <c r="L265" t="n">
         <v>6.075999999999994</v>
@@ -13794,7 +13816,7 @@
         <v>4.989999999999998</v>
       </c>
       <c r="K266" t="n">
-        <v>17.64705882352926</v>
+        <v>60.00000000000036</v>
       </c>
       <c r="L266" t="n">
         <v>6.078999999999994</v>
@@ -13845,7 +13867,7 @@
         <v>5.019999999999999</v>
       </c>
       <c r="K267" t="n">
-        <v>24.32432432432422</v>
+        <v>69.23076923076965</v>
       </c>
       <c r="L267" t="n">
         <v>6.087999999999995</v>
@@ -13896,7 +13918,7 @@
         <v>5.139999999999999</v>
       </c>
       <c r="K268" t="n">
-        <v>41.66666666666659</v>
+        <v>83.33333333333364</v>
       </c>
       <c r="L268" t="n">
         <v>6.108999999999994</v>
@@ -13947,7 +13969,7 @@
         <v>5.149999999999999</v>
       </c>
       <c r="K269" t="n">
-        <v>38.77551020408163</v>
+        <v>72.72727272727316</v>
       </c>
       <c r="L269" t="n">
         <v>6.127999999999995</v>
@@ -13998,7 +14020,7 @@
         <v>5.149999999999999</v>
       </c>
       <c r="K270" t="n">
-        <v>36.17021276595738</v>
+        <v>70.00000000000053</v>
       </c>
       <c r="L270" t="n">
         <v>6.143999999999994</v>
@@ -14049,7 +14071,7 @@
         <v>5.159999999999998</v>
       </c>
       <c r="K271" t="n">
-        <v>42.22222222222229</v>
+        <v>61.90476190476255</v>
       </c>
       <c r="L271" t="n">
         <v>6.156999999999995</v>
@@ -14100,7 +14122,7 @@
         <v>5.169999999999998</v>
       </c>
       <c r="K272" t="n">
-        <v>39.53488372093024</v>
+        <v>63.63636363636422</v>
       </c>
       <c r="L272" t="n">
         <v>6.170999999999994</v>
@@ -14151,7 +14173,7 @@
         <v>5.179999999999998</v>
       </c>
       <c r="K273" t="n">
-        <v>46.34146341463433</v>
+        <v>71.42857142857191</v>
       </c>
       <c r="L273" t="n">
         <v>6.183999999999994</v>
@@ -14202,7 +14224,7 @@
         <v>5.209999999999998</v>
       </c>
       <c r="K274" t="n">
-        <v>31.70731707317077</v>
+        <v>45.45454545454574</v>
       </c>
       <c r="L274" t="n">
         <v>6.195999999999994</v>
@@ -14253,7 +14275,7 @@
         <v>5.229999999999999</v>
       </c>
       <c r="K275" t="n">
-        <v>34.99999999999996</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L275" t="n">
         <v>6.203999999999993</v>
@@ -14304,7 +14326,7 @@
         <v>5.299999999999998</v>
       </c>
       <c r="K276" t="n">
-        <v>9.090909090909127</v>
+        <v>-7.142857142857006</v>
       </c>
       <c r="L276" t="n">
         <v>6.204999999999993</v>
@@ -14355,7 +14377,7 @@
         <v>5.419999999999998</v>
       </c>
       <c r="K277" t="n">
-        <v>35.84905660377376</v>
+        <v>-7.142857142857006</v>
       </c>
       <c r="L277" t="n">
         <v>6.214999999999993</v>
@@ -14406,7 +14428,7 @@
         <v>5.449999999999998</v>
       </c>
       <c r="K278" t="n">
-        <v>28.57142857142867</v>
+        <v>-13.33333333333335</v>
       </c>
       <c r="L278" t="n">
         <v>6.209999999999992</v>
@@ -14457,7 +14479,7 @@
         <v>5.479999999999999</v>
       </c>
       <c r="K279" t="n">
-        <v>31.03448275862084</v>
+        <v>-3.030303030302965</v>
       </c>
       <c r="L279" t="n">
         <v>6.208999999999993</v>
@@ -14508,7 +14530,7 @@
         <v>5.479999999999999</v>
       </c>
       <c r="K280" t="n">
-        <v>27.27272727272739</v>
+        <v>0</v>
       </c>
       <c r="L280" t="n">
         <v>6.207999999999992</v>
@@ -14559,7 +14581,7 @@
         <v>5.479999999999999</v>
       </c>
       <c r="K281" t="n">
-        <v>24.52830188679263</v>
+        <v>-3.22580645161283</v>
       </c>
       <c r="L281" t="n">
         <v>6.207999999999991</v>
@@ -14610,7 +14632,7 @@
         <v>5.519999999999998</v>
       </c>
       <c r="K282" t="n">
-        <v>29.82456140350884</v>
+        <v>11.7647058823527</v>
       </c>
       <c r="L282" t="n">
         <v>6.210999999999991</v>
@@ -14661,7 +14683,7 @@
         <v>5.549999999999998</v>
       </c>
       <c r="K283" t="n">
-        <v>33.33333333333343</v>
+        <v>29.41176470588226</v>
       </c>
       <c r="L283" t="n">
         <v>6.217999999999991</v>
@@ -14712,7 +14734,7 @@
         <v>5.599999999999998</v>
       </c>
       <c r="K284" t="n">
-        <v>42.85714285714285</v>
+        <v>45.94594594594603</v>
       </c>
       <c r="L284" t="n">
         <v>6.23299999999999</v>
@@ -14763,7 +14785,7 @@
         <v>5.629999999999998</v>
       </c>
       <c r="K285" t="n">
-        <v>43.75000000000006</v>
+        <v>81.81818181818167</v>
       </c>
       <c r="L285" t="n">
         <v>6.252999999999989</v>
@@ -14814,7 +14836,7 @@
         <v>5.729999999999998</v>
       </c>
       <c r="K286" t="n">
-        <v>24.32432432432443</v>
+        <v>16.12903225806448</v>
       </c>
       <c r="L286" t="n">
         <v>6.269999999999989</v>
@@ -14865,7 +14887,7 @@
         <v>5.859999999999998</v>
       </c>
       <c r="K287" t="n">
-        <v>33.33333333333341</v>
+        <v>51.21951219512204</v>
       </c>
       <c r="L287" t="n">
         <v>6.287999999999988</v>
@@ -14916,7 +14938,7 @@
         <v>5.869999999999997</v>
       </c>
       <c r="K288" t="n">
-        <v>23.28767123287674</v>
+        <v>48.71794871794874</v>
       </c>
       <c r="L288" t="n">
         <v>6.309999999999988</v>
@@ -14967,7 +14989,7 @@
         <v>5.899999999999998</v>
       </c>
       <c r="K289" t="n">
-        <v>28.00000000000003</v>
+        <v>52.38095238095244</v>
       </c>
       <c r="L289" t="n">
         <v>6.331999999999988</v>
@@ -15018,7 +15040,7 @@
         <v>5.929999999999998</v>
       </c>
       <c r="K290" t="n">
-        <v>30.76923076923082</v>
+        <v>55.55555555555565</v>
       </c>
       <c r="L290" t="n">
         <v>6.356999999999988</v>
@@ -15069,7 +15091,7 @@
         <v>5.969999999999997</v>
       </c>
       <c r="K291" t="n">
-        <v>35.80246913580243</v>
+        <v>55.55555555555565</v>
       </c>
       <c r="L291" t="n">
         <v>6.385999999999987</v>
@@ -15120,7 +15142,7 @@
         <v>6.029999999999998</v>
       </c>
       <c r="K292" t="n">
-        <v>39.53488372093024</v>
+        <v>58.33333333333344</v>
       </c>
       <c r="L292" t="n">
         <v>6.416999999999987</v>
@@ -15171,7 +15193,7 @@
         <v>6.129999999999997</v>
       </c>
       <c r="K293" t="n">
-        <v>47.36842105263154</v>
+        <v>62.26415094339631</v>
       </c>
       <c r="L293" t="n">
         <v>6.454999999999989</v>
@@ -15222,7 +15244,7 @@
         <v>6.219999999999997</v>
       </c>
       <c r="K294" t="n">
-        <v>56.43564356435644</v>
+        <v>66.1016949152543</v>
       </c>
       <c r="L294" t="n">
         <v>6.496999999999988</v>
@@ -15273,7 +15295,7 @@
         <v>6.329999999999997</v>
       </c>
       <c r="K295" t="n">
-        <v>43.63636363636376</v>
+        <v>63.33333333333344</v>
       </c>
       <c r="L295" t="n">
         <v>6.524999999999989</v>
@@ -15324,7 +15346,7 @@
         <v>6.359999999999997</v>
       </c>
       <c r="K296" t="n">
-        <v>49.05660377358492</v>
+        <v>44.00000000000003</v>
       </c>
       <c r="L296" t="n">
         <v>6.559999999999988</v>
@@ -15375,7 +15397,7 @@
         <v>6.379999999999997</v>
       </c>
       <c r="K297" t="n">
-        <v>43.75000000000004</v>
+        <v>45.09803921568638</v>
       </c>
       <c r="L297" t="n">
         <v>6.583999999999989</v>
@@ -15426,7 +15448,7 @@
         <v>6.409999999999997</v>
       </c>
       <c r="K298" t="n">
-        <v>50.00000000000004</v>
+        <v>45.09803921568628</v>
       </c>
       <c r="L298" t="n">
         <v>6.60999999999999</v>
@@ -15477,7 +15499,7 @@
         <v>6.509999999999996</v>
       </c>
       <c r="K299" t="n">
-        <v>33.98058252427189</v>
+        <v>17.24137931034482</v>
       </c>
       <c r="L299" t="n">
         <v>6.622999999999989</v>
@@ -15528,7 +15550,7 @@
         <v>6.609999999999996</v>
       </c>
       <c r="K300" t="n">
-        <v>39.82300884955755</v>
+        <v>25.00000000000007</v>
       </c>
       <c r="L300" t="n">
         <v>6.642999999999988</v>
@@ -15579,7 +15601,7 @@
         <v>6.769999999999996</v>
       </c>
       <c r="K301" t="n">
-        <v>22.48062015503874</v>
+        <v>-8.108108108108192</v>
       </c>
       <c r="L301" t="n">
         <v>6.642999999999988</v>
@@ -15630,7 +15652,7 @@
         <v>6.839999999999996</v>
       </c>
       <c r="K302" t="n">
-        <v>24.24242424242429</v>
+        <v>-12.67605633802817</v>
       </c>
       <c r="L302" t="n">
         <v>6.643999999999989</v>
@@ -15681,7 +15703,7 @@
         <v>6.839999999999996</v>
       </c>
       <c r="K303" t="n">
-        <v>22.48062015503879</v>
+        <v>-29.03225806451612</v>
       </c>
       <c r="L303" t="n">
         <v>6.634999999999988</v>
@@ -15732,7 +15754,7 @@
         <v>6.849999999999996</v>
       </c>
       <c r="K304" t="n">
-        <v>18.40000000000006</v>
+        <v>-15.38461538461541</v>
       </c>
       <c r="L304" t="n">
         <v>6.615999999999988</v>
@@ -15783,7 +15805,7 @@
         <v>6.849999999999996</v>
       </c>
       <c r="K305" t="n">
-        <v>16.39344262295086</v>
+        <v>-10.20408163265304</v>
       </c>
       <c r="L305" t="n">
         <v>6.607999999999988</v>
@@ -15834,7 +15856,7 @@
         <v>6.869999999999997</v>
       </c>
       <c r="K306" t="n">
-        <v>24.5614035087719</v>
+        <v>-18.36734693877569</v>
       </c>
       <c r="L306" t="n">
         <v>6.600999999999989</v>
@@ -15885,7 +15907,7 @@
         <v>6.979999999999996</v>
       </c>
       <c r="K307" t="n">
-        <v>3.57142857142858</v>
+        <v>-40.35087719298242</v>
       </c>
       <c r="L307" t="n">
         <v>6.580999999999989</v>
@@ -15936,7 +15958,7 @@
         <v>7.079999999999996</v>
       </c>
       <c r="K308" t="n">
-        <v>10.74380165289257</v>
+        <v>-5.263157894736891</v>
       </c>
       <c r="L308" t="n">
         <v>6.567999999999989</v>
@@ -15987,7 +16009,7 @@
         <v>7.119999999999996</v>
       </c>
       <c r="K309" t="n">
-        <v>4.918032786885222</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L309" t="n">
         <v>6.56099999999999</v>
@@ -16038,7 +16060,7 @@
         <v>7.169999999999995</v>
       </c>
       <c r="K310" t="n">
-        <v>6.451612903225754</v>
+        <v>10.00000000000002</v>
       </c>
       <c r="L310" t="n">
         <v>6.54899999999999</v>
@@ -16089,7 +16111,7 @@
         <v>7.199999999999996</v>
       </c>
       <c r="K311" t="n">
-        <v>5.691056910569135</v>
+        <v>0</v>
       </c>
       <c r="L311" t="n">
         <v>6.55599999999999</v>
@@ -16140,7 +16162,7 @@
         <v>7.209999999999996</v>
       </c>
       <c r="K312" t="n">
-        <v>1.694915254237255</v>
+        <v>2.702702702702651</v>
       </c>
       <c r="L312" t="n">
         <v>6.55699999999999</v>
@@ -16191,7 +16213,7 @@
         <v>7.229999999999995</v>
       </c>
       <c r="K313" t="n">
-        <v>-9.090909090909076</v>
+        <v>0</v>
       </c>
       <c r="L313" t="n">
         <v>6.555999999999989</v>
@@ -16242,7 +16264,7 @@
         <v>7.249999999999996</v>
       </c>
       <c r="K314" t="n">
-        <v>-20.38834951456314</v>
+        <v>-5.000000000000123</v>
       </c>
       <c r="L314" t="n">
         <v>6.55399999999999</v>
@@ -16293,7 +16315,7 @@
         <v>7.249999999999996</v>
       </c>
       <c r="K315" t="n">
-        <v>-10.86956521739137</v>
+        <v>0</v>
       </c>
       <c r="L315" t="n">
         <v>6.55199999999999</v>
@@ -16344,7 +16366,7 @@
         <v>7.279999999999995</v>
       </c>
       <c r="K316" t="n">
-        <v>-10.86956521739129</v>
+        <v>26.66666666666678</v>
       </c>
       <c r="L316" t="n">
         <v>6.54899999999999</v>
@@ -16395,7 +16417,7 @@
         <v>7.329999999999995</v>
       </c>
       <c r="K317" t="n">
-        <v>-17.8947368421053</v>
+        <v>-27.99999999999986</v>
       </c>
       <c r="L317" t="n">
         <v>6.55199999999999</v>
@@ -16446,7 +16468,7 @@
         <v>7.349999999999994</v>
       </c>
       <c r="K318" t="n">
-        <v>-19.14893617021278</v>
+        <v>-4.347826086956454</v>
       </c>
       <c r="L318" t="n">
         <v>6.54699999999999</v>
@@ -16497,7 +16519,7 @@
         <v>7.349999999999994</v>
       </c>
       <c r="K319" t="n">
-        <v>-9.523809523809554</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L319" t="n">
         <v>6.54599999999999</v>
@@ -16548,7 +16570,7 @@
         <v>7.429999999999994</v>
       </c>
       <c r="K320" t="n">
-        <v>-31.70731707317077</v>
+        <v>-73.91304347826127</v>
       </c>
       <c r="L320" t="n">
         <v>6.531999999999989</v>
@@ -16599,7 +16621,7 @@
         <v>7.499999999999995</v>
       </c>
       <c r="K321" t="n">
-        <v>-4.10958904109581</v>
+        <v>-37.93103448275853</v>
       </c>
       <c r="L321" t="n">
         <v>6.521999999999989</v>
@@ -16650,7 +16672,7 @@
         <v>7.499999999999995</v>
       </c>
       <c r="K322" t="n">
-        <v>-15.15151515151513</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L322" t="n">
         <v>6.510999999999989</v>
@@ -16701,7 +16723,7 @@
         <v>7.559999999999995</v>
       </c>
       <c r="K323" t="n">
-        <v>-22.22222222222228</v>
+        <v>-41.93548387096776</v>
       </c>
       <c r="L323" t="n">
         <v>6.495999999999988</v>
@@ -16752,7 +16774,7 @@
         <v>7.559999999999995</v>
       </c>
       <c r="K324" t="n">
-        <v>-21.12676056338036</v>
+        <v>-41.93548387096776</v>
       </c>
       <c r="L324" t="n">
         <v>6.482999999999987</v>
@@ -16803,7 +16825,7 @@
         <v>7.559999999999995</v>
       </c>
       <c r="K325" t="n">
-        <v>-21.12676056338036</v>
+        <v>-35.71428571428587</v>
       </c>
       <c r="L325" t="n">
         <v>6.469999999999987</v>
@@ -16854,7 +16876,7 @@
         <v>7.669999999999995</v>
       </c>
       <c r="K326" t="n">
-        <v>-29.99999999999999</v>
+        <v>-47.05882352941182</v>
       </c>
       <c r="L326" t="n">
         <v>6.448999999999987</v>
@@ -16905,7 +16927,7 @@
         <v>7.749999999999995</v>
       </c>
       <c r="K327" t="n">
-        <v>-6.493506493506482</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L327" t="n">
         <v>6.440999999999987</v>
@@ -16956,7 +16978,7 @@
         <v>7.759999999999994</v>
       </c>
       <c r="K328" t="n">
-        <v>-20.58823529411763</v>
+        <v>-21.95121951219508</v>
       </c>
       <c r="L328" t="n">
         <v>6.431999999999986</v>
@@ -17007,7 +17029,7 @@
         <v>7.779999999999994</v>
       </c>
       <c r="K329" t="n">
-        <v>-12.12121212121216</v>
+        <v>2.857142857142799</v>
       </c>
       <c r="L329" t="n">
         <v>6.424999999999986</v>
@@ -17058,7 +17080,7 @@
         <v>7.829999999999995</v>
       </c>
       <c r="K330" t="n">
-        <v>-12.12121212121201</v>
+        <v>-3.030303030302965</v>
       </c>
       <c r="L330" t="n">
         <v>6.430999999999986</v>
@@ -17109,7 +17131,7 @@
         <v>7.849999999999995</v>
       </c>
       <c r="K331" t="n">
-        <v>-20</v>
+        <v>-8.57142857142863</v>
       </c>
       <c r="L331" t="n">
         <v>6.427999999999986</v>
@@ -17160,7 +17182,7 @@
         <v>7.989999999999995</v>
       </c>
       <c r="K332" t="n">
-        <v>0</v>
+        <v>39.53488372093024</v>
       </c>
       <c r="L332" t="n">
         <v>6.438999999999986</v>
@@ -17211,7 +17233,7 @@
         <v>8.069999999999995</v>
       </c>
       <c r="K333" t="n">
-        <v>11.90476190476186</v>
+        <v>49.01960784313727</v>
       </c>
       <c r="L333" t="n">
         <v>6.463999999999984</v>
@@ -17262,7 +17284,7 @@
         <v>8.069999999999995</v>
       </c>
       <c r="K334" t="n">
-        <v>14.63414634146344</v>
+        <v>49.01960784313727</v>
       </c>
       <c r="L334" t="n">
         <v>6.488999999999985</v>
@@ -17313,7 +17335,7 @@
         <v>8.079999999999995</v>
       </c>
       <c r="K335" t="n">
-        <v>15.66265060240975</v>
+        <v>90.24390243902438</v>
       </c>
       <c r="L335" t="n">
         <v>6.514999999999984</v>
@@ -17364,7 +17386,7 @@
         <v>8.109999999999996</v>
       </c>
       <c r="K336" t="n">
-        <v>15.66265060240961</v>
+        <v>72.22222222222192</v>
       </c>
       <c r="L336" t="n">
         <v>6.548999999999984</v>
@@ -17415,7 +17437,7 @@
         <v>8.119999999999996</v>
       </c>
       <c r="K337" t="n">
-        <v>21.51898734177212</v>
+        <v>66.6666666666665</v>
       </c>
       <c r="L337" t="n">
         <v>6.573999999999984</v>
@@ -17466,7 +17488,7 @@
         <v>8.139999999999997</v>
       </c>
       <c r="K338" t="n">
-        <v>16.45569620253157</v>
+        <v>55.55555555555515</v>
       </c>
       <c r="L338" t="n">
         <v>6.595999999999984</v>
@@ -17517,7 +17539,7 @@
         <v>8.169999999999998</v>
       </c>
       <c r="K339" t="n">
-        <v>12.19512195121941</v>
+        <v>35.29411764705824</v>
       </c>
       <c r="L339" t="n">
         <v>6.612999999999983</v>
@@ -17568,7 +17590,7 @@
         <v>8.179999999999998</v>
       </c>
       <c r="K340" t="n">
-        <v>22.66666666666655</v>
+        <v>39.39393939393904</v>
       </c>
       <c r="L340" t="n">
         <v>6.623999999999983</v>
@@ -17619,7 +17641,7 @@
         <v>8.189999999999998</v>
       </c>
       <c r="K341" t="n">
-        <v>13.04347826086949</v>
+        <v>-9.999999999999645</v>
       </c>
       <c r="L341" t="n">
         <v>6.635999999999983</v>
@@ -17670,7 +17692,7 @@
         <v>8.229999999999997</v>
       </c>
       <c r="K342" t="n">
-        <v>6.849315068493106</v>
+        <v>-87.49999999999875</v>
       </c>
       <c r="L342" t="n">
         <v>6.629999999999984</v>
@@ -17721,7 +17743,7 @@
         <v>8.249999999999996</v>
       </c>
       <c r="K343" t="n">
-        <v>13.04347826086952</v>
+        <v>-88.88888888888823</v>
       </c>
       <c r="L343" t="n">
         <v>6.613999999999985</v>
@@ -17772,7 +17794,7 @@
         <v>8.249999999999996</v>
       </c>
       <c r="K344" t="n">
-        <v>13.04347826086952</v>
+        <v>-99.99999999999947</v>
       </c>
       <c r="L344" t="n">
         <v>6.597999999999985</v>
@@ -17823,7 +17845,7 @@
         <v>8.259999999999998</v>
       </c>
       <c r="K345" t="n">
-        <v>14.2857142857143</v>
+        <v>-86.66666666666536</v>
       </c>
       <c r="L345" t="n">
         <v>6.581999999999985</v>
@@ -17874,7 +17896,7 @@
         <v>8.329999999999998</v>
       </c>
       <c r="K346" t="n">
-        <v>21.21212121212105</v>
+        <v>-90.47619047618953</v>
       </c>
       <c r="L346" t="n">
         <v>6.561999999999985</v>
@@ -17925,7 +17947,7 @@
         <v>8.359999999999999</v>
       </c>
       <c r="K347" t="n">
-        <v>4.918032786885103</v>
+        <v>-90.90909090909</v>
       </c>
       <c r="L347" t="n">
         <v>6.539999999999983</v>
@@ -17976,7 +17998,7 @@
         <v>8.44</v>
       </c>
       <c r="K348" t="n">
-        <v>-8.823529411764714</v>
+        <v>-92.59259259259213</v>
       </c>
       <c r="L348" t="n">
         <v>6.511999999999984</v>
@@ -18027,7 +18049,7 @@
         <v>8.460000000000001</v>
       </c>
       <c r="K349" t="n">
-        <v>-8.823529411764559</v>
+        <v>-78.57142857142767</v>
       </c>
       <c r="L349" t="n">
         <v>6.488999999999985</v>
@@ -18078,7 +18100,7 @@
         <v>8.52</v>
       </c>
       <c r="K350" t="n">
-        <v>-7.246376811594255</v>
+        <v>-45.45454545454531</v>
       </c>
       <c r="L350" t="n">
         <v>6.472999999999985</v>
@@ -18129,7 +18151,7 @@
         <v>8.52</v>
       </c>
       <c r="K351" t="n">
-        <v>-4.477611940298516</v>
+        <v>-37.93103448275838</v>
       </c>
       <c r="L351" t="n">
         <v>6.457999999999986</v>
@@ -18180,7 +18202,7 @@
         <v>8.559999999999999</v>
       </c>
       <c r="K352" t="n">
-        <v>-36.84210526315764</v>
+        <v>-41.9354838709674</v>
       </c>
       <c r="L352" t="n">
         <v>6.442999999999985</v>
@@ -18231,7 +18253,7 @@
         <v>8.579999999999998</v>
       </c>
       <c r="K353" t="n">
-        <v>-52.94117647058781</v>
+        <v>-33.33333333333297</v>
       </c>
       <c r="L353" t="n">
         <v>6.431999999999985</v>
@@ -18282,7 +18304,7 @@
         <v>8.609999999999999</v>
       </c>
       <c r="K354" t="n">
-        <v>-44.44444444444395</v>
+        <v>-25.71428571428557</v>
       </c>
       <c r="L354" t="n">
         <v>6.423999999999985</v>
@@ -18333,7 +18355,7 @@
         <v>8.67</v>
       </c>
       <c r="K355" t="n">
-        <v>-52.54237288135556</v>
+        <v>-23.52941176470579</v>
       </c>
       <c r="L355" t="n">
         <v>6.408999999999985</v>
@@ -18384,7 +18406,7 @@
         <v>8.690000000000001</v>
       </c>
       <c r="K356" t="n">
-        <v>-44.8275862068961</v>
+        <v>-9.090909090908847</v>
       </c>
       <c r="L356" t="n">
         <v>6.402999999999986</v>
@@ -18435,7 +18457,7 @@
         <v>8.690000000000001</v>
       </c>
       <c r="K357" t="n">
-        <v>-43.85964912280659</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L357" t="n">
         <v>6.399999999999986</v>
@@ -18486,7 +18508,7 @@
         <v>8.700000000000003</v>
       </c>
       <c r="K358" t="n">
-        <v>-42.85714285714245</v>
+        <v>8.333333333333087</v>
       </c>
       <c r="L358" t="n">
         <v>6.403999999999987</v>
@@ -18537,7 +18559,7 @@
         <v>8.730000000000004</v>
       </c>
       <c r="K359" t="n">
-        <v>-32.14285714285676</v>
+        <v>-4.76190476190456</v>
       </c>
       <c r="L359" t="n">
         <v>6.408999999999986</v>
@@ -18588,7 +18610,7 @@
         <v>8.760000000000005</v>
       </c>
       <c r="K360" t="n">
-        <v>-24.1379310344824</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L360" t="n">
         <v>6.410999999999987</v>
@@ -18639,7 +18661,7 @@
         <v>8.810000000000006</v>
       </c>
       <c r="K361" t="n">
-        <v>-29.0322580645157</v>
+        <v>4.000000000000156</v>
       </c>
       <c r="L361" t="n">
         <v>6.407999999999987</v>
@@ -18690,7 +18712,7 @@
         <v>8.860000000000007</v>
       </c>
       <c r="K362" t="n">
-        <v>-14.28571428571404</v>
+        <v>14.28571428571388</v>
       </c>
       <c r="L362" t="n">
         <v>6.413999999999987</v>
@@ -18741,7 +18763,7 @@
         <v>8.910000000000007</v>
       </c>
       <c r="K363" t="n">
-        <v>-18.18181818181777</v>
+        <v>-13.333333333333</v>
       </c>
       <c r="L363" t="n">
         <v>6.412999999999988</v>
@@ -18792,7 +18814,7 @@
         <v>8.910000000000007</v>
       </c>
       <c r="K364" t="n">
-        <v>-18.18181818181777</v>
+        <v>8.333333333333272</v>
       </c>
       <c r="L364" t="n">
         <v>6.408999999999989</v>
@@ -18843,7 +18865,7 @@
         <v>8.910000000000007</v>
       </c>
       <c r="K365" t="n">
-        <v>-19.9999999999997</v>
+        <v>0</v>
       </c>
       <c r="L365" t="n">
         <v>6.41099999999999</v>
@@ -18894,7 +18916,7 @@
         <v>8.920000000000009</v>
       </c>
       <c r="K366" t="n">
-        <v>-11.86440677966085</v>
+        <v>-4.347826086956672</v>
       </c>
       <c r="L366" t="n">
         <v>6.409999999999989</v>
@@ -18945,7 +18967,7 @@
         <v>9.000000000000009</v>
       </c>
       <c r="K367" t="n">
-        <v>-18.74999999999974</v>
+        <v>-26.66666666666616</v>
       </c>
       <c r="L367" t="n">
         <v>6.400999999999989</v>
@@ -18996,7 +19018,7 @@
         <v>9.050000000000008</v>
       </c>
       <c r="K368" t="n">
-        <v>-14.75409836065551</v>
+        <v>-49.99999999999945</v>
       </c>
       <c r="L368" t="n">
         <v>6.387999999999989</v>
@@ -19047,7 +19069,7 @@
         <v>9.100000000000009</v>
       </c>
       <c r="K369" t="n">
-        <v>-9.374999999999964</v>
+        <v>-41.17647058823505</v>
       </c>
       <c r="L369" t="n">
         <v>6.37699999999999</v>
@@ -19098,7 +19120,7 @@
         <v>9.120000000000008</v>
       </c>
       <c r="K370" t="n">
-        <v>-23.33333333333295</v>
+        <v>-35.48387096774178</v>
       </c>
       <c r="L370" t="n">
         <v>6.36099999999999</v>
@@ -19149,7 +19171,7 @@
         <v>9.130000000000008</v>
       </c>
       <c r="K371" t="n">
-        <v>-21.31147540983576</v>
+        <v>-55.55555555555542</v>
       </c>
       <c r="L371" t="n">
         <v>6.35099999999999</v>
@@ -19200,7 +19222,7 @@
         <v>9.160000000000007</v>
       </c>
       <c r="K372" t="n">
-        <v>-9.999999999999792</v>
+        <v>-28.00000000000011</v>
       </c>
       <c r="L372" t="n">
         <v>6.33899999999999</v>
@@ -19251,7 +19273,7 @@
         <v>9.180000000000007</v>
       </c>
       <c r="K373" t="n">
-        <v>-16.66666666666652</v>
+        <v>-33.33333333333366</v>
       </c>
       <c r="L373" t="n">
         <v>6.32999999999999</v>
@@ -19302,7 +19324,7 @@
         <v>9.180000000000007</v>
       </c>
       <c r="K374" t="n">
-        <v>-22.80701754385949</v>
+        <v>-33.33333333333366</v>
       </c>
       <c r="L374" t="n">
         <v>6.32099999999999</v>
@@ -19353,7 +19375,7 @@
         <v>9.250000000000007</v>
       </c>
       <c r="K375" t="n">
-        <v>-24.1379310344824</v>
+        <v>-45.45454545454552</v>
       </c>
       <c r="L375" t="n">
         <v>6.304999999999991</v>
@@ -19404,7 +19426,7 @@
         <v>9.300000000000008</v>
       </c>
       <c r="K376" t="n">
-        <v>-18.03278688524576</v>
+        <v>-6.666666666666549</v>
       </c>
       <c r="L376" t="n">
         <v>6.29499999999999</v>
@@ -19455,7 +19477,7 @@
         <v>9.300000000000008</v>
       </c>
       <c r="K377" t="n">
-        <v>-18.03278688524576</v>
+        <v>12.0000000000001</v>
       </c>
       <c r="L377" t="n">
         <v>6.29299999999999</v>
@@ -19506,7 +19528,7 @@
         <v>9.320000000000007</v>
       </c>
       <c r="K378" t="n">
-        <v>-19.3548387096773</v>
+        <v>-18.18181818181829</v>
       </c>
       <c r="L378" t="n">
         <v>6.293999999999991</v>
@@ -19557,7 +19579,7 @@
         <v>9.350000000000007</v>
       </c>
       <c r="K379" t="n">
-        <v>-29.03225806451595</v>
+        <v>-21.73913043478266</v>
       </c>
       <c r="L379" t="n">
         <v>6.28699999999999</v>
@@ -19608,7 +19630,7 @@
         <v>9.360000000000007</v>
       </c>
       <c r="K380" t="n">
-        <v>-36.66666666666654</v>
+        <v>-30.43478260869557</v>
       </c>
       <c r="L380" t="n">
         <v>6.280999999999991</v>
@@ -19659,7 +19681,7 @@
         <v>9.380000000000006</v>
       </c>
       <c r="K381" t="n">
-        <v>-26.31578947368426</v>
+        <v>-36.36363636363658</v>
       </c>
       <c r="L381" t="n">
         <v>6.275999999999992</v>
@@ -19710,7 +19732,7 @@
         <v>9.390000000000006</v>
       </c>
       <c r="K382" t="n">
-        <v>-35.8490566037737</v>
+        <v>-23.80952380952383</v>
       </c>
       <c r="L382" t="n">
         <v>6.268999999999993</v>
@@ -19761,7 +19783,7 @@
         <v>9.390000000000006</v>
       </c>
       <c r="K383" t="n">
-        <v>-29.16666666666687</v>
+        <v>-23.80952380952383</v>
       </c>
       <c r="L383" t="n">
         <v>6.263999999999993</v>
@@ -19812,7 +19834,7 @@
         <v>9.430000000000007</v>
       </c>
       <c r="K384" t="n">
-        <v>-19.23076923076935</v>
+        <v>33.33333333333317</v>
       </c>
       <c r="L384" t="n">
         <v>6.262999999999993</v>
@@ -19863,7 +19885,7 @@
         <v>9.440000000000007</v>
       </c>
       <c r="K385" t="n">
-        <v>-16.98113207547186</v>
+        <v>14.28571428571411</v>
       </c>
       <c r="L385" t="n">
         <v>6.269999999999992</v>
@@ -19914,7 +19936,7 @@
         <v>9.440000000000007</v>
       </c>
       <c r="K386" t="n">
-        <v>-15.38461538461546</v>
+        <v>14.28571428571411</v>
       </c>
       <c r="L386" t="n">
         <v>6.271999999999992</v>
@@ -19965,7 +19987,7 @@
         <v>9.440000000000007</v>
       </c>
       <c r="K387" t="n">
-        <v>0</v>
+        <v>33.33333333333358</v>
       </c>
       <c r="L387" t="n">
         <v>6.273999999999992</v>
@@ -20016,7 +20038,7 @@
         <v>9.490000000000006</v>
       </c>
       <c r="K388" t="n">
-        <v>0</v>
+        <v>14.28571428571411</v>
       </c>
       <c r="L388" t="n">
         <v>6.272999999999992</v>
@@ -20067,7 +20089,7 @@
         <v>9.490000000000006</v>
       </c>
       <c r="K389" t="n">
-        <v>-12.82051282051287</v>
+        <v>23.07692307692276</v>
       </c>
       <c r="L389" t="n">
         <v>6.274999999999992</v>
@@ -20118,7 +20140,7 @@
         <v>9.560000000000006</v>
       </c>
       <c r="K390" t="n">
-        <v>9.090909090909145</v>
+        <v>44.44444444444456</v>
       </c>
       <c r="L390" t="n">
         <v>6.284999999999992</v>
@@ -20169,7 +20191,7 @@
         <v>9.560000000000006</v>
       </c>
       <c r="K391" t="n">
-        <v>6.976744186046603</v>
+        <v>41.17647058823548</v>
       </c>
       <c r="L391" t="n">
         <v>6.292999999999992</v>
@@ -20220,7 +20242,7 @@
         <v>9.630000000000006</v>
       </c>
       <c r="K392" t="n">
-        <v>14.89361702127669</v>
+        <v>58.33333333333351</v>
       </c>
       <c r="L392" t="n">
         <v>6.306999999999993</v>
@@ -20271,7 +20293,7 @@
         <v>9.680000000000007</v>
       </c>
       <c r="K393" t="n">
-        <v>28.00000000000011</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L393" t="n">
         <v>6.325999999999993</v>
@@ -20322,7 +20344,7 @@
         <v>9.690000000000007</v>
       </c>
       <c r="K394" t="n">
-        <v>25.49019607843154</v>
+        <v>52.00000000000031</v>
       </c>
       <c r="L394" t="n">
         <v>6.339999999999994</v>
@@ -20373,7 +20395,7 @@
         <v>9.690000000000007</v>
       </c>
       <c r="K395" t="n">
-        <v>45.45454545454555</v>
+        <v>52.00000000000031</v>
       </c>
       <c r="L395" t="n">
         <v>6.352999999999993</v>
@@ -20424,7 +20446,7 @@
         <v>9.780000000000008</v>
       </c>
       <c r="K396" t="n">
-        <v>12.49999999999991</v>
+        <v>11.7647058823529</v>
       </c>
       <c r="L396" t="n">
         <v>6.356999999999992</v>
@@ -20475,7 +20497,7 @@
         <v>9.870000000000008</v>
       </c>
       <c r="K397" t="n">
-        <v>26.31578947368426</v>
+        <v>47.36842105263142</v>
       </c>
       <c r="L397" t="n">
         <v>6.369999999999992</v>
@@ -20526,7 +20548,7 @@
         <v>9.870000000000008</v>
       </c>
       <c r="K398" t="n">
-        <v>30.90909090909102</v>
+        <v>47.36842105263142</v>
       </c>
       <c r="L398" t="n">
         <v>6.387999999999992</v>
@@ -20577,7 +20599,7 @@
         <v>9.910000000000007</v>
       </c>
       <c r="K399" t="n">
-        <v>28.57142857142857</v>
+        <v>20</v>
       </c>
       <c r="L399" t="n">
         <v>6.401999999999991</v>
@@ -20628,7 +20650,7 @@
         <v>9.940000000000008</v>
       </c>
       <c r="K400" t="n">
-        <v>24.13793103448263</v>
+        <v>10.52631578947362</v>
       </c>
       <c r="L400" t="n">
         <v>6.405999999999992</v>
@@ -20679,7 +20701,7 @@
         <v>9.940000000000008</v>
       </c>
       <c r="K401" t="n">
-        <v>21.42857142857136</v>
+        <v>-9.677419354838719</v>
       </c>
       <c r="L401" t="n">
         <v>6.409999999999992</v>
@@ -20730,7 +20752,7 @@
         <v>9.960000000000008</v>
       </c>
       <c r="K402" t="n">
-        <v>22.80701754385955</v>
+        <v>-21.42857142857152</v>
       </c>
       <c r="L402" t="n">
         <v>6.408999999999992</v>
@@ -20781,7 +20803,7 @@
         <v>9.960000000000008</v>
       </c>
       <c r="K403" t="n">
-        <v>22.80701754385955</v>
+        <v>-18.51851851851869</v>
       </c>
       <c r="L403" t="n">
         <v>6.402999999999992</v>
@@ -20832,7 +20854,7 @@
         <v>9.960000000000008</v>
       </c>
       <c r="K404" t="n">
-        <v>16.98113207547163</v>
+        <v>-18.51851851851869</v>
       </c>
       <c r="L404" t="n">
         <v>6.397999999999992</v>
@@ -20883,7 +20905,7 @@
         <v>9.960000000000008</v>
       </c>
       <c r="K405" t="n">
-        <v>15.38461538461536</v>
+        <v>22.22222222222228</v>
       </c>
       <c r="L405" t="n">
         <v>6.392999999999992</v>
@@ -20934,7 +20956,7 @@
         <v>9.960000000000008</v>
       </c>
       <c r="K406" t="n">
-        <v>15.38461538461536</v>
+        <v>-55.55555555555644</v>
       </c>
       <c r="L406" t="n">
         <v>6.396999999999992</v>
@@ -20985,7 +21007,7 @@
         <v>9.960000000000008</v>
       </c>
       <c r="K407" t="n">
-        <v>15.38461538461536</v>
+        <v>-55.55555555555644</v>
       </c>
       <c r="L407" t="n">
         <v>6.391999999999991</v>
@@ -21036,7 +21058,7 @@
         <v>9.97000000000001</v>
       </c>
       <c r="K408" t="n">
-        <v>29.16666666666654</v>
+        <v>0</v>
       </c>
       <c r="L408" t="n">
         <v>6.387999999999993</v>
@@ -21087,7 +21109,7 @@
         <v>9.97000000000001</v>
       </c>
       <c r="K409" t="n">
-        <v>29.16666666666654</v>
+        <v>99.99999999999703</v>
       </c>
       <c r="L409" t="n">
         <v>6.387999999999993</v>
@@ -21138,7 +21160,7 @@
         <v>9.980000000000011</v>
       </c>
       <c r="K410" t="n">
-        <v>14.28571428571401</v>
+        <v>49.99999999999556</v>
       </c>
       <c r="L410" t="n">
         <v>6.389999999999993</v>
@@ -21189,7 +21211,7 @@
         <v>10.02000000000001</v>
       </c>
       <c r="K411" t="n">
-        <v>21.73913043478232</v>
+        <v>66.6666666666642</v>
       </c>
       <c r="L411" t="n">
         <v>6.395999999999993</v>
@@ -21240,7 +21262,7 @@
         <v>10.02000000000001</v>
       </c>
       <c r="K412" t="n">
-        <v>7.692307692307447</v>
+        <v>66.6666666666642</v>
       </c>
       <c r="L412" t="n">
         <v>6.399999999999993</v>
@@ -21291,7 +21313,7 @@
         <v>10.03000000000001</v>
       </c>
       <c r="K413" t="n">
-        <v>-2.857142857142756</v>
+        <v>71.42857142856853</v>
       </c>
       <c r="L413" t="n">
         <v>6.404999999999992</v>
@@ -21342,7 +21364,7 @@
         <v>10.06000000000001</v>
       </c>
       <c r="K414" t="n">
-        <v>8.108108108107835</v>
+        <v>79.99999999999751</v>
       </c>
       <c r="L414" t="n">
         <v>6.412999999999992</v>
@@ -21393,7 +21415,7 @@
         <v>10.09000000000001</v>
       </c>
       <c r="K415" t="n">
-        <v>14.99999999999975</v>
+        <v>84.61538461538319</v>
       </c>
       <c r="L415" t="n">
         <v>6.423999999999992</v>
@@ -21444,7 +21466,7 @@
         <v>10.09000000000001</v>
       </c>
       <c r="K416" t="n">
-        <v>48.3870967741933</v>
+        <v>84.61538461538319</v>
       </c>
       <c r="L416" t="n">
         <v>6.434999999999993</v>
@@ -21495,7 +21517,7 @@
         <v>10.09000000000001</v>
       </c>
       <c r="K417" t="n">
-        <v>27.27272727272679</v>
+        <v>83.33333333333235</v>
       </c>
       <c r="L417" t="n">
         <v>6.445999999999993</v>
@@ -21546,7 +21568,7 @@
         <v>10.09000000000001</v>
       </c>
       <c r="K418" t="n">
-        <v>27.27272727272679</v>
+        <v>83.33333333333235</v>
       </c>
       <c r="L418" t="n">
         <v>6.455999999999992</v>
@@ -21597,7 +21619,7 @@
         <v>10.09000000000001</v>
       </c>
       <c r="K419" t="n">
-        <v>55.55555555555435</v>
+        <v>100.0000000000008</v>
       </c>
       <c r="L419" t="n">
         <v>6.465999999999991</v>
@@ -21648,7 +21670,7 @@
         <v>10.16000000000001</v>
       </c>
       <c r="K420" t="n">
-        <v>27.27272727272679</v>
+        <v>0</v>
       </c>
       <c r="L420" t="n">
         <v>6.469999999999992</v>
@@ -21699,7 +21721,7 @@
         <v>10.27000000000001</v>
       </c>
       <c r="K421" t="n">
-        <v>51.5151515151512</v>
+        <v>44.00000000000013</v>
       </c>
       <c r="L421" t="n">
         <v>6.480999999999992</v>
@@ -21750,7 +21772,7 @@
         <v>10.29000000000001</v>
       </c>
       <c r="K422" t="n">
-        <v>39.39393939393914</v>
+        <v>30.76923076923069</v>
       </c>
       <c r="L422" t="n">
         <v>6.489999999999992</v>
@@ -21801,7 +21823,7 @@
         <v>10.30000000000001</v>
       </c>
       <c r="K423" t="n">
-        <v>35.29411764705868</v>
+        <v>16.66666666666679</v>
       </c>
       <c r="L423" t="n">
         <v>6.496999999999993</v>
@@ -21852,7 +21874,7 @@
         <v>10.32000000000001</v>
       </c>
       <c r="K424" t="n">
-        <v>38.88888888888872</v>
+        <v>13.04347826086965</v>
       </c>
       <c r="L424" t="n">
         <v>6.502999999999993</v>
@@ -21903,7 +21925,7 @@
         <v>10.33000000000001</v>
       </c>
       <c r="K425" t="n">
-        <v>35.13513513513468</v>
+        <v>8.333333333333087</v>
       </c>
       <c r="L425" t="n">
         <v>6.504999999999993</v>
@@ -21954,7 +21976,7 @@
         <v>10.35000000000001</v>
       </c>
       <c r="K426" t="n">
-        <v>28.20512820512799</v>
+        <v>0</v>
       </c>
       <c r="L426" t="n">
         <v>6.504999999999993</v>
@@ -22005,7 +22027,7 @@
         <v>10.37000000000001</v>
       </c>
       <c r="K427" t="n">
-        <v>31.70731707317042</v>
+        <v>7.142857142856962</v>
       </c>
       <c r="L427" t="n">
         <v>6.506999999999993</v>
@@ -22056,7 +22078,7 @@
         <v>10.42000000000001</v>
       </c>
       <c r="K428" t="n">
-        <v>37.77777777777752</v>
+        <v>21.21212121212118</v>
       </c>
       <c r="L428" t="n">
         <v>6.513999999999993</v>
@@ -22107,7 +22129,7 @@
         <v>10.49000000000001</v>
       </c>
       <c r="K429" t="n">
-        <v>46.15384615384575</v>
+        <v>63.63636363636327</v>
       </c>
       <c r="L429" t="n">
         <v>6.527999999999993</v>
@@ -22158,7 +22180,7 @@
         <v>10.55000000000001</v>
       </c>
       <c r="K430" t="n">
-        <v>54.38596491228059</v>
+        <v>57.1428571428566</v>
       </c>
       <c r="L430" t="n">
         <v>6.554999999999993</v>
@@ -22209,7 +22231,7 @@
         <v>10.60000000000001</v>
       </c>
       <c r="K431" t="n">
-        <v>37.93103448275861</v>
+        <v>41.93548387096769</v>
       </c>
       <c r="L431" t="n">
         <v>6.565999999999993</v>
@@ -22260,7 +22282,7 @@
         <v>10.65000000000001</v>
       </c>
       <c r="K432" t="n">
-        <v>42.85714285714275</v>
+        <v>54.2857142857139</v>
       </c>
       <c r="L432" t="n">
         <v>6.583999999999993</v>
@@ -22311,7 +22333,7 @@
         <v>10.65000000000001</v>
       </c>
       <c r="K433" t="n">
-        <v>41.93548387096764</v>
+        <v>51.5151515151512</v>
       </c>
       <c r="L433" t="n">
         <v>6.602999999999993</v>
@@ -22362,7 +22384,7 @@
         <v>10.65000000000001</v>
       </c>
       <c r="K434" t="n">
-        <v>38.98305084745759</v>
+        <v>56.25000000000014</v>
       </c>
       <c r="L434" t="n">
         <v>6.619999999999993</v>
@@ -22413,7 +22435,7 @@
         <v>10.65000000000001</v>
       </c>
       <c r="K435" t="n">
-        <v>35.7142857142856</v>
+        <v>66.66666666666656</v>
       </c>
       <c r="L435" t="n">
         <v>6.637999999999994</v>
@@ -22464,7 +22486,7 @@
         <v>10.75000000000001</v>
       </c>
       <c r="K436" t="n">
-        <v>15.15151515151501</v>
+        <v>21.05263157894725</v>
       </c>
       <c r="L436" t="n">
         <v>6.647999999999993</v>
@@ -22515,7 +22537,7 @@
         <v>10.84000000000001</v>
       </c>
       <c r="K437" t="n">
-        <v>25.33333333333326</v>
+        <v>28.57142857142848</v>
       </c>
       <c r="L437" t="n">
         <v>6.664999999999994</v>
@@ -22566,7 +22588,7 @@
         <v>10.84000000000001</v>
       </c>
       <c r="K438" t="n">
-        <v>25.33333333333326</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L438" t="n">
         <v>6.676999999999992</v>
@@ -22617,7 +22639,7 @@
         <v>10.84000000000001</v>
       </c>
       <c r="K439" t="n">
-        <v>25.33333333333326</v>
+        <v>-3.448275862068881</v>
       </c>
       <c r="L439" t="n">
         <v>6.681999999999992</v>
@@ -22668,7 +22690,7 @@
         <v>10.84000000000001</v>
       </c>
       <c r="K440" t="n">
-        <v>38.23529411764697</v>
+        <v>16.66666666666654</v>
       </c>
       <c r="L440" t="n">
         <v>6.680999999999992</v>
@@ -22719,7 +22741,7 @@
         <v>10.85000000000001</v>
       </c>
       <c r="K441" t="n">
-        <v>27.58620689655157</v>
+        <v>0</v>
       </c>
       <c r="L441" t="n">
         <v>6.685999999999991</v>
@@ -22770,7 +22792,7 @@
         <v>10.86000000000001</v>
       </c>
       <c r="K442" t="n">
-        <v>29.82456140350871</v>
+        <v>-4.761904761904641</v>
       </c>
       <c r="L442" t="n">
         <v>6.684999999999991</v>
@@ -22821,7 +22843,7 @@
         <v>10.88000000000001</v>
       </c>
       <c r="K443" t="n">
-        <v>27.58620689655157</v>
+        <v>-13.04347826086965</v>
       </c>
       <c r="L443" t="n">
         <v>6.681999999999991</v>
@@ -22872,7 +22894,7 @@
         <v>10.98000000000001</v>
       </c>
       <c r="K444" t="n">
-        <v>6.060606060606048</v>
+        <v>-39.39393939393936</v>
       </c>
       <c r="L444" t="n">
         <v>6.66899999999999</v>
@@ -22923,7 +22945,7 @@
         <v>10.98000000000001</v>
       </c>
       <c r="K445" t="n">
-        <v>7.692307692307796</v>
+        <v>-13.04347826086937</v>
       </c>
       <c r="L445" t="n">
         <v>6.65599999999999</v>
@@ -22974,7 +22996,7 @@
         <v>11.07000000000001</v>
       </c>
       <c r="K446" t="n">
-        <v>22.22222222222222</v>
+        <v>-13.04347826086975</v>
       </c>
       <c r="L446" t="n">
         <v>6.66199999999999</v>
@@ -23025,7 +23047,7 @@
         <v>11.08000000000001</v>
       </c>
       <c r="K447" t="n">
-        <v>18.30985915492967</v>
+        <v>-16.66666666666679</v>
       </c>
       <c r="L447" t="n">
         <v>6.657999999999991</v>
@@ -23076,7 +23098,7 @@
         <v>11.18000000000001</v>
       </c>
       <c r="K448" t="n">
-        <v>-2.631578947368476</v>
+        <v>-41.17647058823548</v>
       </c>
       <c r="L448" t="n">
         <v>6.643999999999991</v>
@@ -23127,7 +23149,7 @@
         <v>11.28000000000002</v>
       </c>
       <c r="K449" t="n">
-        <v>1.265822784810208</v>
+        <v>-9.090909090909074</v>
       </c>
       <c r="L449" t="n">
         <v>6.639999999999992</v>
@@ -23178,7 +23200,7 @@
         <v>11.29000000000002</v>
       </c>
       <c r="K450" t="n">
-        <v>-8.108108108108134</v>
+        <v>-13.63636363636365</v>
       </c>
       <c r="L450" t="n">
         <v>6.634999999999993</v>
@@ -23229,7 +23251,7 @@
         <v>11.29000000000002</v>
       </c>
       <c r="K451" t="n">
-        <v>-1.449275362318928</v>
+        <v>-11.62790697674426</v>
       </c>
       <c r="L451" t="n">
         <v>6.628999999999992</v>
@@ -23280,7 +23302,7 @@
         <v>11.30000000000002</v>
       </c>
       <c r="K452" t="n">
-        <v>-7.692307692307598</v>
+        <v>-4.761904761904601</v>
       </c>
       <c r="L452" t="n">
         <v>6.624999999999993</v>
@@ -23331,7 +23353,7 @@
         <v>11.38000000000002</v>
       </c>
       <c r="K453" t="n">
-        <v>-17.80821917808204</v>
+        <v>0</v>
       </c>
       <c r="L453" t="n">
         <v>6.614999999999993</v>
@@ -23382,7 +23404,7 @@
         <v>11.46000000000002</v>
       </c>
       <c r="K454" t="n">
-        <v>-6.172839506172774</v>
+        <v>16.66666666666648</v>
       </c>
       <c r="L454" t="n">
         <v>6.622999999999993</v>
@@ -23433,7 +23455,7 @@
         <v>11.46000000000002</v>
       </c>
       <c r="K455" t="n">
-        <v>-6.172839506172774</v>
+        <v>-2.564102564102471</v>
       </c>
       <c r="L455" t="n">
         <v>6.630999999999995</v>
@@ -23484,7 +23506,7 @@
         <v>11.54000000000002</v>
       </c>
       <c r="K456" t="n">
-        <v>-3.797468354430277</v>
+        <v>-17.39130434782587</v>
       </c>
       <c r="L456" t="n">
         <v>6.621999999999995</v>
@@ -23535,7 +23557,7 @@
         <v>11.62000000000002</v>
       </c>
       <c r="K457" t="n">
-        <v>-5.128205128205102</v>
+        <v>22.7272727272726</v>
       </c>
       <c r="L457" t="n">
         <v>6.621999999999995</v>
@@ -23586,7 +23608,7 @@
         <v>11.63000000000002</v>
       </c>
       <c r="K458" t="n">
-        <v>-3.79746835443039</v>
+        <v>2.85714285714277</v>
       </c>
       <c r="L458" t="n">
         <v>6.632999999999994</v>
@@ -23637,7 +23659,7 @@
         <v>11.63000000000002</v>
       </c>
       <c r="K459" t="n">
-        <v>-3.79746835443039</v>
+        <v>5.882352941176578</v>
       </c>
       <c r="L459" t="n">
         <v>6.633999999999993</v>
@@ -23688,7 +23710,7 @@
         <v>11.63000000000002</v>
       </c>
       <c r="K460" t="n">
-        <v>-3.79746835443039</v>
+        <v>5.882352941176578</v>
       </c>
       <c r="L460" t="n">
         <v>6.635999999999993</v>
@@ -23739,7 +23761,7 @@
         <v>11.63000000000002</v>
       </c>
       <c r="K461" t="n">
-        <v>-5.128205128205102</v>
+        <v>3.030303030302965</v>
       </c>
       <c r="L461" t="n">
         <v>6.637999999999993</v>
@@ -23790,7 +23812,7 @@
         <v>11.78000000000002</v>
       </c>
       <c r="K462" t="n">
-        <v>-19.5652173913043</v>
+        <v>-15.00000000000011</v>
       </c>
       <c r="L462" t="n">
         <v>6.623999999999993</v>
@@ -23841,7 +23863,7 @@
         <v>11.90000000000002</v>
       </c>
       <c r="K463" t="n">
-        <v>-3.921568627450958</v>
+        <v>-4.545454545454637</v>
       </c>
       <c r="L463" t="n">
         <v>6.629999999999993</v>
@@ -23892,7 +23914,7 @@
         <v>12.02000000000002</v>
       </c>
       <c r="K464" t="n">
-        <v>-5.769230769230773</v>
+        <v>-25</v>
       </c>
       <c r="L464" t="n">
         <v>6.615999999999993</v>
@@ -23943,7 +23965,7 @@
         <v>12.07000000000002</v>
       </c>
       <c r="K465" t="n">
-        <v>-0.917431192660605</v>
+        <v>-1.886792452830305</v>
       </c>
       <c r="L465" t="n">
         <v>6.606999999999992</v>
@@ -23994,7 +24016,7 @@
         <v>12.07000000000002</v>
       </c>
       <c r="K466" t="n">
-        <v>-9.999999999999964</v>
+        <v>-20.00000000000004</v>
       </c>
       <c r="L466" t="n">
         <v>6.605999999999992</v>
@@ -24045,7 +24067,7 @@
         <v>12.15000000000002</v>
       </c>
       <c r="K467" t="n">
-        <v>-15.8878504672896</v>
+        <v>-34.61538461538447</v>
       </c>
       <c r="L467" t="n">
         <v>6.588999999999992</v>
@@ -24096,7 +24118,7 @@
         <v>12.29000000000002</v>
       </c>
       <c r="K468" t="n">
-        <v>-18.9189189189188</v>
+        <v>-48.48484848484838</v>
       </c>
       <c r="L468" t="n">
         <v>6.556999999999992</v>
@@ -24147,7 +24169,7 @@
         <v>12.38000000000002</v>
       </c>
       <c r="K469" t="n">
-        <v>-19.99999999999997</v>
+        <v>-30.66666666666665</v>
       </c>
       <c r="L469" t="n">
         <v>6.533999999999992</v>
@@ -24198,7 +24220,7 @@
         <v>12.46000000000002</v>
       </c>
       <c r="K470" t="n">
-        <v>-11.11111111111107</v>
+        <v>-18.07228915662651</v>
       </c>
       <c r="L470" t="n">
         <v>6.518999999999993</v>
@@ -24249,7 +24271,7 @@
         <v>12.47000000000002</v>
       </c>
       <c r="K471" t="n">
-        <v>-11.86440677966096</v>
+        <v>-1.449275362318807</v>
       </c>
       <c r="L471" t="n">
         <v>6.502999999999993</v>
@@ -24300,7 +24322,7 @@
         <v>12.50000000000002</v>
       </c>
       <c r="K472" t="n">
-        <v>-15.00000000000002</v>
+        <v>-26.66666666666663</v>
       </c>
       <c r="L472" t="n">
         <v>6.498999999999993</v>
@@ -24351,7 +24373,7 @@
         <v>12.51000000000002</v>
       </c>
       <c r="K473" t="n">
-        <v>-7.964601769911461</v>
+        <v>-6.122448979591681</v>
       </c>
       <c r="L473" t="n">
         <v>6.483999999999993</v>
@@ -24402,7 +24424,7 @@
         <v>12.52000000000002</v>
       </c>
       <c r="K474" t="n">
-        <v>-16.98113207547166</v>
+        <v>-19.99999999999984</v>
       </c>
       <c r="L474" t="n">
         <v>6.479999999999992</v>
@@ -24453,7 +24475,7 @@
         <v>12.52000000000002</v>
       </c>
       <c r="K475" t="n">
-        <v>-16.98113207547166</v>
+        <v>-19.99999999999984</v>
       </c>
       <c r="L475" t="n">
         <v>6.470999999999992</v>
@@ -24504,7 +24526,7 @@
         <v>12.63000000000002</v>
       </c>
       <c r="K476" t="n">
-        <v>-19.26605504587146</v>
+        <v>-24.99999999999982</v>
       </c>
       <c r="L476" t="n">
         <v>6.450999999999992</v>
@@ -24555,7 +24577,7 @@
         <v>12.77000000000002</v>
       </c>
       <c r="K477" t="n">
-        <v>-13.04347826086953</v>
+        <v>33.33333333333309</v>
       </c>
       <c r="L477" t="n">
         <v>6.452999999999991</v>
@@ -24606,7 +24628,7 @@
         <v>12.92000000000002</v>
       </c>
       <c r="K478" t="n">
-        <v>-24.03100775193791</v>
+        <v>-14.81481481481471</v>
       </c>
       <c r="L478" t="n">
         <v>6.453999999999991</v>
@@ -24657,7 +24679,7 @@
         <v>13.04000000000002</v>
       </c>
       <c r="K479" t="n">
-        <v>-13.47517730496451</v>
+        <v>-6.896551724137893</v>
       </c>
       <c r="L479" t="n">
         <v>6.45799999999999</v>
@@ -24708,7 +24730,7 @@
         <v>13.11000000000002</v>
       </c>
       <c r="K480" t="n">
-        <v>-8.108108108108084</v>
+        <v>6.249999999999965</v>
       </c>
       <c r="L480" t="n">
         <v>6.46099999999999</v>
@@ -24759,7 +24781,7 @@
         <v>13.15000000000002</v>
       </c>
       <c r="K481" t="n">
-        <v>-10.52631578947366</v>
+        <v>4.615384615384639</v>
       </c>
       <c r="L481" t="n">
         <v>6.46099999999999</v>
@@ -24810,7 +24832,7 @@
         <v>13.15000000000002</v>
       </c>
       <c r="K482" t="n">
-        <v>-0.7299270072992521</v>
+        <v>3.124999999999931</v>
       </c>
       <c r="L482" t="n">
         <v>6.46399999999999</v>
@@ -24861,7 +24883,7 @@
         <v>13.19000000000002</v>
       </c>
       <c r="K483" t="n">
-        <v>-6.976744186046487</v>
+        <v>10.44776119402992</v>
       </c>
       <c r="L483" t="n">
         <v>6.46999999999999</v>
@@ -24912,7 +24934,7 @@
         <v>13.19000000000002</v>
       </c>
       <c r="K484" t="n">
-        <v>2.564102564102582</v>
+        <v>10.44776119402992</v>
       </c>
       <c r="L484" t="n">
         <v>6.476999999999991</v>
@@ -24963,7 +24985,7 @@
         <v>13.20000000000002</v>
       </c>
       <c r="K485" t="n">
-        <v>-2.65486725663711</v>
+        <v>29.82456140350884</v>
       </c>
       <c r="L485" t="n">
         <v>6.482999999999992</v>
@@ -25014,7 +25036,7 @@
         <v>13.20000000000002</v>
       </c>
       <c r="K486" t="n">
-        <v>-2.65486725663711</v>
+        <v>6.976744186046603</v>
       </c>
       <c r="L486" t="n">
         <v>6.499999999999991</v>
@@ -25065,7 +25087,7 @@
         <v>13.20000000000002</v>
       </c>
       <c r="K487" t="n">
-        <v>4.761904761904734</v>
+        <v>64.28571428571506</v>
       </c>
       <c r="L487" t="n">
         <v>6.502999999999991</v>
@@ -25116,7 +25138,7 @@
         <v>13.27000000000002</v>
       </c>
       <c r="K488" t="n">
-        <v>12.24489795918366</v>
+        <v>-4.347826086956454</v>
       </c>
       <c r="L488" t="n">
         <v>6.513999999999991</v>
@@ -25167,7 +25189,7 @@
         <v>13.28000000000002</v>
       </c>
       <c r="K489" t="n">
-        <v>2.222222222222268</v>
+        <v>-52.94117647058872</v>
       </c>
       <c r="L489" t="n">
         <v>6.511999999999992</v>
@@ -25218,7 +25240,7 @@
         <v>13.36000000000002</v>
       </c>
       <c r="K490" t="n">
-        <v>2.222222222222268</v>
+        <v>14.28571428571447</v>
       </c>
       <c r="L490" t="n">
         <v>6.510999999999991</v>
@@ -25269,7 +25291,7 @@
         <v>13.36000000000002</v>
       </c>
       <c r="K491" t="n">
-        <v>3.370786516853952</v>
+        <v>14.28571428571447</v>
       </c>
       <c r="L491" t="n">
         <v>6.513999999999991</v>
@@ -25320,7 +25342,7 @@
         <v>13.37000000000002</v>
       </c>
       <c r="K492" t="n">
-        <v>5.747126436781582</v>
+        <v>-11.11111111111139</v>
       </c>
       <c r="L492" t="n">
         <v>6.515999999999991</v>
@@ -25371,7 +25393,7 @@
         <v>13.44000000000002</v>
       </c>
       <c r="K493" t="n">
-        <v>-3.225806451612931</v>
+        <v>-35.99999999999994</v>
       </c>
       <c r="L493" t="n">
         <v>6.506999999999991</v>
@@ -25422,7 +25444,7 @@
         <v>13.51000000000002</v>
       </c>
       <c r="K494" t="n">
-        <v>5.05050505050504</v>
+        <v>-3.225806451613115</v>
       </c>
       <c r="L494" t="n">
         <v>6.50499999999999</v>
@@ -25473,7 +25495,7 @@
         <v>13.52000000000002</v>
       </c>
       <c r="K495" t="n">
-        <v>6.00000000000005</v>
+        <v>0</v>
       </c>
       <c r="L495" t="n">
         <v>6.50499999999999</v>
@@ -25524,7 +25546,7 @@
         <v>13.53000000000002</v>
       </c>
       <c r="K496" t="n">
-        <v>19.99999999999996</v>
+        <v>3.030303030302949</v>
       </c>
       <c r="L496" t="n">
         <v>6.50599999999999</v>
@@ -25575,7 +25597,7 @@
         <v>13.54000000000002</v>
       </c>
       <c r="K497" t="n">
-        <v>3.896103896103931</v>
+        <v>25.9259259259259</v>
       </c>
       <c r="L497" t="n">
         <v>6.50599999999999</v>
@@ -25626,7 +25648,7 @@
         <v>13.62000000000002</v>
       </c>
       <c r="K498" t="n">
-        <v>14.28571428571438</v>
+        <v>0</v>
       </c>
       <c r="L498" t="n">
         <v>6.504999999999991</v>
@@ -25677,7 +25699,7 @@
         <v>13.70000000000002</v>
       </c>
       <c r="K499" t="n">
-        <v>9.090909090909165</v>
+        <v>0</v>
       </c>
       <c r="L499" t="n">
         <v>6.512999999999991</v>
@@ -25728,7 +25750,7 @@
         <v>13.70000000000002</v>
       </c>
       <c r="K500" t="n">
-        <v>-1.694915254237252</v>
+        <v>0</v>
       </c>
       <c r="L500" t="n">
         <v>6.512999999999991</v>
@@ -25779,7 +25801,7 @@
         <v>13.70000000000002</v>
       </c>
       <c r="K501" t="n">
-        <v>5.454545454545492</v>
+        <v>3.030303030303218</v>
       </c>
       <c r="L501" t="n">
         <v>6.512999999999991</v>
@@ -25830,7 +25852,7 @@
         <v>13.72000000000002</v>
       </c>
       <c r="K502" t="n">
-        <v>1.754385964912242</v>
+        <v>21.4285714285712</v>
       </c>
       <c r="L502" t="n">
         <v>6.511999999999992</v>
@@ -25881,7 +25903,7 @@
         <v>13.73000000000002</v>
       </c>
       <c r="K503" t="n">
-        <v>-7.407407407407401</v>
+        <v>-9.09090909090887</v>
       </c>
       <c r="L503" t="n">
         <v>6.516999999999991</v>
@@ -25932,7 +25954,7 @@
         <v>13.73000000000002</v>
       </c>
       <c r="K504" t="n">
-        <v>-7.407407407407401</v>
+        <v>-14.28571428571447</v>
       </c>
       <c r="L504" t="n">
         <v>6.514999999999992</v>
@@ -25983,7 +26005,7 @@
         <v>13.76000000000002</v>
       </c>
       <c r="K505" t="n">
-        <v>0</v>
+        <v>-4.347826086956454</v>
       </c>
       <c r="L505" t="n">
         <v>6.514999999999992</v>
@@ -26034,7 +26056,7 @@
         <v>13.77000000000002</v>
       </c>
       <c r="K506" t="n">
-        <v>-1.754385964912393</v>
+        <v>-4.347826086956808</v>
       </c>
       <c r="L506" t="n">
         <v>6.512999999999991</v>
@@ -26085,7 +26107,7 @@
         <v>13.80000000000002</v>
       </c>
       <c r="K507" t="n">
-        <v>-6.666666666666657</v>
+        <v>22.22222222222228</v>
       </c>
       <c r="L507" t="n">
         <v>6.508999999999991</v>
@@ -26136,7 +26158,7 @@
         <v>13.82000000000002</v>
       </c>
       <c r="K508" t="n">
-        <v>9.090909090909047</v>
+        <v>-16.66666666666716</v>
       </c>
       <c r="L508" t="n">
         <v>6.514999999999991</v>
@@ -26187,7 +26209,7 @@
         <v>13.88000000000002</v>
       </c>
       <c r="K509" t="n">
-        <v>0</v>
+        <v>-44.44444444444456</v>
       </c>
       <c r="L509" t="n">
         <v>6.506999999999991</v>
@@ -26238,7 +26260,7 @@
         <v>13.97000000000002</v>
       </c>
       <c r="K510" t="n">
-        <v>-27.86885245901632</v>
+        <v>-62.96296296296303</v>
       </c>
       <c r="L510" t="n">
         <v>6.48999999999999</v>
@@ -26289,7 +26311,7 @@
         <v>13.97000000000002</v>
       </c>
       <c r="K511" t="n">
-        <v>-27.86885245901632</v>
+        <v>-59.99999999999979</v>
       </c>
       <c r="L511" t="n">
         <v>6.47299999999999</v>
@@ -26340,7 +26362,7 @@
         <v>14.09000000000002</v>
       </c>
       <c r="K512" t="n">
-        <v>-38.88888888888867</v>
+        <v>-72.22222222222192</v>
       </c>
       <c r="L512" t="n">
         <v>6.445999999999989</v>
@@ -26391,7 +26413,7 @@
         <v>14.15000000000002</v>
       </c>
       <c r="K513" t="n">
-        <v>-21.12676056338031</v>
+        <v>-47.61904761904767</v>
       </c>
       <c r="L513" t="n">
         <v>6.425999999999989</v>
@@ -26442,7 +26464,7 @@
         <v>14.31000000000002</v>
       </c>
       <c r="K514" t="n">
-        <v>-7.499999999999944</v>
+        <v>-12.72727272727276</v>
       </c>
       <c r="L514" t="n">
         <v>6.421999999999988</v>
@@ -26493,7 +26515,7 @@
         <v>14.53000000000002</v>
       </c>
       <c r="K515" t="n">
-        <v>-28.71287128712877</v>
+        <v>-36.84210526315791</v>
       </c>
       <c r="L515" t="n">
         <v>6.392999999999988</v>
@@ -26544,7 +26566,7 @@
         <v>14.59000000000002</v>
       </c>
       <c r="K516" t="n">
-        <v>-22.64150943396235</v>
+        <v>-24.05063291139253</v>
       </c>
       <c r="L516" t="n">
         <v>6.370999999999988</v>
@@ -26595,7 +26617,7 @@
         <v>14.59000000000002</v>
       </c>
       <c r="K517" t="n">
-        <v>-21.904761904762</v>
+        <v>-27.27272727272735</v>
       </c>
       <c r="L517" t="n">
         <v>6.351999999999988</v>
@@ -26646,7 +26668,7 @@
         <v>14.59000000000002</v>
       </c>
       <c r="K518" t="n">
-        <v>-15.46391752577328</v>
+        <v>-21.12676056338041</v>
       </c>
       <c r="L518" t="n">
         <v>6.330999999999988</v>
@@ -26697,7 +26719,7 @@
         <v>14.62000000000002</v>
       </c>
       <c r="K519" t="n">
-        <v>-21.73913043478267</v>
+        <v>-4.615384615384664</v>
       </c>
       <c r="L519" t="n">
         <v>6.318999999999988</v>
@@ -26748,7 +26770,7 @@
         <v>14.73000000000002</v>
       </c>
       <c r="K520" t="n">
-        <v>-8.73786407766991</v>
+        <v>10.52631578947372</v>
       </c>
       <c r="L520" t="n">
         <v>6.326999999999988</v>
@@ -26799,7 +26821,7 @@
         <v>14.74000000000002</v>
       </c>
       <c r="K521" t="n">
-        <v>-9.615384615384674</v>
+        <v>29.23076923076922</v>
       </c>
       <c r="L521" t="n">
         <v>6.333999999999987</v>
@@ -26850,7 +26872,7 @@
         <v>14.76000000000002</v>
       </c>
       <c r="K522" t="n">
-        <v>-5.769230769230736</v>
+        <v>24.59016393442631</v>
       </c>
       <c r="L522" t="n">
         <v>6.354999999999988</v>
@@ -26901,7 +26923,7 @@
         <v>14.78000000000002</v>
       </c>
       <c r="K523" t="n">
-        <v>-6.6666666666667</v>
+        <v>-6.382978723404324</v>
       </c>
       <c r="L523" t="n">
         <v>6.367999999999988</v>
@@ -26952,7 +26974,7 @@
         <v>14.93000000000002</v>
       </c>
       <c r="K524" t="n">
-        <v>-18.33333333333335</v>
+        <v>10.00000000000004</v>
       </c>
       <c r="L524" t="n">
         <v>6.349999999999988</v>
@@ -27003,7 +27025,7 @@
         <v>15.07000000000002</v>
       </c>
       <c r="K525" t="n">
-        <v>-8.396946564885528</v>
+        <v>25</v>
       </c>
       <c r="L525" t="n">
         <v>6.367999999999987</v>
@@ -27054,7 +27076,7 @@
         <v>15.09000000000002</v>
       </c>
       <c r="K526" t="n">
-        <v>-9.090909090909054</v>
+        <v>20.00000000000011</v>
       </c>
       <c r="L526" t="n">
         <v>6.377999999999988</v>
@@ -27105,7 +27127,7 @@
         <v>15.20000000000002</v>
       </c>
       <c r="K527" t="n">
-        <v>-14.28571428571433</v>
+        <v>-1.639344262295048</v>
       </c>
       <c r="L527" t="n">
         <v>6.376999999999988</v>
@@ -27156,7 +27178,7 @@
         <v>15.26000000000002</v>
       </c>
       <c r="K528" t="n">
-        <v>-11.11111111111115</v>
+        <v>3.124999999999948</v>
       </c>
       <c r="L528" t="n">
         <v>6.381999999999988</v>
@@ -27207,7 +27229,7 @@
         <v>15.29000000000002</v>
       </c>
       <c r="K529" t="n">
-        <v>-4.964539007092231</v>
+        <v>-10.71428571428583</v>
       </c>
       <c r="L529" t="n">
         <v>6.386999999999988</v>
@@ -27258,7 +27280,7 @@
         <v>15.37000000000002</v>
       </c>
       <c r="K530" t="n">
-        <v>-4.285714285714331</v>
+        <v>-20.63492063492071</v>
       </c>
       <c r="L530" t="n">
         <v>6.372999999999988</v>
@@ -27309,7 +27331,7 @@
         <v>15.44000000000002</v>
       </c>
       <c r="K531" t="n">
-        <v>0.6802721088435243</v>
+        <v>-11.76470588235299</v>
       </c>
       <c r="L531" t="n">
         <v>6.366999999999988</v>
@@ -27360,7 +27382,7 @@
         <v>15.48000000000002</v>
       </c>
       <c r="K532" t="n">
-        <v>12.23021582733815</v>
+        <v>-2.857142857142799</v>
       </c>
       <c r="L532" t="n">
         <v>6.362999999999988</v>
@@ -27411,7 +27433,7 @@
         <v>15.48000000000002</v>
       </c>
       <c r="K533" t="n">
-        <v>8.270676691729358</v>
+        <v>23.63636363636359</v>
       </c>
       <c r="L533" t="n">
         <v>6.360999999999988</v>
@@ -27462,7 +27484,7 @@
         <v>15.49000000000002</v>
       </c>
       <c r="K534" t="n">
-        <v>-5.08474576271184</v>
+        <v>-4.761904761904661</v>
       </c>
       <c r="L534" t="n">
         <v>6.372999999999988</v>
@@ -27513,7 +27535,7 @@
         <v>15.50000000000002</v>
       </c>
       <c r="K535" t="n">
-        <v>15.46391752577316</v>
+        <v>-2.439024390244066</v>
       </c>
       <c r="L535" t="n">
         <v>6.369999999999988</v>
@@ -27564,7 +27586,7 @@
         <v>15.51000000000002</v>
       </c>
       <c r="K536" t="n">
-        <v>8.695652173913052</v>
+        <v>29.03225806451604</v>
       </c>
       <c r="L536" t="n">
         <v>6.367999999999987</v>
@@ -27615,7 +27637,7 @@
         <v>15.61000000000002</v>
       </c>
       <c r="K537" t="n">
-        <v>-1.960784313725449</v>
+        <v>-19.99999999999974</v>
       </c>
       <c r="L537" t="n">
         <v>6.366999999999987</v>
@@ -27666,7 +27688,7 @@
         <v>15.62000000000002</v>
       </c>
       <c r="K538" t="n">
-        <v>-0.9708737864077469</v>
+        <v>-27.27272727272723</v>
       </c>
       <c r="L538" t="n">
         <v>6.360999999999986</v>
@@ -27717,7 +27739,7 @@
         <v>15.67000000000002</v>
       </c>
       <c r="K539" t="n">
-        <v>0.9523809523809346</v>
+        <v>13.33333333333339</v>
       </c>
       <c r="L539" t="n">
         <v>6.356999999999986</v>
@@ -27768,7 +27790,7 @@
         <v>15.77000000000002</v>
       </c>
       <c r="K540" t="n">
-        <v>-19.2307692307693</v>
+        <v>-39.39393939393956</v>
       </c>
       <c r="L540" t="n">
         <v>6.350999999999987</v>
@@ -27819,7 +27841,7 @@
         <v>15.78000000000002</v>
       </c>
       <c r="K541" t="n">
-        <v>-17.30769230769235</v>
+        <v>-53.33333333333389</v>
       </c>
       <c r="L541" t="n">
         <v>6.338999999999986</v>
@@ -27870,7 +27892,7 @@
         <v>15.79000000000002</v>
       </c>
       <c r="K542" t="n">
-        <v>-20.38834951456319</v>
+        <v>-54.83870967741987</v>
       </c>
       <c r="L542" t="n">
         <v>6.321999999999987</v>
@@ -27921,7 +27943,7 @@
         <v>15.86000000000002</v>
       </c>
       <c r="K543" t="n">
-        <v>-11.11111111111118</v>
+        <v>-24.32432432432481</v>
       </c>
       <c r="L543" t="n">
         <v>6.311999999999988</v>
@@ -27972,7 +27994,7 @@
         <v>15.89000000000002</v>
       </c>
       <c r="K544" t="n">
-        <v>0</v>
+        <v>-28.2051282051284</v>
       </c>
       <c r="L544" t="n">
         <v>6.299999999999988</v>
@@ -28023,7 +28045,7 @@
         <v>15.95000000000002</v>
       </c>
       <c r="K545" t="n">
-        <v>-22.72727272727287</v>
+        <v>-36.36363636363673</v>
       </c>
       <c r="L545" t="n">
         <v>6.282999999999989</v>
@@ -28074,7 +28096,7 @@
         <v>15.98000000000002</v>
       </c>
       <c r="K546" t="n">
-        <v>-16.85393258426976</v>
+        <v>-8.108108108108231</v>
       </c>
       <c r="L546" t="n">
         <v>6.269999999999988</v>
@@ -28125,7 +28147,7 @@
         <v>15.98000000000002</v>
       </c>
       <c r="K547" t="n">
-        <v>-5.128205128205149</v>
+        <v>-11.11111111111119</v>
       </c>
       <c r="L547" t="n">
         <v>6.266999999999987</v>
@@ -28176,7 +28198,7 @@
         <v>16.02000000000002</v>
       </c>
       <c r="K548" t="n">
-        <v>-7.894736842105232</v>
+        <v>-14.28571428571432</v>
       </c>
       <c r="L548" t="n">
         <v>6.266999999999988</v>
@@ -28227,7 +28249,7 @@
         <v>16.06000000000002</v>
       </c>
       <c r="K549" t="n">
-        <v>-6.493506493506504</v>
+        <v>31.03448275862092</v>
       </c>
       <c r="L549" t="n">
         <v>6.265999999999988</v>
@@ -28278,7 +28300,7 @@
         <v>16.14000000000001</v>
       </c>
       <c r="K550" t="n">
-        <v>-6.493506493506519</v>
+        <v>0</v>
       </c>
       <c r="L550" t="n">
         <v>6.266999999999988</v>
@@ -28329,7 +28351,7 @@
         <v>16.18000000000001</v>
       </c>
       <c r="K551" t="n">
-        <v>-10.81081081081092</v>
+        <v>12.82051282051293</v>
       </c>
       <c r="L551" t="n">
         <v>6.270999999999988</v>
@@ -28380,7 +28402,7 @@
         <v>16.18000000000001</v>
       </c>
       <c r="K552" t="n">
-        <v>-17.14285714285735</v>
+        <v>-6.249999999999931</v>
       </c>
       <c r="L552" t="n">
         <v>6.275999999999988</v>
@@ -28431,7 +28453,7 @@
         <v>16.21000000000002</v>
       </c>
       <c r="K553" t="n">
-        <v>-12.32876712328776</v>
+        <v>12.50000000000007</v>
       </c>
       <c r="L553" t="n">
         <v>6.276999999999989</v>
@@ -28482,7 +28504,7 @@
         <v>16.22000000000001</v>
       </c>
       <c r="K554" t="n">
-        <v>-9.589041095890561</v>
+        <v>40.74074074074146</v>
       </c>
       <c r="L554" t="n">
         <v>6.281999999999988</v>
@@ -28533,7 +28555,7 @@
         <v>16.23000000000001</v>
       </c>
       <c r="K555" t="n">
-        <v>-6.849315068493222</v>
+        <v>36.00000000000097</v>
       </c>
       <c r="L555" t="n">
         <v>6.293999999999988</v>
@@ -28584,7 +28606,7 @@
         <v>16.23000000000001</v>
       </c>
       <c r="K556" t="n">
-        <v>-5.555555555555638</v>
+        <v>36.00000000000097</v>
       </c>
       <c r="L556" t="n">
         <v>6.302999999999988</v>
@@ -28635,7 +28657,7 @@
         <v>16.25000000000001</v>
       </c>
       <c r="K557" t="n">
-        <v>6.250000000000104</v>
+        <v>13.04347826087005</v>
       </c>
       <c r="L557" t="n">
         <v>6.309999999999988</v>
@@ -28686,7 +28708,7 @@
         <v>16.27000000000001</v>
       </c>
       <c r="K558" t="n">
-        <v>1.53846153846153</v>
+        <v>-14.28571428571483</v>
       </c>
       <c r="L558" t="n">
         <v>6.310999999999988</v>
@@ -28737,7 +28759,7 @@
         <v>16.36000000000001</v>
       </c>
       <c r="K559" t="n">
-        <v>-18.84057971014517</v>
+        <v>-18.18181818181858</v>
       </c>
       <c r="L559" t="n">
         <v>6.298999999999988</v>
@@ -28788,7 +28810,7 @@
         <v>16.43000000000001</v>
       </c>
       <c r="K560" t="n">
-        <v>6.060606060606146</v>
+        <v>-3.999999999999972</v>
       </c>
       <c r="L560" t="n">
         <v>6.301999999999988</v>
@@ -28839,7 +28861,7 @@
         <v>16.44000000000001</v>
       </c>
       <c r="K561" t="n">
-        <v>3.030303030302998</v>
+        <v>-7.692307692307929</v>
       </c>
       <c r="L561" t="n">
         <v>6.299999999999988</v>
@@ -28890,7 +28912,7 @@
         <v>16.44000000000001</v>
       </c>
       <c r="K562" t="n">
-        <v>4.615384615384565</v>
+        <v>-21.73913043478321</v>
       </c>
       <c r="L562" t="n">
         <v>6.297999999999988</v>
@@ -28941,7 +28963,7 @@
         <v>16.52000000000001</v>
       </c>
       <c r="K563" t="n">
-        <v>-18.18181818181825</v>
+        <v>-46.666666666667</v>
       </c>
       <c r="L563" t="n">
         <v>6.284999999999989</v>
@@ -28992,7 +29014,7 @@
         <v>16.60000000000001</v>
       </c>
       <c r="K564" t="n">
-        <v>-1.408450704225463</v>
+        <v>-18.91891891891913</v>
       </c>
       <c r="L564" t="n">
         <v>6.278999999999989</v>
@@ -29043,7 +29065,7 @@
         <v>16.60000000000001</v>
       </c>
       <c r="K565" t="n">
-        <v>7.692307692307766</v>
+        <v>-18.91891891891913</v>
       </c>
       <c r="L565" t="n">
         <v>6.271999999999989</v>
@@ -29094,7 +29116,7 @@
         <v>16.61000000000001</v>
       </c>
       <c r="K566" t="n">
-        <v>4.761904761904863</v>
+        <v>-11.11111111111114</v>
       </c>
       <c r="L566" t="n">
         <v>6.265999999999988</v>
@@ -29145,7 +29167,7 @@
         <v>16.61000000000001</v>
       </c>
       <c r="K567" t="n">
-        <v>4.761904761904863</v>
+        <v>-5.882352941176348</v>
       </c>
       <c r="L567" t="n">
         <v>6.261999999999988</v>
@@ -29196,7 +29218,7 @@
         <v>16.62000000000001</v>
       </c>
       <c r="K568" t="n">
-        <v>-3.333333333333442</v>
+        <v>23.07692307692279</v>
       </c>
       <c r="L568" t="n">
         <v>6.258999999999989</v>
@@ -29247,7 +29269,7 @@
         <v>16.68000000000001</v>
       </c>
       <c r="K569" t="n">
-        <v>-19.35483870967763</v>
+        <v>-28.00000000000011</v>
       </c>
       <c r="L569" t="n">
         <v>6.258999999999988</v>
@@ -29298,7 +29320,7 @@
         <v>16.68000000000001</v>
       </c>
       <c r="K570" t="n">
-        <v>-7.407407407407475</v>
+        <v>-25</v>
       </c>
       <c r="L570" t="n">
         <v>6.251999999999988</v>
@@ -29349,7 +29371,7 @@
         <v>16.71000000000001</v>
       </c>
       <c r="K571" t="n">
-        <v>-20.75471698113223</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L571" t="n">
         <v>6.242999999999988</v>
@@ -29400,7 +29422,7 @@
         <v>16.72000000000001</v>
       </c>
       <c r="K572" t="n">
-        <v>-18.51851851851848</v>
+        <v>0</v>
       </c>
       <c r="L572" t="n">
         <v>6.234999999999988</v>
@@ -29451,7 +29473,7 @@
         <v>16.74000000000001</v>
       </c>
       <c r="K573" t="n">
-        <v>-28.30188679245303</v>
+        <v>-71.42857142856907</v>
       </c>
       <c r="L573" t="n">
         <v>6.232999999999988</v>
@@ -29502,7 +29524,7 @@
         <v>16.75000000000001</v>
       </c>
       <c r="K574" t="n">
-        <v>-28.30188679245283</v>
+        <v>-59.99999999999763</v>
       </c>
       <c r="L574" t="n">
         <v>6.223999999999988</v>
@@ -29553,7 +29575,7 @@
         <v>16.81000000000002</v>
       </c>
       <c r="K575" t="n">
-        <v>-17.24137931034461</v>
+        <v>-19.99999999999938</v>
       </c>
       <c r="L575" t="n">
         <v>6.220999999999988</v>
@@ -29604,7 +29626,7 @@
         <v>16.86000000000002</v>
       </c>
       <c r="K576" t="n">
-        <v>-7.936507936507832</v>
+        <v>3.999999999999801</v>
       </c>
       <c r="L576" t="n">
         <v>6.221999999999989</v>
@@ -29655,7 +29677,7 @@
         <v>16.94000000000002</v>
       </c>
       <c r="K577" t="n">
-        <v>7.246376811594089</v>
+        <v>31.24999999999945</v>
       </c>
       <c r="L577" t="n">
         <v>6.230999999999989</v>
@@ -29706,7 +29728,7 @@
         <v>16.97000000000002</v>
       </c>
       <c r="K578" t="n">
-        <v>5.714285714285639</v>
+        <v>44.827586206895</v>
       </c>
       <c r="L578" t="n">
         <v>6.23799999999999</v>
@@ -29757,7 +29779,7 @@
         <v>17.04000000000002</v>
       </c>
       <c r="K579" t="n">
-        <v>8.823529411764513</v>
+        <v>16.66666666666609</v>
       </c>
       <c r="L579" t="n">
         <v>6.243999999999989</v>
@@ -29808,7 +29830,7 @@
         <v>17.11000000000002</v>
       </c>
       <c r="K580" t="n">
-        <v>8.823529411764513</v>
+        <v>39.99999999999911</v>
       </c>
       <c r="L580" t="n">
         <v>6.256999999999989</v>
@@ -29859,7 +29881,7 @@
         <v>17.14000000000002</v>
       </c>
       <c r="K581" t="n">
-        <v>14.28571428571416</v>
+        <v>42.85714285714189</v>
       </c>
       <c r="L581" t="n">
         <v>6.275999999999988</v>
@@ -29910,7 +29932,7 @@
         <v>17.24000000000002</v>
       </c>
       <c r="K582" t="n">
-        <v>0</v>
+        <v>19.9999999999995</v>
       </c>
       <c r="L582" t="n">
         <v>6.283999999999989</v>
@@ -29961,7 +29983,7 @@
         <v>17.27000000000002</v>
       </c>
       <c r="K583" t="n">
-        <v>14.66666666666631</v>
+        <v>23.07692307692264</v>
       </c>
       <c r="L583" t="n">
         <v>6.296999999999988</v>
@@ -30012,7 +30034,7 @@
         <v>17.36000000000002</v>
       </c>
       <c r="K584" t="n">
-        <v>-7.894736842105048</v>
+        <v>-5.454545454545422</v>
       </c>
       <c r="L584" t="n">
         <v>6.299999999999988</v>
@@ -30063,7 +30085,7 @@
         <v>17.36000000000002</v>
       </c>
       <c r="K585" t="n">
-        <v>-7.894736842105048</v>
+        <v>-15.99999999999979</v>
       </c>
       <c r="L585" t="n">
         <v>6.296999999999988</v>
@@ -30114,7 +30136,7 @@
         <v>17.44000000000003</v>
       </c>
       <c r="K586" t="n">
-        <v>1.204819277108385</v>
+        <v>-15.99999999999979</v>
       </c>
       <c r="L586" t="n">
         <v>6.296999999999988</v>
@@ -30165,7 +30187,7 @@
         <v>17.45000000000002</v>
       </c>
       <c r="K587" t="n">
-        <v>2.38095238095229</v>
+        <v>-8.333333333333272</v>
       </c>
       <c r="L587" t="n">
         <v>6.289999999999988</v>
@@ -30216,7 +30238,7 @@
         <v>17.45000000000002</v>
       </c>
       <c r="K588" t="n">
-        <v>3.614457831325277</v>
+        <v>7.317073170731703</v>
       </c>
       <c r="L588" t="n">
         <v>6.285999999999989</v>
@@ -30267,7 +30289,7 @@
         <v>17.45000000000002</v>
       </c>
       <c r="K589" t="n">
-        <v>11.68831168831146</v>
+        <v>-11.76470588235283</v>
       </c>
       <c r="L589" t="n">
         <v>6.288999999999989</v>
@@ -30318,7 +30340,7 @@
         <v>17.45000000000002</v>
       </c>
       <c r="K590" t="n">
-        <v>11.68831168831146</v>
+        <v>-22.58064516129025</v>
       </c>
       <c r="L590" t="n">
         <v>6.284999999999988</v>
@@ -30369,7 +30391,7 @@
         <v>17.45000000000002</v>
       </c>
       <c r="K591" t="n">
-        <v>16.21621621621595</v>
+        <v>14.28571428571435</v>
       </c>
       <c r="L591" t="n">
         <v>6.277999999999988</v>
@@ -30420,7 +30442,7 @@
         <v>17.54000000000002</v>
       </c>
       <c r="K592" t="n">
-        <v>2.439024390243818</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L592" t="n">
         <v>6.271999999999989</v>
@@ -30471,7 +30493,7 @@
         <v>17.61000000000002</v>
       </c>
       <c r="K593" t="n">
-        <v>12.64367816091941</v>
+        <v>28.00000000000011</v>
       </c>
       <c r="L593" t="n">
         <v>6.269999999999989</v>
@@ -30522,7 +30544,7 @@
         <v>17.68000000000002</v>
       </c>
       <c r="K594" t="n">
-        <v>3.225806451612894</v>
+        <v>0</v>
       </c>
       <c r="L594" t="n">
         <v>6.269999999999988</v>
@@ -30573,7 +30595,7 @@
         <v>17.72000000000002</v>
       </c>
       <c r="K595" t="n">
-        <v>1.098901098901067</v>
+        <v>-14.28571428571442</v>
       </c>
       <c r="L595" t="n">
         <v>6.273999999999988</v>
@@ -30624,7 +30646,7 @@
         <v>17.76000000000002</v>
       </c>
       <c r="K596" t="n">
-        <v>-8.888888888888841</v>
+        <v>-29.0322580645162</v>
       </c>
       <c r="L596" t="n">
         <v>6.265999999999988</v>
@@ -30675,7 +30697,7 @@
         <v>17.76000000000002</v>
       </c>
       <c r="K597" t="n">
-        <v>-19.51219512195114</v>
+        <v>-29.0322580645162</v>
       </c>
       <c r="L597" t="n">
         <v>6.256999999999988</v>
@@ -30726,7 +30748,7 @@
         <v>17.77000000000002</v>
       </c>
       <c r="K598" t="n">
-        <v>-14.99999999999993</v>
+        <v>-25</v>
       </c>
       <c r="L598" t="n">
         <v>6.248999999999988</v>
@@ -30777,7 +30799,7 @@
         <v>17.81000000000002</v>
       </c>
       <c r="K599" t="n">
-        <v>-11.68831168831162</v>
+        <v>-33.33333333333341</v>
       </c>
       <c r="L599" t="n">
         <v>6.236999999999988</v>
@@ -30828,7 +30850,7 @@
         <v>17.81000000000002</v>
       </c>
       <c r="K600" t="n">
-        <v>-22.85714285714278</v>
+        <v>-33.33333333333341</v>
       </c>
       <c r="L600" t="n">
         <v>6.224999999999987</v>
@@ -30879,7 +30901,7 @@
         <v>17.86000000000002</v>
       </c>
       <c r="K601" t="n">
-        <v>-19.44444444444433</v>
+        <v>6.250000000000139</v>
       </c>
       <c r="L601" t="n">
         <v>6.217999999999988</v>
@@ -30930,7 +30952,7 @@
         <v>17.86000000000002</v>
       </c>
       <c r="K602" t="n">
-        <v>-6.45161290322566</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L602" t="n">
         <v>6.219999999999988</v>
@@ -30981,7 +31003,7 @@
         <v>17.86000000000002</v>
       </c>
       <c r="K603" t="n">
-        <v>-11.86440677966092</v>
+        <v>11.11111111111139</v>
       </c>
       <c r="L603" t="n">
         <v>6.214999999999987</v>
@@ -31032,7 +31054,7 @@
         <v>17.91000000000003</v>
       </c>
       <c r="K604" t="n">
-        <v>-5.454545454545492</v>
+        <v>-36.8421052631578</v>
       </c>
       <c r="L604" t="n">
         <v>6.211999999999987</v>
@@ -31083,7 +31105,7 @@
         <v>17.97000000000002</v>
       </c>
       <c r="K605" t="n">
-        <v>-14.75409836065573</v>
+        <v>-42.85714285714262</v>
       </c>
       <c r="L605" t="n">
         <v>6.198999999999987</v>
@@ -31134,7 +31156,7 @@
         <v>17.97000000000002</v>
       </c>
       <c r="K606" t="n">
-        <v>-32.07547169811334</v>
+        <v>-42.85714285714262</v>
       </c>
       <c r="L606" t="n">
         <v>6.189999999999987</v>
@@ -31185,7 +31207,7 @@
         <v>17.97000000000002</v>
       </c>
       <c r="K607" t="n">
-        <v>-34.61538461538458</v>
+        <v>-50</v>
       </c>
       <c r="L607" t="n">
         <v>6.180999999999987</v>
@@ -31236,7 +31258,7 @@
         <v>17.97000000000002</v>
       </c>
       <c r="K608" t="n">
-        <v>-34.61538461538458</v>
+        <v>-37.49999999999972</v>
       </c>
       <c r="L608" t="n">
         <v>6.170999999999987</v>
@@ -31287,7 +31309,7 @@
         <v>17.98000000000003</v>
       </c>
       <c r="K609" t="n">
-        <v>-35.84905660377341</v>
+        <v>-41.17647058823452</v>
       </c>
       <c r="L609" t="n">
         <v>6.163999999999986</v>
@@ -31338,7 +31360,7 @@
         <v>18.04000000000003</v>
       </c>
       <c r="K610" t="n">
-        <v>-42.37288135593196</v>
+        <v>-99.99999999999852</v>
       </c>
       <c r="L610" t="n">
         <v>6.150999999999987</v>
@@ -31389,7 +31411,7 @@
         <v>18.08000000000003</v>
       </c>
       <c r="K611" t="n">
-        <v>-33.33333333333319</v>
+        <v>-63.63636363636319</v>
       </c>
       <c r="L611" t="n">
         <v>6.136999999999986</v>
@@ -31440,7 +31462,7 @@
         <v>18.11000000000003</v>
       </c>
       <c r="K612" t="n">
-        <v>-26.3157894736841</v>
+        <v>-67.99999999999936</v>
       </c>
       <c r="L612" t="n">
         <v>6.119999999999986</v>
@@ -31491,7 +31513,7 @@
         <v>18.24000000000003</v>
       </c>
       <c r="K613" t="n">
-        <v>-14.28571428571412</v>
+        <v>3.030303030303185</v>
       </c>
       <c r="L613" t="n">
         <v>6.115999999999985</v>
@@ -31542,7 +31564,7 @@
         <v>18.24000000000003</v>
       </c>
       <c r="K614" t="n">
-        <v>-3.571428571428458</v>
+        <v>25.92592592592539</v>
       </c>
       <c r="L614" t="n">
         <v>6.116999999999985</v>
@@ -31593,7 +31615,7 @@
         <v>18.31000000000003</v>
       </c>
       <c r="K615" t="n">
-        <v>-22.03389830508447</v>
+        <v>0</v>
       </c>
       <c r="L615" t="n">
         <v>6.116999999999985</v>
@@ -31644,7 +31666,7 @@
         <v>18.32000000000003</v>
       </c>
       <c r="K616" t="n">
-        <v>-17.85714285714261</v>
+        <v>-2.857142857142756</v>
       </c>
       <c r="L616" t="n">
         <v>6.115999999999986</v>
@@ -31695,7 +31717,7 @@
         <v>18.33000000000003</v>
       </c>
       <c r="K617" t="n">
-        <v>-15.78947368421039</v>
+        <v>0</v>
       </c>
       <c r="L617" t="n">
         <v>6.115999999999986</v>
@@ -31746,7 +31768,7 @@
         <v>18.37000000000003</v>
       </c>
       <c r="K618" t="n">
-        <v>-9.999999999999911</v>
+        <v>12.82051282051276</v>
       </c>
       <c r="L618" t="n">
         <v>6.119999999999987</v>
@@ -31797,7 +31819,7 @@
         <v>18.38000000000002</v>
       </c>
       <c r="K619" t="n">
-        <v>-1.754385964912242</v>
+        <v>35.29411764705924</v>
       </c>
       <c r="L619" t="n">
         <v>6.125999999999986</v>
@@ -31848,7 +31870,7 @@
         <v>18.40000000000002</v>
       </c>
       <c r="K620" t="n">
-        <v>1.694915254237403</v>
+        <v>31.25000000000049</v>
       </c>
       <c r="L620" t="n">
         <v>6.139999999999986</v>
@@ -31899,7 +31921,7 @@
         <v>18.41000000000003</v>
       </c>
       <c r="K621" t="n">
-        <v>-9.090909090909207</v>
+        <v>40.00000000000041</v>
       </c>
       <c r="L621" t="n">
         <v>6.148999999999987</v>
@@ -31950,7 +31972,7 @@
         <v>18.43000000000002</v>
       </c>
       <c r="K622" t="n">
-        <v>-5.263157894736883</v>
+        <v>5.263157894736891</v>
       </c>
       <c r="L622" t="n">
         <v>6.162999999999987</v>
@@ -32001,7 +32023,7 @@
         <v>18.46000000000003</v>
       </c>
       <c r="K623" t="n">
-        <v>0</v>
+        <v>18.18181818181858</v>
       </c>
       <c r="L623" t="n">
         <v>6.166999999999987</v>
@@ -32052,7 +32074,7 @@
         <v>18.49000000000002</v>
       </c>
       <c r="K624" t="n">
-        <v>13.79310344827591</v>
+        <v>77.77777777778078</v>
       </c>
       <c r="L624" t="n">
         <v>6.173999999999988</v>

--- a/BackTest/2019-10-15 BackTest FAB.xlsx
+++ b/BackTest/2019-10-15 BackTest FAB.xlsx
@@ -941,17 +941,13 @@
         <v>6.111333333333334</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K16" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
@@ -980,22 +976,14 @@
         <v>6.1105</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K17" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1023,22 +1011,14 @@
         <v>6.110166666666667</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="K18" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1066,22 +1046,14 @@
         <v>6.1095</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="K19" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1109,22 +1081,14 @@
         <v>6.107333333333333</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="K20" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1152,22 +1116,14 @@
         <v>6.105</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="K21" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1203,12 +1159,10 @@
       <c r="J22" t="n">
         <v>5.92</v>
       </c>
-      <c r="K22" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M22" t="n">
@@ -1238,17 +1192,13 @@
         <v>6.100833333333333</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="K23" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1289,9 +1239,7 @@
       <c r="J24" t="n">
         <v>5.95</v>
       </c>
-      <c r="K24" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1330,11 +1278,9 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="K25" t="n">
-        <v>6.02</v>
-      </c>
+        <v>6.01</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1373,11 +1319,9 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K26" t="n">
         <v>6.02</v>
       </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1410,17 +1354,13 @@
         <v>6.098166666666666</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K27" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1453,17 +1393,13 @@
         <v>6.097666666666665</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K28" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1496,17 +1432,13 @@
         <v>6.097166666666665</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K29" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1539,17 +1471,13 @@
         <v>6.096666666666664</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K30" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1582,17 +1510,13 @@
         <v>6.096166666666663</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K31" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1625,17 +1549,13 @@
         <v>6.09533333333333</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K32" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1668,17 +1588,13 @@
         <v>6.094499999999996</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K33" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1711,17 +1627,13 @@
         <v>6.093499999999996</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K34" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1754,17 +1666,13 @@
         <v>6.091666666666663</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>6</v>
-      </c>
-      <c r="K35" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1797,17 +1705,13 @@
         <v>6.088999999999996</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="K36" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1840,17 +1744,13 @@
         <v>6.085833333333329</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="K37" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1883,17 +1783,13 @@
         <v>6.081499999999996</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="K38" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1926,17 +1822,13 @@
         <v>6.077166666666662</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="K39" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1969,17 +1861,13 @@
         <v>6.073999999999996</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K40" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2012,17 +1900,13 @@
         <v>6.069166666666662</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="K41" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2055,17 +1939,13 @@
         <v>6.064499999999996</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>6</v>
-      </c>
-      <c r="K42" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2098,17 +1978,13 @@
         <v>6.059666666666662</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="K43" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2141,17 +2017,13 @@
         <v>6.054666666666662</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="K44" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2184,17 +2056,13 @@
         <v>6.048666666666662</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="K45" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2227,17 +2095,13 @@
         <v>6.043999999999995</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K46" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2270,17 +2134,13 @@
         <v>6.038666666666662</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K47" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2313,17 +2173,13 @@
         <v>6.033666666666662</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>6</v>
-      </c>
-      <c r="K48" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2356,17 +2212,13 @@
         <v>6.027833333333328</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="K49" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2399,17 +2251,13 @@
         <v>6.022166666666661</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="K50" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2442,17 +2290,13 @@
         <v>6.019166666666661</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="K51" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2485,17 +2329,13 @@
         <v>6.016833333333327</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K52" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2528,17 +2368,13 @@
         <v>6.016333333333327</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="K53" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2571,17 +2407,13 @@
         <v>6.01716666666666</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="K54" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2614,17 +2446,13 @@
         <v>6.017333333333327</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="K55" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2663,9 +2491,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2704,9 +2530,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2745,9 +2569,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2786,9 +2608,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2827,9 +2647,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2868,9 +2686,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2909,9 +2725,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2950,9 +2764,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2991,9 +2803,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3032,9 +2842,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3073,9 +2881,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3114,9 +2920,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3155,9 +2959,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3196,9 +2998,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3237,9 +3037,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3278,9 +3076,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3319,9 +3115,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3360,9 +3154,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3401,9 +3193,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3442,9 +3232,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3483,9 +3271,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3524,9 +3310,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3565,9 +3349,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3606,9 +3388,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3647,9 +3427,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3688,9 +3466,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3729,9 +3505,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3770,9 +3544,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3811,9 +3583,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3852,9 +3622,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3893,9 +3661,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3934,9 +3700,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3975,9 +3739,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4016,9 +3778,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4057,9 +3817,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4098,9 +3856,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4139,9 +3895,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4180,9 +3934,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4221,9 +3973,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4262,9 +4012,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4303,9 +4051,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4344,9 +4090,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4385,9 +4129,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4426,9 +4168,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4467,9 +4207,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4508,9 +4246,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4549,9 +4285,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4590,9 +4324,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4631,9 +4363,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4672,9 +4402,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4713,9 +4441,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4754,9 +4480,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4795,9 +4519,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4836,9 +4558,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4877,9 +4597,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4918,9 +4636,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4959,9 +4675,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5000,9 +4714,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5041,9 +4753,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5082,9 +4792,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5123,9 +4831,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5164,9 +4870,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5205,9 +4909,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5246,9 +4948,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5287,9 +4987,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5328,9 +5026,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5369,9 +5065,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5410,9 +5104,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5451,9 +5143,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5492,9 +5182,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5533,9 +5221,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5574,9 +5260,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5615,9 +5299,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5656,9 +5338,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5697,9 +5377,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5738,9 +5416,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5779,9 +5455,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5820,9 +5494,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5861,9 +5533,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5902,9 +5572,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5943,9 +5611,7 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5984,9 +5650,7 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6025,9 +5689,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6066,9 +5728,7 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6107,9 +5767,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6148,9 +5806,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6189,9 +5845,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6230,9 +5884,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6271,9 +5923,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6312,9 +5962,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6353,9 +6001,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6394,9 +6040,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6435,9 +6079,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6476,9 +6118,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6517,9 +6157,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6558,9 +6196,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6599,9 +6235,7 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6640,9 +6274,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6681,9 +6313,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6722,9 +6352,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6763,9 +6391,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6804,9 +6430,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6845,9 +6469,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6886,9 +6508,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6927,9 +6547,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6968,9 +6586,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7009,9 +6625,7 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7050,9 +6664,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7091,9 +6703,7 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7132,9 +6742,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7173,9 +6781,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7214,9 +6820,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7255,9 +6859,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7296,9 +6898,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7337,9 +6937,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7378,9 +6976,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7419,9 +7015,7 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7460,9 +7054,7 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7501,9 +7093,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7542,9 +7132,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7583,9 +7171,7 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7624,9 +7210,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7665,9 +7249,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7706,9 +7288,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7747,9 +7327,7 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7788,9 +7366,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7829,9 +7405,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7870,9 +7444,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7911,9 +7483,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7952,9 +7522,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7993,9 +7561,7 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8034,9 +7600,7 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8075,9 +7639,7 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8116,9 +7678,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8157,9 +7717,7 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8198,9 +7756,7 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8239,9 +7795,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8280,9 +7834,7 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8321,9 +7873,7 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8362,9 +7912,7 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8403,9 +7951,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8444,9 +7990,7 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8485,9 +8029,7 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8526,9 +8068,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8567,9 +8107,7 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8608,9 +8146,7 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8649,9 +8185,7 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8690,9 +8224,7 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8731,9 +8263,7 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8772,9 +8302,7 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8813,9 +8341,7 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8854,9 +8380,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8895,9 +8419,7 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8936,9 +8458,7 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8977,9 +8497,7 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9018,9 +8536,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9059,9 +8575,7 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9100,9 +8614,7 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9141,9 +8653,7 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9182,9 +8692,7 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9223,9 +8731,7 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9264,9 +8770,7 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9305,9 +8809,7 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9346,9 +8848,7 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9387,9 +8887,7 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9428,9 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9469,9 +8965,7 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9510,9 +9004,7 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9551,9 +9043,7 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9592,9 +9082,7 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9633,9 +9121,7 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9674,9 +9160,7 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9715,9 +9199,7 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9756,9 +9238,7 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9797,9 +9277,7 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9838,9 +9316,7 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9879,9 +9355,7 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9920,9 +9394,7 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9961,9 +9433,7 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10002,9 +9472,7 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10043,9 +9511,7 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10084,9 +9550,7 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10125,9 +9589,7 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10166,9 +9628,7 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10207,9 +9667,7 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10248,9 +9706,7 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10289,9 +9745,7 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10330,9 +9784,7 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10371,9 +9823,7 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10412,9 +9862,7 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10453,9 +9901,7 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10494,9 +9940,7 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10535,9 +9979,7 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10576,9 +10018,7 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10611,17 +10051,13 @@
         <v>6.093666666666668</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="K250" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10654,17 +10090,13 @@
         <v>6.092166666666669</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="K251" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10703,9 +10135,7 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10738,17 +10168,13 @@
         <v>6.089833333333336</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="K253" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10787,9 +10213,7 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10822,17 +10246,13 @@
         <v>6.087333333333336</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="K255" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10871,9 +10291,7 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10906,17 +10324,13 @@
         <v>6.084333333333336</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="K257" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10955,9 +10369,7 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10996,9 +10408,7 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11037,9 +10447,7 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11078,9 +10486,7 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11119,9 +10525,7 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11160,9 +10564,7 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11201,9 +10603,7 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11242,9 +10642,7 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11283,9 +10681,7 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11324,9 +10720,7 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11365,9 +10759,7 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11406,9 +10798,7 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11447,9 +10837,7 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11488,9 +10876,7 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11529,9 +10915,7 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11570,9 +10954,7 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11611,9 +10993,7 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11652,9 +11032,7 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11693,9 +11071,7 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11734,9 +11110,7 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11775,9 +11149,7 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11816,9 +11188,7 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11857,9 +11227,7 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11898,9 +11266,7 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11939,9 +11305,7 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11980,9 +11344,7 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12021,9 +11383,7 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12062,9 +11422,7 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12103,9 +11461,7 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12144,9 +11500,7 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12185,9 +11539,7 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12226,9 +11578,7 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12267,9 +11617,7 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12308,9 +11656,7 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12349,9 +11695,7 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12390,9 +11734,7 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12428,19 +11770,17 @@
         <v>0</v>
       </c>
       <c r="I294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M294" t="n">
-        <v>1.119584717607974</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
@@ -12473,10 +11813,12 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -12784,7 +12126,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
@@ -17264,7 +16606,7 @@
         <v>0</v>
       </c>
       <c r="I432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr"/>
@@ -17299,7 +16641,7 @@
         <v>0</v>
       </c>
       <c r="I433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr"/>
@@ -17334,7 +16676,7 @@
         <v>0</v>
       </c>
       <c r="I434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr"/>
@@ -17369,7 +16711,7 @@
         <v>0</v>
       </c>
       <c r="I435" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr"/>
@@ -17404,7 +16746,7 @@
         <v>0</v>
       </c>
       <c r="I436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr"/>

--- a/BackTest/2019-10-15 BackTest FAB.xlsx
+++ b/BackTest/2019-10-15 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>4562248.426286978</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>4561048.426286978</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="J3" t="n">
+        <v>6.07</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>4561048.426286978</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,15 +562,17 @@
         <v>4561048.426286978</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+        <v>6.07</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -587,19 +601,11 @@
         <v>4561048.426286978</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="J6" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -628,19 +634,11 @@
         <v>4531796.267386978</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="J7" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -669,19 +667,15 @@
         <v>4531796.267386978</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>6.05</v>
       </c>
       <c r="J8" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>6.05</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -710,17 +704,17 @@
         <v>4532155.267386978</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>6.05</v>
       </c>
       <c r="J9" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -751,13 +745,13 @@
         <v>4532155.267386978</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>6.06</v>
       </c>
       <c r="J10" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -792,13 +786,13 @@
         <v>4532155.267386978</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>6.06</v>
       </c>
       <c r="J11" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -833,13 +827,13 @@
         <v>4532155.267386978</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>6.06</v>
       </c>
       <c r="J12" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -874,13 +868,13 @@
         <v>4531522.267386978</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>6.06</v>
       </c>
       <c r="J13" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -915,13 +909,13 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>6.05</v>
       </c>
       <c r="J14" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -956,11 +950,13 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>6.06</v>
+      </c>
       <c r="J15" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -995,11 +991,13 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>6.06</v>
+      </c>
       <c r="J16" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1034,11 +1032,13 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>6.06</v>
+      </c>
       <c r="J17" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1073,11 +1073,13 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>6.06</v>
+      </c>
       <c r="J18" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1112,11 +1114,13 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>6.06</v>
+      </c>
       <c r="J19" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1151,13 +1155,13 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>6.06</v>
       </c>
       <c r="J20" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1192,13 +1196,13 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>6.06</v>
       </c>
       <c r="J21" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1233,13 +1237,13 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>6.06</v>
       </c>
       <c r="J22" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1274,13 +1278,13 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>6.06</v>
       </c>
       <c r="J23" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1315,13 +1319,13 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>6.06</v>
       </c>
       <c r="J24" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1356,13 +1360,13 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>6.06</v>
       </c>
       <c r="J25" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1397,11 +1401,13 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>6.06</v>
+      </c>
       <c r="J26" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1436,11 +1442,13 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>6.06</v>
+      </c>
       <c r="J27" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1475,13 +1483,13 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>6.06</v>
       </c>
       <c r="J28" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1516,11 +1524,13 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>6.06</v>
+      </c>
       <c r="J29" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1555,11 +1565,13 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>6.06</v>
+      </c>
       <c r="J30" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1594,11 +1606,13 @@
         <v>4574680.030786977</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>6.06</v>
+      </c>
       <c r="J31" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1633,11 +1647,13 @@
         <v>4574423.326186977</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>6.08</v>
+      </c>
       <c r="J32" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1672,11 +1688,13 @@
         <v>4574723.326186977</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>6.07</v>
+      </c>
       <c r="J33" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1711,11 +1729,13 @@
         <v>5507724.632611155</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>6.08</v>
+      </c>
       <c r="J34" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1750,11 +1770,13 @@
         <v>5507724.632611155</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>6.11</v>
+      </c>
       <c r="J35" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1793,7 +1815,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1832,7 +1854,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1871,7 +1893,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1910,7 +1932,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1949,7 +1971,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1988,7 +2010,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2027,7 +2049,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2066,7 +2088,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2105,7 +2127,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2144,7 +2166,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2183,7 +2205,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2222,7 +2244,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2261,7 +2283,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2300,7 +2322,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2339,7 +2361,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2378,7 +2400,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2417,7 +2439,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2456,7 +2478,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2495,7 +2517,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2534,7 +2556,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2573,7 +2595,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2612,7 +2634,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2651,7 +2673,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2690,7 +2712,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2729,7 +2751,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2768,7 +2790,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2807,7 +2829,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2846,7 +2868,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2885,7 +2907,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2920,11 +2942,13 @@
         <v>6633516.158470413</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>5.91</v>
+      </c>
       <c r="J65" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2959,11 +2983,13 @@
         <v>6817513.959770413</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>5.98</v>
+      </c>
       <c r="J66" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2998,11 +3024,13 @@
         <v>7235620.513170413</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>6.03</v>
+      </c>
       <c r="J67" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3037,11 +3065,13 @@
         <v>6965906.457070413</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>6.14</v>
+      </c>
       <c r="J68" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3080,7 +3110,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3115,11 +3145,13 @@
         <v>6826899.899470413</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>5.99</v>
+      </c>
       <c r="J70" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3158,7 +3190,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3193,11 +3225,13 @@
         <v>6820715.144670413</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>6.01</v>
+      </c>
       <c r="J72" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3236,7 +3270,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3271,11 +3305,13 @@
         <v>6798067.479270413</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>6.02</v>
+      </c>
       <c r="J74" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3314,7 +3350,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3353,7 +3389,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3392,7 +3428,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3431,7 +3467,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3470,7 +3506,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3509,7 +3545,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3548,7 +3584,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3587,7 +3623,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3626,7 +3662,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3661,11 +3697,13 @@
         <v>6071596.761370414</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>6.01</v>
+      </c>
       <c r="J84" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3704,7 +3742,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3743,7 +3781,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3782,7 +3820,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3821,7 +3859,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3860,7 +3898,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3899,7 +3937,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3938,7 +3976,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3977,7 +4015,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -4016,7 +4054,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -4055,7 +4093,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4094,7 +4132,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4133,7 +4171,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4172,7 +4210,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4211,7 +4249,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4246,11 +4284,13 @@
         <v>6012833.003570414</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>5.95</v>
+      </c>
       <c r="J99" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4289,7 +4329,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4328,7 +4368,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4367,7 +4407,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4402,11 +4442,13 @@
         <v>6558525.188052278</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>5.96</v>
+      </c>
       <c r="J103" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4445,7 +4487,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4484,7 +4526,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4523,7 +4565,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4558,11 +4600,13 @@
         <v>7208521.28472391</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>6.01</v>
+      </c>
       <c r="J107" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4597,11 +4641,13 @@
         <v>7014185.01922391</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>6</v>
+      </c>
       <c r="J108" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4636,11 +4682,13 @@
         <v>7014185.01922391</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>5.95</v>
+      </c>
       <c r="J109" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4675,11 +4723,13 @@
         <v>7030755.82302391</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>5.95</v>
+      </c>
       <c r="J110" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4714,11 +4764,13 @@
         <v>8986823.470974242</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>6</v>
+      </c>
       <c r="J111" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4757,7 +4809,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4796,7 +4848,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4835,7 +4887,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4874,7 +4926,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4913,7 +4965,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4952,7 +5004,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4991,7 +5043,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -5030,7 +5082,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -5069,7 +5121,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5108,7 +5160,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5147,7 +5199,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5186,7 +5238,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5225,7 +5277,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5264,7 +5316,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5303,7 +5355,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5342,7 +5394,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5381,7 +5433,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5420,7 +5472,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5459,7 +5511,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5498,7 +5550,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5537,7 +5589,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5576,7 +5628,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5615,7 +5667,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5654,7 +5706,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5693,7 +5745,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5732,7 +5784,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5771,7 +5823,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5810,7 +5862,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5849,7 +5901,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5888,7 +5940,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5927,7 +5979,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5966,7 +6018,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -6005,7 +6057,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -6044,7 +6096,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -6083,7 +6135,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -6122,7 +6174,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -6161,7 +6213,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6200,7 +6252,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6239,7 +6291,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6278,7 +6330,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6317,7 +6369,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6356,7 +6408,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6395,7 +6447,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6434,7 +6486,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6473,7 +6525,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6512,7 +6564,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6551,7 +6603,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6590,7 +6642,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6629,7 +6681,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6668,7 +6720,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6707,7 +6759,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6746,7 +6798,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6785,7 +6837,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6824,7 +6876,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6863,7 +6915,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6902,7 +6954,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6941,7 +6993,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6980,7 +7032,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -7019,7 +7071,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -7058,7 +7110,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -7097,7 +7149,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -7136,7 +7188,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -7175,7 +7227,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -7214,7 +7266,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -7253,7 +7305,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -7292,7 +7344,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -7331,7 +7383,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -7370,7 +7422,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -7409,7 +7461,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7448,7 +7500,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7487,7 +7539,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7526,7 +7578,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7565,7 +7617,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7604,7 +7656,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7643,7 +7695,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7682,7 +7734,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7721,7 +7773,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7760,7 +7812,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7799,7 +7851,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7838,7 +7890,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7877,7 +7929,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7916,7 +7968,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7955,7 +8007,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7994,7 +8046,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -8033,7 +8085,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -8072,7 +8124,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -8111,7 +8163,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -8150,7 +8202,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -8189,7 +8241,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -8228,7 +8280,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -8267,7 +8319,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -8306,7 +8358,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -8345,7 +8397,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -8384,7 +8436,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -8423,7 +8475,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -8462,7 +8514,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -8501,7 +8553,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -8540,7 +8592,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -8579,7 +8631,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8618,7 +8670,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8657,7 +8709,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8696,7 +8748,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8735,7 +8787,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8774,7 +8826,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8813,7 +8865,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8852,7 +8904,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8891,7 +8943,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8930,7 +8982,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8969,7 +9021,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -9008,7 +9060,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -9047,7 +9099,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -9086,7 +9138,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -9125,7 +9177,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -9164,7 +9216,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -9203,7 +9255,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -9242,7 +9294,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -9281,7 +9333,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -9320,7 +9372,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -9359,7 +9411,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -9398,7 +9450,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -9437,7 +9489,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -9476,7 +9528,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -9515,7 +9567,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -9554,7 +9606,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -9593,7 +9645,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -9632,7 +9684,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -9671,7 +9723,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -9710,7 +9762,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -9749,7 +9801,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -9788,7 +9840,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -9827,7 +9879,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -9866,7 +9918,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -9905,7 +9957,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -9944,7 +9996,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -9983,7 +10035,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -10022,7 +10074,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -10061,7 +10113,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -10100,7 +10152,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -10139,7 +10191,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -10178,7 +10230,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -10217,7 +10269,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -10256,7 +10308,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -10295,7 +10347,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -10334,7 +10386,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -10373,7 +10425,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -10412,7 +10464,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -10451,7 +10503,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -10490,7 +10542,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -10529,7 +10581,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -10568,7 +10620,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -10607,7 +10659,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -10646,7 +10698,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -10685,7 +10737,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -10724,7 +10776,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -10763,7 +10815,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -10802,7 +10854,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -10841,7 +10893,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -10880,7 +10932,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -10919,7 +10971,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -10958,7 +11010,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -10997,7 +11049,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -11036,7 +11088,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -11075,7 +11127,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -11114,7 +11166,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -11153,7 +11205,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -11192,7 +11244,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -11231,7 +11283,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -11270,7 +11322,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -11309,7 +11361,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -11348,7 +11400,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -11387,7 +11439,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -11426,7 +11478,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -11465,7 +11517,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -11504,7 +11556,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -11543,7 +11595,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -11582,7 +11634,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -11621,7 +11673,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -11660,7 +11712,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -11699,7 +11751,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -11738,7 +11790,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -11777,7 +11829,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -11816,7 +11868,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -11855,7 +11907,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -11894,7 +11946,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -11933,7 +11985,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -11972,7 +12024,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -12011,7 +12063,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -12046,11 +12098,13 @@
         <v>8215799.712939838</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>6.03</v>
+      </c>
       <c r="J299" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -12085,11 +12139,13 @@
         <v>8464362.007239837</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>6.03</v>
+      </c>
       <c r="J300" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -12124,11 +12180,13 @@
         <v>8464332.421939837</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>6.05</v>
+      </c>
       <c r="J301" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -12163,11 +12221,13 @@
         <v>8464332.421939837</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>6.03</v>
+      </c>
       <c r="J302" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -12206,7 +12266,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -12245,7 +12305,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -12284,7 +12344,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -12323,7 +12383,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -12362,7 +12422,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -12401,7 +12461,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -12440,7 +12500,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -12479,7 +12539,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -12518,7 +12578,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -12557,7 +12617,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -12596,7 +12656,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -12635,7 +12695,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -12674,7 +12734,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -12713,7 +12773,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -12752,7 +12812,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -12791,7 +12851,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -12830,7 +12890,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -12869,7 +12929,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -12908,7 +12968,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -12947,7 +13007,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -12986,7 +13046,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -13025,7 +13085,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -13064,7 +13124,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -13103,7 +13163,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -13142,7 +13202,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -13181,7 +13241,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -13220,7 +13280,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -13259,7 +13319,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -13298,7 +13358,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -13337,7 +13397,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -13376,7 +13436,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -13415,7 +13475,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -13454,7 +13514,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -13493,7 +13553,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -13532,7 +13592,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -13571,7 +13631,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -13610,7 +13670,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -13649,7 +13709,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -13688,7 +13748,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -13727,7 +13787,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -13766,7 +13826,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -13805,7 +13865,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -13844,7 +13904,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -13883,7 +13943,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -13922,7 +13982,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -13961,7 +14021,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -14000,7 +14060,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -14039,7 +14099,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -14078,7 +14138,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -14117,7 +14177,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -14156,7 +14216,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -14195,7 +14255,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -14234,7 +14294,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -14269,11 +14329,11 @@
         <v>22670957.73963126</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -14312,7 +14372,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -14351,7 +14411,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -14390,7 +14450,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -14425,11 +14485,11 @@
         <v>22086603.46463126</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -14468,7 +14528,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -14503,11 +14563,11 @@
         <v>25193223.66883126</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -14542,11 +14602,11 @@
         <v>25191780.78413126</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -14581,11 +14641,11 @@
         <v>25191780.78413126</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -14620,11 +14680,11 @@
         <v>25051468.21053126</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -14659,11 +14719,11 @@
         <v>24914342.72723126</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -14702,7 +14762,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -14741,7 +14801,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -14780,7 +14840,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -14819,7 +14879,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -14858,7 +14918,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -14893,11 +14953,11 @@
         <v>25067648.80060879</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -14932,11 +14992,11 @@
         <v>25056076.29011291</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -14971,11 +15031,11 @@
         <v>25056076.29011291</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -15014,7 +15074,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -15049,11 +15109,11 @@
         <v>24525304.1542129</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -15092,7 +15152,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -15131,7 +15191,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -15170,7 +15230,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -15205,21 +15265,23 @@
         <v>24517803.7494129</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L380" t="n">
-        <v>1</v>
-      </c>
-      <c r="M380" t="inlineStr"/>
+        <v>1.067727272727273</v>
+      </c>
+      <c r="M380" t="n">
+        <v>1.003305785123967</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
@@ -15244,17 +15306,11 @@
         <v>24517803.7494129</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -15286,14 +15342,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -15325,14 +15375,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -15364,14 +15408,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -15403,14 +15441,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15442,14 +15474,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15481,14 +15507,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15520,14 +15540,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15559,14 +15573,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15598,14 +15606,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15637,14 +15639,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15676,14 +15672,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15715,14 +15705,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15754,14 +15738,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15793,14 +15771,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15832,14 +15804,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15871,14 +15837,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15910,14 +15870,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15949,14 +15903,8 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15988,14 +15936,8 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -16027,14 +15969,8 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -16066,14 +16002,8 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -16105,14 +16035,8 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -16141,17 +16065,11 @@
         <v>23673800.10814306</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -16180,17 +16098,11 @@
         <v>23673320.16754306</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -16219,17 +16131,11 @@
         <v>23606236.19664306</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -16258,17 +16164,11 @@
         <v>22723158.90254306</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -16297,17 +16197,11 @@
         <v>22844268.25664306</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -16336,17 +16230,11 @@
         <v>22851926.34054306</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -16375,17 +16263,11 @@
         <v>22851926.34054306</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -16414,17 +16296,11 @@
         <v>22716472.90024306</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -16453,17 +16329,11 @@
         <v>22864599.60754306</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -16492,17 +16362,11 @@
         <v>22878145.41244306</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -16531,17 +16395,11 @@
         <v>22826767.65934306</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -16570,17 +16428,11 @@
         <v>22934780.97574306</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16609,17 +16461,11 @@
         <v>22934780.97574306</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16648,17 +16494,11 @@
         <v>22677259.85144306</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16687,17 +16527,11 @@
         <v>22681876.19714306</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16726,17 +16560,11 @@
         <v>22687735.44404306</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16765,17 +16593,11 @@
         <v>22671196.63814306</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16804,17 +16626,11 @@
         <v>22724129.41464306</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16843,17 +16659,11 @@
         <v>22683516.43394306</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16882,17 +16692,11 @@
         <v>22683516.43394306</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16924,14 +16728,8 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16963,14 +16761,8 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -17002,14 +16794,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -17041,14 +16827,8 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -17080,14 +16860,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -17119,14 +16893,8 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -17158,14 +16926,8 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -17197,14 +16959,8 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -17236,14 +16992,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -17275,14 +17025,8 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -17314,14 +17058,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -17353,14 +17091,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -17392,14 +17124,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -17428,17 +17154,11 @@
         <v>20670323.73734306</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -17467,17 +17187,11 @@
         <v>20467565.11184306</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -17506,17 +17220,11 @@
         <v>20373281.17424306</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -17548,14 +17256,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -17587,14 +17289,8 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -17626,14 +17322,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -17665,14 +17355,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -17704,14 +17388,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -17743,14 +17421,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17782,14 +17454,8 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17821,14 +17487,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17860,14 +17520,8 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17899,14 +17553,8 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17938,14 +17586,8 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17977,14 +17619,8 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -18016,14 +17652,8 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -18055,14 +17685,8 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -18094,14 +17718,8 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -18133,14 +17751,8 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -18172,14 +17784,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -18211,14 +17817,8 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -18250,14 +17850,8 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -18289,14 +17883,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -18328,14 +17916,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -18367,14 +17949,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -18406,14 +17982,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -18445,14 +18015,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -18484,14 +18048,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -18523,14 +18081,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -18562,14 +18114,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -18601,14 +18147,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -18640,14 +18180,8 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -18679,14 +18213,8 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -18718,14 +18246,8 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -18757,14 +18279,8 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -18796,14 +18312,8 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -18835,14 +18345,8 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -18874,14 +18378,8 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -18913,14 +18411,8 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -18952,14 +18444,8 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -18991,14 +18477,8 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -19030,14 +18510,8 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -19066,23 +18540,15 @@
         <v>21173939.38004306</v>
       </c>
       <c r="H479" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
-        <v>1.056056105610561</v>
-      </c>
-      <c r="M479" t="n">
-        <v>1.001650165016502</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M479" t="inlineStr"/>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
@@ -19107,7 +18573,7 @@
         <v>21737329.32104306</v>
       </c>
       <c r="H480" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -19437,7 +18903,7 @@
         <v>23771327.71024305</v>
       </c>
       <c r="H490" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -19470,7 +18936,7 @@
         <v>24037918.11320723</v>
       </c>
       <c r="H491" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -19503,7 +18969,7 @@
         <v>24037918.11320723</v>
       </c>
       <c r="H492" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -19536,7 +19002,7 @@
         <v>24037918.11320723</v>
       </c>
       <c r="H493" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -19569,7 +19035,7 @@
         <v>24037918.11320723</v>
       </c>
       <c r="H494" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -19602,7 +19068,7 @@
         <v>23944184.84620723</v>
       </c>
       <c r="H495" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -19635,7 +19101,7 @@
         <v>24435492.78692128</v>
       </c>
       <c r="H496" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -19668,7 +19134,7 @@
         <v>24435492.78692128</v>
       </c>
       <c r="H497" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -19701,7 +19167,7 @@
         <v>24435492.78692128</v>
       </c>
       <c r="H498" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -19734,7 +19200,7 @@
         <v>24435492.78692128</v>
       </c>
       <c r="H499" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -19767,7 +19233,7 @@
         <v>25139045.29362128</v>
       </c>
       <c r="H500" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -19800,7 +19266,7 @@
         <v>24979709.46742128</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -19833,7 +19299,7 @@
         <v>24863936.69512128</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -19866,7 +19332,7 @@
         <v>24843744.24342128</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -19899,7 +19365,7 @@
         <v>24843744.24342128</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -19932,7 +19398,7 @@
         <v>24862249.38392128</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -19965,7 +19431,7 @@
         <v>24860013.21102129</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -19998,7 +19464,7 @@
         <v>24804285.92652129</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -20031,7 +19497,7 @@
         <v>24921471.23222129</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -20064,7 +19530,7 @@
         <v>24916439.23222129</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -20097,7 +19563,7 @@
         <v>24916439.23222129</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -20130,7 +19596,7 @@
         <v>25112376.57642129</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -20163,7 +19629,7 @@
         <v>25081303.10882129</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -20196,7 +19662,7 @@
         <v>25159231.44031903</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -20229,7 +19695,7 @@
         <v>25159231.44031903</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -20262,7 +19728,7 @@
         <v>25067091.55111903</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -20295,7 +19761,7 @@
         <v>25068773.12281903</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -20328,7 +19794,7 @@
         <v>25076459.03942129</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -20724,7 +20190,7 @@
         <v>24489886.68452129</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -20757,7 +20223,7 @@
         <v>24406799.65602129</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -20856,7 +20322,7 @@
         <v>24031987.68241882</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -20889,7 +20355,7 @@
         <v>24031987.68241882</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -20922,7 +20388,7 @@
         <v>24003212.25231882</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -20955,7 +20421,7 @@
         <v>24411681.67871882</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -20988,7 +20454,7 @@
         <v>24398056.39791882</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -21021,7 +20487,7 @@
         <v>24446120.05991882</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -21054,7 +20520,7 @@
         <v>24446130.05991882</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -21087,7 +20553,7 @@
         <v>24445483.82791882</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -21120,7 +20586,7 @@
         <v>24445483.82791882</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -21153,7 +20619,7 @@
         <v>24494968.78961882</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -21186,7 +20652,7 @@
         <v>24494968.78961882</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -22440,7 +21906,7 @@
         <v>22942861.29392878</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -25454,6 +24920,6 @@
       <c r="M672" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-15 BackTest FAB.xlsx
+++ b/BackTest/2019-10-15 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -521,11 +521,9 @@
         <v>4561048.426286978</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
         <v>6.07</v>
       </c>
@@ -562,9 +560,11 @@
         <v>4561048.426286978</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.06</v>
+      </c>
       <c r="J5" t="n">
         <v>6.07</v>
       </c>
@@ -601,10 +601,14 @@
         <v>4561048.426286978</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6.06</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -634,11 +638,19 @@
         <v>4531796.267386978</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -673,9 +685,13 @@
         <v>6.05</v>
       </c>
       <c r="J8" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
+        <v>6.06</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -710,11 +726,11 @@
         <v>6.05</v>
       </c>
       <c r="J9" t="n">
-        <v>6.05</v>
+        <v>6.06</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -751,7 +767,7 @@
         <v>6.06</v>
       </c>
       <c r="J10" t="n">
-        <v>6.05</v>
+        <v>6.06</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -786,13 +802,11 @@
         <v>4532155.267386978</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
         <v>6.06</v>
-      </c>
-      <c r="J11" t="n">
-        <v>6.05</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -827,13 +841,11 @@
         <v>4532155.267386978</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
         <v>6.06</v>
-      </c>
-      <c r="J12" t="n">
-        <v>6.05</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -868,13 +880,11 @@
         <v>4531522.267386978</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
         <v>6.06</v>
-      </c>
-      <c r="J13" t="n">
-        <v>6.05</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -909,13 +919,11 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>6.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>6.05</v>
+        <v>6.06</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -950,13 +958,11 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
         <v>6.06</v>
-      </c>
-      <c r="J15" t="n">
-        <v>6.05</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -991,13 +997,11 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
         <v>6.06</v>
-      </c>
-      <c r="J16" t="n">
-        <v>6.05</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1032,13 +1036,11 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
         <v>6.06</v>
-      </c>
-      <c r="J17" t="n">
-        <v>6.05</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1073,13 +1075,11 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
         <v>6.06</v>
-      </c>
-      <c r="J18" t="n">
-        <v>6.05</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1114,13 +1114,11 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
         <v>6.06</v>
-      </c>
-      <c r="J19" t="n">
-        <v>6.05</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1155,13 +1153,11 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
         <v>6.06</v>
-      </c>
-      <c r="J20" t="n">
-        <v>6.05</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1196,13 +1192,11 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
         <v>6.06</v>
-      </c>
-      <c r="J21" t="n">
-        <v>6.05</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1237,13 +1231,11 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
         <v>6.06</v>
-      </c>
-      <c r="J22" t="n">
-        <v>6.05</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1278,13 +1270,11 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
         <v>6.06</v>
-      </c>
-      <c r="J23" t="n">
-        <v>6.05</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1319,13 +1309,11 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
         <v>6.06</v>
-      </c>
-      <c r="J24" t="n">
-        <v>6.05</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1360,13 +1348,11 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
         <v>6.06</v>
-      </c>
-      <c r="J25" t="n">
-        <v>6.05</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1401,13 +1387,11 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
         <v>6.06</v>
-      </c>
-      <c r="J26" t="n">
-        <v>6.05</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1442,13 +1426,11 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
         <v>6.06</v>
-      </c>
-      <c r="J27" t="n">
-        <v>6.05</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1483,13 +1465,11 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
         <v>6.06</v>
-      </c>
-      <c r="J28" t="n">
-        <v>6.05</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1530,7 +1510,7 @@
         <v>6.06</v>
       </c>
       <c r="J29" t="n">
-        <v>6.05</v>
+        <v>6.06</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1571,7 +1551,7 @@
         <v>6.06</v>
       </c>
       <c r="J30" t="n">
-        <v>6.05</v>
+        <v>6.06</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1612,7 +1592,7 @@
         <v>6.06</v>
       </c>
       <c r="J31" t="n">
-        <v>6.05</v>
+        <v>6.06</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1647,13 +1627,11 @@
         <v>4574423.326186977</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>6.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>6.05</v>
+        <v>6.06</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1688,13 +1666,11 @@
         <v>4574723.326186977</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>6.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>6.05</v>
+        <v>6.06</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1729,13 +1705,11 @@
         <v>5507724.632611155</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>6.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>6.05</v>
+        <v>6.06</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1770,13 +1744,11 @@
         <v>5507724.632611155</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>6.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>6.05</v>
+        <v>6.06</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1815,7 +1787,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>6.05</v>
+        <v>6.06</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1854,7 +1826,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>6.05</v>
+        <v>6.06</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1893,7 +1865,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>6.05</v>
+        <v>6.06</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1932,7 +1904,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>6.05</v>
+        <v>6.06</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1971,7 +1943,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>6.05</v>
+        <v>6.06</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -2010,7 +1982,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>6.05</v>
+        <v>6.06</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2045,19 +2017,19 @@
         <v>12734377.34474078</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>6.05</v>
+        <v>6.06</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>1.026353135313532</v>
       </c>
       <c r="M42" t="inlineStr"/>
     </row>
@@ -2087,14 +2059,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2126,14 +2092,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2162,17 +2122,11 @@
         <v>11352073.5963556</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2201,17 +2155,11 @@
         <v>11369183.0216556</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2240,17 +2188,11 @@
         <v>11369170.6656556</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2279,17 +2221,11 @@
         <v>11369170.6656556</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2318,17 +2254,11 @@
         <v>9918314.450870413</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2357,17 +2287,11 @@
         <v>9918164.450870413</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2399,14 +2323,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2438,14 +2356,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2477,14 +2389,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2516,14 +2422,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2555,14 +2455,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2594,14 +2488,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2633,14 +2521,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2672,14 +2554,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2711,14 +2587,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2750,14 +2620,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2789,14 +2653,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2828,14 +2686,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2867,14 +2719,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2906,14 +2752,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2942,19 +2782,11 @@
         <v>6633516.158470413</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="J65" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2983,19 +2815,11 @@
         <v>6817513.959770413</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="J66" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3024,19 +2848,11 @@
         <v>7235620.513170413</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="J67" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3065,19 +2881,11 @@
         <v>6965906.457070413</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="J68" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3109,14 +2917,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3145,19 +2947,11 @@
         <v>6826899.899470413</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="J70" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3189,14 +2983,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3225,19 +3013,11 @@
         <v>6820715.144670413</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="J72" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3269,14 +3049,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3305,19 +3079,11 @@
         <v>6798067.479270413</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="J74" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3349,14 +3115,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3388,14 +3148,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3427,14 +3181,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3466,14 +3214,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3505,14 +3247,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3544,14 +3280,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3583,14 +3313,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3622,14 +3346,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3661,14 +3379,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3697,19 +3409,11 @@
         <v>6071596.761370414</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="J84" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3741,14 +3445,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3780,14 +3478,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3819,14 +3511,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3858,14 +3544,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3897,14 +3577,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3936,14 +3610,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3975,14 +3643,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -4014,14 +3676,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4053,14 +3709,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4092,14 +3742,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4131,14 +3775,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4170,14 +3808,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4209,14 +3841,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4248,14 +3874,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4284,19 +3904,11 @@
         <v>6012833.003570414</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="J99" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4328,14 +3940,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4367,14 +3973,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4406,14 +4006,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4442,19 +4036,11 @@
         <v>6558525.188052278</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="J103" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4486,14 +4072,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4525,14 +4105,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4564,14 +4138,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4600,19 +4168,11 @@
         <v>7208521.28472391</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="J107" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4641,19 +4201,11 @@
         <v>7014185.01922391</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>6</v>
-      </c>
-      <c r="J108" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4682,19 +4234,11 @@
         <v>7014185.01922391</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="J109" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4728,12 +4272,10 @@
       <c r="I110" t="n">
         <v>5.95</v>
       </c>
-      <c r="J110" t="n">
-        <v>6.05</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L110" t="n">
@@ -4769,9 +4311,7 @@
       <c r="I111" t="n">
         <v>6</v>
       </c>
-      <c r="J111" t="n">
-        <v>6.05</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4808,9 +4348,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>6.05</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4847,9 +4385,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>6.05</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4886,9 +4422,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>6.05</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4925,9 +4459,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>6.05</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4964,9 +4496,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>6.05</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5003,9 +4533,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>6.05</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5042,9 +4570,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>6.05</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5081,9 +4607,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>6.05</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5120,9 +4644,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>6.05</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5159,9 +4681,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>6.05</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5198,9 +4718,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>6.05</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5237,9 +4755,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>6.05</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5276,9 +4792,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>6.05</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5315,9 +4829,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>6.05</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5354,9 +4866,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>6.05</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5393,9 +4903,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>6.05</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5432,9 +4940,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>6.05</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5471,9 +4977,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>6.05</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5510,9 +5014,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>6.05</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5549,9 +5051,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>6.05</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5588,9 +5088,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>6.05</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5627,9 +5125,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>6.05</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5666,9 +5162,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>6.05</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5702,20 +5196,16 @@
         <v>12012806.11974904</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>6.05</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
@@ -5741,17 +5231,11 @@
         <v>12042911.75194904</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5780,17 +5264,11 @@
         <v>12040436.33544904</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5822,14 +5300,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5861,14 +5333,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5900,14 +5366,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5939,14 +5399,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5978,14 +5432,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -6017,14 +5465,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6056,14 +5498,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6095,14 +5531,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6131,17 +5561,11 @@
         <v>11545856.90847469</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6173,14 +5597,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6212,14 +5630,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6248,17 +5660,11 @@
         <v>11445167.90847469</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6287,17 +5693,11 @@
         <v>11447367.90847469</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6326,17 +5726,11 @@
         <v>11449778.90847469</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6368,14 +5762,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6404,17 +5792,11 @@
         <v>11448199.90847469</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6446,14 +5828,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6482,17 +5858,11 @@
         <v>11444079.90847469</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6524,14 +5894,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6563,14 +5927,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6602,14 +5960,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6641,14 +5993,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6680,14 +6026,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6719,14 +6059,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6758,14 +6092,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6797,14 +6125,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6836,14 +6158,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6875,14 +6191,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6914,14 +6224,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6953,14 +6257,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6992,14 +6290,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7031,14 +6323,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7070,14 +6356,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7109,14 +6389,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7148,14 +6422,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7187,14 +6455,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7226,14 +6488,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7265,14 +6521,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7304,14 +6554,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7343,14 +6587,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7382,14 +6620,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7421,14 +6653,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7460,14 +6686,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7499,14 +6719,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7538,14 +6752,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7577,14 +6785,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7616,14 +6818,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7655,14 +6851,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7694,14 +6884,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7733,14 +6917,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7772,14 +6950,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7811,14 +6983,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7850,14 +7016,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7889,14 +7049,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7928,14 +7082,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7967,14 +7115,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -8006,14 +7148,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8045,14 +7181,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8084,14 +7214,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8123,14 +7247,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8162,14 +7280,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8201,14 +7313,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8240,14 +7346,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8279,14 +7379,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8318,14 +7412,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8357,14 +7445,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8396,14 +7478,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8435,14 +7511,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8474,14 +7544,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8513,14 +7577,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8552,14 +7610,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8591,14 +7643,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8630,14 +7676,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8669,14 +7709,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8708,14 +7742,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8747,14 +7775,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8786,14 +7808,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8825,14 +7841,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8864,14 +7874,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8903,14 +7907,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8942,14 +7940,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8981,14 +7973,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -9020,14 +8006,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9059,14 +8039,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9098,14 +8072,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9137,14 +8105,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9176,14 +8138,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9215,14 +8171,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9254,14 +8204,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9293,14 +8237,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9332,14 +8270,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9371,14 +8303,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9410,14 +8336,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9449,14 +8369,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9488,14 +8402,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9527,14 +8435,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9566,14 +8468,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9605,14 +8501,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9644,14 +8534,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9683,14 +8567,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9722,14 +8600,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9761,14 +8633,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9800,14 +8666,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9839,14 +8699,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9878,14 +8732,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9917,14 +8765,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9956,14 +8798,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9995,14 +8831,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -10034,14 +8864,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10073,14 +8897,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10112,14 +8930,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10151,14 +8963,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10190,14 +8996,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10229,14 +9029,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10268,14 +9062,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10307,14 +9095,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10346,14 +9128,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10385,14 +9161,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10424,14 +9194,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10463,14 +9227,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10502,14 +9260,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10541,14 +9293,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10580,14 +9326,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10619,14 +9359,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10658,14 +9392,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10697,14 +9425,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10736,14 +9458,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10775,14 +9491,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10814,14 +9524,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10853,14 +9557,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10892,14 +9590,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10931,14 +9623,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10970,14 +9656,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -11009,14 +9689,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -11048,14 +9722,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11087,14 +9755,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11126,14 +9788,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11165,14 +9821,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11204,14 +9854,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11243,14 +9887,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11282,14 +9920,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11321,14 +9953,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11360,14 +9986,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11399,14 +10019,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11438,14 +10052,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11477,14 +10085,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11516,14 +10118,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11555,14 +10151,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11594,14 +10184,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11633,14 +10217,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11672,14 +10250,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11711,14 +10283,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11750,14 +10316,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11789,14 +10349,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11828,14 +10382,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11867,14 +10415,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11906,14 +10448,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11945,14 +10481,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11984,14 +10514,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -12023,14 +10547,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -12062,14 +10580,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -12098,19 +10610,11 @@
         <v>8215799.712939838</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="J299" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -12139,19 +10643,11 @@
         <v>8464362.007239837</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="J300" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -12180,19 +10676,11 @@
         <v>8464332.421939837</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="J301" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -12221,19 +10709,11 @@
         <v>8464332.421939837</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="J302" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12265,14 +10745,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12304,14 +10778,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12343,14 +10811,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12382,14 +10844,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12421,14 +10877,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12460,14 +10910,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12499,14 +10943,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12538,14 +10976,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12577,14 +11009,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12616,14 +11042,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12655,14 +11075,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12694,14 +11108,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12733,14 +11141,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12772,14 +11174,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12811,14 +11207,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12850,14 +11240,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12889,14 +11273,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12928,14 +11306,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12967,14 +11339,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -13006,14 +11372,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -13045,14 +11405,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -13084,14 +11438,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -13123,14 +11471,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -13162,14 +11504,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -13201,14 +11537,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -13240,14 +11570,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -13279,14 +11603,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -13318,14 +11636,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13357,14 +11669,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13396,14 +11702,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13435,14 +11735,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13474,14 +11768,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13513,14 +11801,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13552,14 +11834,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13591,14 +11867,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13630,14 +11900,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13669,14 +11933,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13708,14 +11966,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13747,14 +11999,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13786,14 +12032,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13825,14 +12065,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13864,14 +12098,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13900,17 +12128,11 @@
         <v>13067834.52298664</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13939,17 +12161,11 @@
         <v>14180501.2966815</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13978,17 +12194,11 @@
         <v>14485813.17148151</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -14017,17 +12227,11 @@
         <v>15491373.19128665</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -14056,17 +12260,11 @@
         <v>16121322.72848665</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -14095,17 +12293,11 @@
         <v>16806810.48238664</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -14134,17 +12326,11 @@
         <v>18578459.65338665</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -14173,17 +12359,11 @@
         <v>22885260.27217227</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -14215,14 +12395,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -14254,14 +12428,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -14293,14 +12461,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -14332,14 +12494,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -14371,14 +12527,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -14410,14 +12560,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14449,14 +12593,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14488,14 +12626,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14527,14 +12659,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14566,14 +12692,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14605,14 +12725,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14644,14 +12758,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14683,14 +12791,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14722,14 +12824,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14761,14 +12857,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14800,14 +12890,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14839,14 +12923,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14878,14 +12956,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14917,14 +12989,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14956,14 +13022,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14995,14 +13055,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -15034,14 +13088,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -15073,14 +13121,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -15109,17 +13151,11 @@
         <v>24525304.1542129</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -15148,17 +13184,11 @@
         <v>24567857.7494129</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -15187,17 +13217,11 @@
         <v>24567857.7494129</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -15226,17 +13250,11 @@
         <v>24517792.7494129</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -15268,20 +13286,12 @@
         <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
-        <v>1.067727272727273</v>
-      </c>
-      <c r="M380" t="n">
-        <v>1.003305785123967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
@@ -15339,7 +13349,7 @@
         <v>24488494.94047607</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -15372,7 +13382,7 @@
         <v>24488494.94047607</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -15405,7 +13415,7 @@
         <v>24488494.94047607</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -15438,7 +13448,7 @@
         <v>24425380.68207607</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -15471,7 +13481,7 @@
         <v>24452302.93987608</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -16065,7 +14075,7 @@
         <v>23673800.10814306</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -16098,7 +14108,7 @@
         <v>23673320.16754306</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -16131,7 +14141,7 @@
         <v>23606236.19664306</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -16164,7 +14174,7 @@
         <v>22723158.90254306</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -16197,7 +14207,7 @@
         <v>22844268.25664306</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -16230,7 +14240,7 @@
         <v>22851926.34054306</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -16263,7 +14273,7 @@
         <v>22851926.34054306</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -16296,7 +14306,7 @@
         <v>22716472.90024306</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -16329,7 +14339,7 @@
         <v>22864599.60754306</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -16362,7 +14372,7 @@
         <v>22878145.41244306</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -16395,7 +14405,7 @@
         <v>22826767.65934306</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -16428,7 +14438,7 @@
         <v>22934780.97574306</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -16461,7 +14471,7 @@
         <v>22934780.97574306</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -16494,7 +14504,7 @@
         <v>22677259.85144306</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -16527,7 +14537,7 @@
         <v>22681876.19714306</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -16560,7 +14570,7 @@
         <v>22687735.44404306</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -16593,7 +14603,7 @@
         <v>22671196.63814306</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -16626,7 +14636,7 @@
         <v>22724129.41464306</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -16659,7 +14669,7 @@
         <v>22683516.43394306</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -16692,7 +14702,7 @@
         <v>22683516.43394306</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -17154,7 +15164,7 @@
         <v>20670323.73734306</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -17187,7 +15197,7 @@
         <v>20467565.11184306</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -17220,7 +15230,7 @@
         <v>20373281.17424306</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -19068,7 +17078,7 @@
         <v>23944184.84620723</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -19134,7 +17144,7 @@
         <v>24435492.78692128</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -19167,7 +17177,7 @@
         <v>24435492.78692128</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -19200,7 +17210,7 @@
         <v>24435492.78692128</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -19233,7 +17243,7 @@
         <v>25139045.29362128</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -19266,7 +17276,7 @@
         <v>24979709.46742128</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -19299,7 +17309,7 @@
         <v>24863936.69512128</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -19332,7 +17342,7 @@
         <v>24843744.24342128</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -19365,7 +17375,7 @@
         <v>24843744.24342128</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -19398,7 +17408,7 @@
         <v>24862249.38392128</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -19431,7 +17441,7 @@
         <v>24860013.21102129</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -19464,7 +17474,7 @@
         <v>24804285.92652129</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -19497,7 +17507,7 @@
         <v>24921471.23222129</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -19530,7 +17540,7 @@
         <v>24916439.23222129</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -19563,7 +17573,7 @@
         <v>24916439.23222129</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -19596,7 +17606,7 @@
         <v>25112376.57642129</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -19629,7 +17639,7 @@
         <v>25081303.10882129</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -19662,7 +17672,7 @@
         <v>25159231.44031903</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -19695,7 +17705,7 @@
         <v>25159231.44031903</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19728,7 +17738,7 @@
         <v>25067091.55111903</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19761,7 +17771,7 @@
         <v>25068773.12281903</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19794,7 +17804,7 @@
         <v>25076459.03942129</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -20190,7 +18200,7 @@
         <v>24489886.68452129</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -20223,7 +18233,7 @@
         <v>24406799.65602129</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -20322,7 +18332,7 @@
         <v>24031987.68241882</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -20355,7 +18365,7 @@
         <v>24031987.68241882</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -20388,7 +18398,7 @@
         <v>24003212.25231882</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -20421,7 +18431,7 @@
         <v>24411681.67871882</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -20454,7 +18464,7 @@
         <v>24398056.39791882</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -20487,7 +18497,7 @@
         <v>24446120.05991882</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -20520,7 +18530,7 @@
         <v>24446130.05991882</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -20553,7 +18563,7 @@
         <v>24445483.82791882</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -20586,7 +18596,7 @@
         <v>24445483.82791882</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -20619,7 +18629,7 @@
         <v>24494968.78961882</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -20652,7 +18662,7 @@
         <v>24494968.78961882</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -21906,7 +19916,7 @@
         <v>22942861.29392878</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -24920,6 +22930,6 @@
       <c r="M672" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-15 BackTest FAB.xlsx
+++ b/BackTest/2019-10-15 BackTest FAB.xlsx
@@ -521,9 +521,11 @@
         <v>4561048.426286978</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6.06</v>
+      </c>
       <c r="J4" t="n">
         <v>6.07</v>
       </c>
@@ -560,11 +562,9 @@
         <v>4561048.426286978</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>6.07</v>
       </c>
@@ -601,14 +601,10 @@
         <v>4561048.426286978</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="J6" t="n">
-        <v>6.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -643,9 +639,7 @@
       <c r="I7" t="n">
         <v>6.06</v>
       </c>
-      <c r="J7" t="n">
-        <v>6.06</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -684,9 +678,7 @@
       <c r="I8" t="n">
         <v>6.05</v>
       </c>
-      <c r="J8" t="n">
-        <v>6.06</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -725,9 +717,7 @@
       <c r="I9" t="n">
         <v>6.05</v>
       </c>
-      <c r="J9" t="n">
-        <v>6.06</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -766,9 +756,7 @@
       <c r="I10" t="n">
         <v>6.06</v>
       </c>
-      <c r="J10" t="n">
-        <v>6.06</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -802,12 +790,12 @@
         <v>4532155.267386978</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
         <v>6.06</v>
       </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -841,12 +829,12 @@
         <v>4532155.267386978</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
         <v>6.06</v>
       </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -880,12 +868,12 @@
         <v>4531522.267386978</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
         <v>6.06</v>
       </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -919,12 +907,12 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>6.06</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -958,12 +946,12 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
         <v>6.06</v>
       </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -997,12 +985,12 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
         <v>6.06</v>
       </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1036,12 +1024,12 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
         <v>6.06</v>
       </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1075,12 +1063,12 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
         <v>6.06</v>
       </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1114,12 +1102,12 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
         <v>6.06</v>
       </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1153,12 +1141,12 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
         <v>6.06</v>
       </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1192,12 +1180,12 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
         <v>6.06</v>
       </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1231,12 +1219,12 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
         <v>6.06</v>
       </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1270,12 +1258,12 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
         <v>6.06</v>
       </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1309,12 +1297,12 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
         <v>6.06</v>
       </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1348,12 +1336,12 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
         <v>6.06</v>
       </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1387,12 +1375,12 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
         <v>6.06</v>
       </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1426,12 +1414,12 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
         <v>6.06</v>
       </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1465,12 +1453,12 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
         <v>6.06</v>
       </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1509,9 +1497,7 @@
       <c r="I29" t="n">
         <v>6.06</v>
       </c>
-      <c r="J29" t="n">
-        <v>6.06</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1550,9 +1536,7 @@
       <c r="I30" t="n">
         <v>6.06</v>
       </c>
-      <c r="J30" t="n">
-        <v>6.06</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1586,14 +1570,10 @@
         <v>4574680.030786977</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="J31" t="n">
-        <v>6.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1630,9 +1610,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>6.06</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1669,9 +1647,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>6.06</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1708,9 +1684,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>6.06</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1747,9 +1721,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>6.06</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1786,9 +1758,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>6.06</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1825,9 +1795,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>6.06</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1864,9 +1832,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>6.06</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1903,9 +1869,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>6.06</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1942,9 +1906,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>6.06</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1981,9 +1943,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>6.06</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2017,19 +1977,17 @@
         <v>12734377.34474078</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>6.06</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.026353135313532</v>
+        <v>1</v>
       </c>
       <c r="M42" t="inlineStr"/>
     </row>
@@ -2060,7 +2018,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2093,7 +2055,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2122,11 +2088,15 @@
         <v>11352073.5963556</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2155,11 +2125,15 @@
         <v>11369183.0216556</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2188,11 +2162,15 @@
         <v>11369170.6656556</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2221,11 +2199,15 @@
         <v>11369170.6656556</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2254,11 +2236,15 @@
         <v>9918314.450870413</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2287,11 +2273,15 @@
         <v>9918164.450870413</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2324,7 +2314,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2357,7 +2351,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2390,7 +2388,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2423,7 +2425,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2456,7 +2462,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2489,7 +2499,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2522,7 +2536,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2555,7 +2573,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2588,7 +2610,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2621,7 +2647,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2654,7 +2684,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2687,7 +2721,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2720,7 +2758,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2753,7 +2795,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2786,7 +2832,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2819,7 +2869,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2852,7 +2906,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2885,7 +2943,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2918,7 +2980,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2951,7 +3017,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2984,7 +3054,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3017,7 +3091,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3050,7 +3128,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3083,7 +3165,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3116,7 +3202,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3149,7 +3239,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3182,7 +3276,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3215,7 +3313,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3248,7 +3350,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3281,7 +3387,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3314,7 +3424,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3347,7 +3461,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3380,7 +3498,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3413,7 +3535,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3446,7 +3572,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3479,7 +3609,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3512,7 +3646,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3545,7 +3683,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3578,7 +3720,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3611,7 +3757,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3644,7 +3794,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3677,7 +3831,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3710,7 +3868,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3743,7 +3905,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3776,7 +3942,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3809,7 +3979,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3842,7 +4016,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3875,7 +4053,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3908,7 +4090,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3941,7 +4127,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3974,7 +4164,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4007,7 +4201,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4040,7 +4238,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4073,7 +4275,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4106,7 +4312,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4139,7 +4349,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4172,7 +4386,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4205,7 +4423,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4238,7 +4460,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4267,15 +4493,13 @@
         <v>7030755.82302391</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>5.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L110" t="n">
@@ -4306,11 +4530,9 @@
         <v>8986823.470974242</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
@@ -5196,16 +5418,18 @@
         <v>12012806.11974904</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L135" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
       <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
@@ -5231,11 +5455,15 @@
         <v>12042911.75194904</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5264,11 +5492,15 @@
         <v>12040436.33544904</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5301,7 +5533,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5334,7 +5570,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5367,7 +5607,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5400,7 +5644,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5433,7 +5681,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5466,7 +5718,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5499,7 +5755,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5532,7 +5792,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5561,11 +5825,15 @@
         <v>11545856.90847469</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5598,7 +5866,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5631,7 +5903,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5660,11 +5936,15 @@
         <v>11445167.90847469</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5693,11 +5973,15 @@
         <v>11447367.90847469</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5726,11 +6010,15 @@
         <v>11449778.90847469</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5763,7 +6051,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5792,11 +6084,15 @@
         <v>11448199.90847469</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5829,7 +6125,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5858,11 +6158,15 @@
         <v>11444079.90847469</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5895,7 +6199,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5928,7 +6236,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5961,7 +6273,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5994,7 +6310,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6027,7 +6347,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6060,7 +6384,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6093,7 +6421,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6126,7 +6458,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6159,7 +6495,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6192,7 +6532,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6225,7 +6569,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6258,7 +6606,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6291,7 +6643,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6324,7 +6680,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6357,7 +6717,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6390,7 +6754,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6423,7 +6791,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6456,7 +6828,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6489,7 +6865,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6522,7 +6902,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6555,7 +6939,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6588,7 +6976,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6621,7 +7013,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6654,7 +7050,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6687,7 +7087,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6720,7 +7124,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6753,7 +7161,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6786,7 +7198,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6819,7 +7235,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6852,7 +7272,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6885,7 +7309,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6918,7 +7346,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6951,7 +7383,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6984,7 +7420,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7017,7 +7457,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7050,7 +7494,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7083,7 +7531,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7116,7 +7568,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7149,7 +7605,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7182,7 +7642,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7215,7 +7679,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7248,7 +7716,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7281,7 +7753,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7314,7 +7790,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7347,7 +7827,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7380,7 +7864,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7413,7 +7901,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7446,7 +7938,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7479,7 +7975,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7512,7 +8012,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7545,7 +8049,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7578,7 +8086,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7611,7 +8123,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7644,7 +8160,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7677,7 +8197,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7710,7 +8234,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7743,7 +8271,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7776,7 +8308,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7809,7 +8345,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7842,7 +8382,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7875,7 +8419,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7908,7 +8456,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7941,7 +8493,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7974,7 +8530,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8007,7 +8567,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8040,7 +8604,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8073,7 +8641,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8106,7 +8678,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8139,7 +8715,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8172,7 +8752,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8205,7 +8789,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8238,7 +8826,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8271,7 +8863,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8304,7 +8900,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8337,7 +8937,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8370,7 +8974,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8403,7 +9011,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8436,7 +9048,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8469,7 +9085,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8502,7 +9122,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8535,7 +9159,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8568,7 +9196,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8601,7 +9233,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8634,7 +9270,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8667,7 +9307,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8700,7 +9344,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8733,7 +9381,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8766,7 +9418,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8799,7 +9455,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8832,7 +9492,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8865,7 +9529,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8898,7 +9566,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8931,7 +9603,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8964,7 +9640,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8997,7 +9677,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9030,7 +9714,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9063,7 +9751,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9096,7 +9788,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9129,7 +9825,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9162,7 +9862,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9195,7 +9899,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9228,7 +9936,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9261,7 +9973,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9294,7 +10010,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9327,7 +10047,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9360,7 +10084,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9393,7 +10121,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9426,7 +10158,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9459,7 +10195,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9492,7 +10232,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9525,7 +10269,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9558,7 +10306,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9591,7 +10343,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9624,7 +10380,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9657,7 +10417,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9690,7 +10454,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9723,7 +10491,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9756,7 +10528,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9789,7 +10565,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9822,7 +10602,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9855,7 +10639,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9888,7 +10676,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9921,7 +10713,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9954,7 +10750,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9987,7 +10787,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10020,7 +10824,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10053,7 +10861,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10086,7 +10898,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10119,7 +10935,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10152,7 +10972,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10185,7 +11009,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10218,7 +11046,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10251,7 +11083,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10284,7 +11120,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10317,7 +11157,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10350,7 +11194,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10383,7 +11231,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10416,7 +11268,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10449,7 +11305,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10482,7 +11342,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10515,7 +11379,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10548,7 +11416,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10581,7 +11453,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10614,7 +11490,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10647,7 +11527,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10680,7 +11564,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10713,7 +11601,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10746,7 +11638,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10779,7 +11675,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10812,7 +11712,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10845,7 +11749,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10878,7 +11786,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10911,7 +11823,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10944,7 +11860,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10977,7 +11897,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11010,7 +11934,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11043,7 +11971,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11076,7 +12008,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11109,7 +12045,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11142,7 +12082,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11175,7 +12119,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11208,7 +12156,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11241,7 +12193,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11274,7 +12230,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11307,7 +12267,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11340,7 +12304,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11373,7 +12341,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11406,7 +12378,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11439,7 +12415,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11472,7 +12452,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11505,7 +12489,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11538,7 +12526,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11571,7 +12563,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11604,7 +12600,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11637,7 +12637,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11670,7 +12674,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11703,7 +12711,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11736,7 +12748,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11769,7 +12785,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11802,7 +12822,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11835,7 +12859,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11868,7 +12896,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11901,7 +12933,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11934,7 +12970,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11967,7 +13007,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12000,7 +13044,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12033,7 +13081,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12066,7 +13118,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12099,7 +13155,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12128,11 +13188,15 @@
         <v>13067834.52298664</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12161,11 +13225,15 @@
         <v>14180501.2966815</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12194,11 +13262,15 @@
         <v>14485813.17148151</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12227,11 +13299,15 @@
         <v>15491373.19128665</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12260,11 +13336,15 @@
         <v>16121322.72848665</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12293,11 +13373,15 @@
         <v>16806810.48238664</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12326,11 +13410,15 @@
         <v>18578459.65338665</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12359,11 +13447,15 @@
         <v>22885260.27217227</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12396,7 +13488,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12425,14 +13521,16 @@
         <v>23237929.54559561</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
-      <c r="L354" t="n">
-        <v>1</v>
-      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L354" t="inlineStr"/>
       <c r="M354" t="inlineStr"/>
     </row>
     <row r="355">
@@ -12458,7 +13556,7 @@
         <v>21943508.57303126</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12491,7 +13589,7 @@
         <v>22670957.73963126</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12524,7 +13622,7 @@
         <v>22973426.50203126</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12557,7 +13655,7 @@
         <v>22375730.45593126</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12623,7 +13721,7 @@
         <v>22086603.46463126</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12656,7 +13754,7 @@
         <v>25193223.66883126</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12689,7 +13787,7 @@
         <v>25193223.66883126</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12755,7 +13853,7 @@
         <v>25191780.78413126</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12788,7 +13886,7 @@
         <v>25051468.21053126</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12821,7 +13919,7 @@
         <v>24914342.72723126</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12854,7 +13952,7 @@
         <v>25141500.87883126</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12887,7 +13985,7 @@
         <v>24972995.86133537</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12920,7 +14018,7 @@
         <v>25108382.50883537</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12953,7 +14051,7 @@
         <v>25222860.84683949</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13019,7 +14117,7 @@
         <v>25067648.80060879</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13052,7 +14150,7 @@
         <v>25056076.29011291</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13085,7 +14183,7 @@
         <v>25056076.29011291</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13118,7 +14216,7 @@
         <v>25053498.3424129</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13448,7 +14546,7 @@
         <v>24425380.68207607</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13481,7 +14579,7 @@
         <v>24452302.93987608</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -16913,7 +18011,7 @@
         <v>23771327.71024305</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16946,7 +18044,7 @@
         <v>24037918.11320723</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16979,7 +18077,7 @@
         <v>24037918.11320723</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17012,7 +18110,7 @@
         <v>24037918.11320723</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17045,7 +18143,7 @@
         <v>24037918.11320723</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17078,7 +18176,7 @@
         <v>23944184.84620723</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17111,7 +18209,7 @@
         <v>24435492.78692128</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17144,7 +18242,7 @@
         <v>24435492.78692128</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17177,7 +18275,7 @@
         <v>24435492.78692128</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17210,7 +18308,7 @@
         <v>24435492.78692128</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -17243,7 +18341,7 @@
         <v>25139045.29362128</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -17276,7 +18374,7 @@
         <v>24979709.46742128</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17309,7 +18407,7 @@
         <v>24863936.69512128</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17342,7 +18440,7 @@
         <v>24843744.24342128</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17375,7 +18473,7 @@
         <v>24843744.24342128</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17408,7 +18506,7 @@
         <v>24862249.38392128</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17441,7 +18539,7 @@
         <v>24860013.21102129</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17474,7 +18572,7 @@
         <v>24804285.92652129</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17507,7 +18605,7 @@
         <v>24921471.23222129</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17540,7 +18638,7 @@
         <v>24916439.23222129</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17573,7 +18671,7 @@
         <v>24916439.23222129</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17606,7 +18704,7 @@
         <v>25112376.57642129</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17639,7 +18737,7 @@
         <v>25081303.10882129</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17672,7 +18770,7 @@
         <v>25159231.44031903</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17705,7 +18803,7 @@
         <v>25159231.44031903</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17738,7 +18836,7 @@
         <v>25067091.55111903</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17771,7 +18869,7 @@
         <v>25068773.12281903</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17804,7 +18902,7 @@
         <v>25076459.03942129</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17837,7 +18935,7 @@
         <v>25076459.03942129</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17870,7 +18968,7 @@
         <v>25076459.03942129</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17903,7 +19001,7 @@
         <v>25076459.03942129</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17936,7 +19034,7 @@
         <v>24679507.16972129</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17969,7 +19067,7 @@
         <v>24679518.16972129</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18002,7 +19100,7 @@
         <v>24555950.41972129</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18035,7 +19133,7 @@
         <v>24582936.63022128</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18068,7 +19166,7 @@
         <v>24582936.63022128</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18101,7 +19199,7 @@
         <v>24395112.06972129</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18134,7 +19232,7 @@
         <v>23893504.79442129</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
